--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 24278-2023</t>
+          <t>A 60427-2022</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45079</v>
+        <v>44911</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,94 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Kransrams
+Myskmadra
+Vårärt
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 24278-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Björktrast
 Rödvingetrast
@@ -628,91 +716,91 @@
 Trana</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 2787-2024</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45314</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0.8</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>4</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -720,130 +808,42 @@
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2787-2024 artfynd.xlsx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2787-2024 karta.png", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2787-2024 FSC-klagomål.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2787-2024 FSC-klagomål mail.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2787-2024 tillsynsbegäran.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2787-2024 tillsynsbegäran mail.docx", "A 2787-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 60427-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44911</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Kransrams
-Myskmadra
-Vårärt
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 19517-2023</t>
+          <t>A 27902-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45050</v>
+        <v>45098</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>10.3</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -874,237 +874,237 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Småvänderot
+Granbräken</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 7616-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Flenörtskapuschongfly
+Kösa
+Åkerkulla</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 19517-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45050</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Backsippa
 Dvärghäxört
 Liten stinksvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 19517-2023 artfynd.xlsx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 19517-2023 karta.png", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 19517-2023 FSC-klagomål.docx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 19517-2023 FSC-klagomål mail.docx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 19517-2023 tillsynsbegäran.docx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 19517-2023 tillsynsbegäran mail.docx", "A 19517-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 7616-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45348</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Flenörtskapuschongfly
-Kösa
-Åkerkulla</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 27902-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45098</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Småvänderot
-Granbräken</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 20975-2024</t>
+          <t>A 2942-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45439</v>
+        <v>45315</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>11.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1151,211 +1151,211 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Skogsbräsma
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 20975-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45439</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Dvärghäxört
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20975-2024 artfynd.xlsx", "A 20975-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20975-2024 karta.png", "A 20975-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20975-2024 FSC-klagomål.docx", "A 20975-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20975-2024 FSC-klagomål mail.docx", "A 20975-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20975-2024 tillsynsbegäran.docx", "A 20975-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20975-2024 tillsynsbegäran mail.docx", "A 20975-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 20987-2024</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45439</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>5</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 2942-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45315</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsbräsma
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1614,14 +1614,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 3924-2024</t>
+          <t>A 42053-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45322.57806712963</v>
+        <v>45174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1668,808 +1668,808 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 25480-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45802</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Hålnunneört</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 8833-2021</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44245</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 45550-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45922.63372685185</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 3924-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45322.57806712963</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
           <t>Vitnoppa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 45550-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45922.63372685185</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 61690-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 61690-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Kambräken</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 50553-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45945</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C20" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Sexfläckig blombock</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 8833-2021</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44245</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="n">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 22569-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45447.56391203704</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 42053-2023</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45174</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 22569-2024</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45447.56391203704</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 61019-2024</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>45645</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="C22" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>2.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Brokigt ängsfly</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 48926-2024</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45594</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C23" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>10.8</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 25480-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45802</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Hålnunneört</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>44370.37863425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>44396.42534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44284.6778125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44461.42746527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44596</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3784,14 +3784,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 16969-2025</t>
+          <t>A 3480-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45755.4659837963</v>
+        <v>44585.62603009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3841,14 +3841,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 26251-2025</t>
+          <t>A 10007-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45805.57872685185</v>
+        <v>44621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3898,14 +3898,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 43877-2022</t>
+          <t>A 35491-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44838</v>
+        <v>44385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3955,14 +3955,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 43897-2022</t>
+          <t>A 37675-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44838</v>
+        <v>45159.5582175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4012,14 +4012,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6174-2025</t>
+          <t>A 35801-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45698</v>
+        <v>45532</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4069,14 +4069,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 65200-2021</t>
+          <t>A 16110-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44515</v>
+        <v>45406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4126,14 +4126,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15905-2024</t>
+          <t>A 27233-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45405</v>
+        <v>44741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4183,14 +4183,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6589-2025</t>
+          <t>A 30087-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45700.30015046296</v>
+        <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4240,14 +4240,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6769-2021</t>
+          <t>A 16434-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44236</v>
+        <v>45751.48209490741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4297,14 +4297,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16110-2024</t>
+          <t>A 16789-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45406</v>
+        <v>45754.60923611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4354,14 +4354,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 4928-2022</t>
+          <t>A 31092-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44593.47482638889</v>
+        <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>7.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4411,14 +4411,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2935-2024</t>
+          <t>A 12842-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45315</v>
+        <v>45001</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4468,14 +4468,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26764-2023</t>
+          <t>A 47136-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45093</v>
+        <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4525,14 +4525,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30087-2023</t>
+          <t>A 28385-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45110</v>
+        <v>45477</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4582,14 +4582,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16787-2025</t>
+          <t>A 46777-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45754.60696759259</v>
+        <v>45583</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4639,14 +4639,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 54798-2023</t>
+          <t>A 12855-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45236.49951388889</v>
+        <v>45001</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4696,14 +4696,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 25934-2022</t>
+          <t>A 13475-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44734</v>
+        <v>45387.58354166667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4715,13 +4715,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4758,14 +4753,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40083-2025</t>
+          <t>A 11379-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45894.46975694445</v>
+        <v>45372.43756944445</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4778,7 +4773,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4815,14 +4810,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53455-2022</t>
+          <t>A 52281-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44874</v>
+        <v>45608</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4835,7 +4830,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>12.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4872,14 +4867,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59702-2022</t>
+          <t>A 51131-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44908</v>
+        <v>44461</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,13 +4886,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4934,14 +4924,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40090-2025</t>
+          <t>A 61377-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45894.47711805555</v>
+        <v>45646.39682870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4954,7 +4944,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4991,14 +4981,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16434-2025</t>
+          <t>A 60425-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45751.48209490741</v>
+        <v>44911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5011,7 +5001,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5048,14 +5038,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6760-2024</t>
+          <t>A 61087-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45342.47940972223</v>
+        <v>44915</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5068,7 +5058,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5105,14 +5095,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56596-2022</t>
+          <t>A 25749-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44888</v>
+        <v>45804.29387731481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5125,7 +5115,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5162,14 +5152,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 19633-2023</t>
+          <t>A 28189-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45051</v>
+        <v>45477</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5181,13 +5171,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5224,14 +5209,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17723-2023</t>
+          <t>A 26592-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45037</v>
+        <v>45807.8859375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5244,7 +5229,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5281,14 +5266,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43891-2022</t>
+          <t>A 27828-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44838</v>
+        <v>45817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5301,7 +5286,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5338,14 +5323,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56231-2022</t>
+          <t>A 40083-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44890</v>
+        <v>45894.46975694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5358,7 +5343,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>7.7</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5395,14 +5380,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14849-2024</t>
+          <t>A 17723-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45398</v>
+        <v>45037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5415,7 +5400,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5452,14 +5437,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11-2026</t>
+          <t>A 40090-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46023.58386574074</v>
+        <v>45894.47711805555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5472,7 +5457,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5509,14 +5494,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15657-2025</t>
+          <t>A 531-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45748</v>
+        <v>45664.50216435185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5529,7 +5514,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5573,7 +5558,7 @@
         <v>45901.54479166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5623,14 +5608,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57982-2025</t>
+          <t>A 16665-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45982.41506944445</v>
+        <v>44672</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5643,7 +5628,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5680,14 +5665,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28332-2024</t>
+          <t>A 44960-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45477</v>
+        <v>45190</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5700,7 +5685,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5737,14 +5722,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28352-2024</t>
+          <t>A 4120-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45477</v>
+        <v>45323.67927083333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5757,7 +5742,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5794,14 +5779,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53956-2023</t>
+          <t>A 39603-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45231</v>
+        <v>45167.46493055556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5799,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5851,14 +5836,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3-2026</t>
+          <t>A 54753-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46023.44236111111</v>
+        <v>44883</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5856,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5908,14 +5893,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4120-2024</t>
+          <t>A 5730-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45323.67927083333</v>
+        <v>44596</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5913,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5965,14 +5950,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 54753-2022</t>
+          <t>A 13437-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44883</v>
+        <v>45005</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5970,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6022,14 +6007,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 47136-2022</t>
+          <t>A 14515-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44848</v>
+        <v>45012</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6027,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6079,14 +6064,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43871-2022</t>
+          <t>A 26757-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44838</v>
+        <v>45093</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6084,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6136,14 +6121,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43884-2022</t>
+          <t>A 30730-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44838</v>
+        <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6156,7 +6141,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6193,14 +6178,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30730-2025</t>
+          <t>A 20381-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45831</v>
+        <v>45775.43020833333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6213,7 +6198,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6250,14 +6235,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 14514-2023</t>
+          <t>A 43877-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45012</v>
+        <v>44838</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6270,7 +6255,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6307,14 +6292,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 30951-2023</t>
+          <t>A 43897-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45113</v>
+        <v>44838</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6312,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6371,7 +6356,7 @@
         <v>45919.59726851852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6428,7 +6413,7 @@
         <v>45919.49057870371</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6478,14 +6463,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 53807-2023</t>
+          <t>A 27219-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45231</v>
+        <v>44741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6498,7 +6483,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6535,14 +6520,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 53460-2022</t>
+          <t>A 63268-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44879</v>
+        <v>45273.75299768519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6592,14 +6577,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2852-2026</t>
+          <t>A 2114-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46038.4815162037</v>
+        <v>45672.6284375</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6612,7 +6597,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6649,14 +6634,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58807-2025</t>
+          <t>A 8478-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45987</v>
+        <v>45709.48738425926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6669,7 +6654,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6706,14 +6691,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3182-2026</t>
+          <t>A 21066-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46041.45050925926</v>
+        <v>45061</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6725,8 +6710,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6763,14 +6753,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31092-2023</t>
+          <t>A 28352-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45113</v>
+        <v>45477</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6783,7 +6773,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6820,14 +6810,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61169-2025</t>
+          <t>A 15905-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46000</v>
+        <v>45405</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6840,7 +6830,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6877,14 +6867,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61175-2025</t>
+          <t>A 28332-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46000</v>
+        <v>45477</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6897,7 +6887,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6934,14 +6924,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 37082-2024</t>
+          <t>A 6760-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45539</v>
+        <v>45342.47940972223</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6954,7 +6944,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6991,14 +6981,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 531-2025</t>
+          <t>A 29285-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45664.50216435185</v>
+        <v>45824</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7011,7 +7001,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7048,14 +7038,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 56941-2025</t>
+          <t>A 6174-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45978</v>
+        <v>45698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7058,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7105,14 +7095,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14554-2025</t>
+          <t>A 49745-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45741</v>
+        <v>45940.34168981481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7125,7 +7115,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7162,14 +7152,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49745-2025</t>
+          <t>A 49780-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45940.34168981481</v>
+        <v>45940.38962962963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7182,7 +7172,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7219,14 +7209,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49780-2025</t>
+          <t>A 12111-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45940.38962962963</v>
+        <v>45729.35930555555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7239,7 +7229,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7276,14 +7266,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 5082-2026</t>
+          <t>A 34109-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46049.54256944444</v>
+        <v>45845.49778935185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7296,7 +7286,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7333,14 +7323,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38813-2025</t>
+          <t>A 28830-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45887</v>
+        <v>45820</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7353,7 +7343,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7390,14 +7380,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44739-2024</t>
+          <t>A 51235-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45574.59447916667</v>
+        <v>45947.68568287037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7410,7 +7400,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7447,14 +7437,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57461-2022</t>
+          <t>A 26590-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44896</v>
+        <v>45807</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7467,7 +7457,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7504,14 +7494,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7655-2025</t>
+          <t>A 26591-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45706</v>
+        <v>45807</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7524,7 +7514,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7561,14 +7551,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 6648-2021</t>
+          <t>A 4247-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44235</v>
+        <v>45685</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7580,13 +7570,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7623,14 +7608,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 51235-2025</t>
+          <t>A 26251-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45947.68568287037</v>
+        <v>45805.57872685185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7628,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7680,14 +7665,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 51232-2025</t>
+          <t>A 3407-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45947</v>
+        <v>45318</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7685,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7737,14 +7722,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62944-2025</t>
+          <t>A 6769-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46009</v>
+        <v>44236</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7757,7 +7742,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7794,14 +7779,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 30645-2022</t>
+          <t>A 26764-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44763</v>
+        <v>45093</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7814,7 +7799,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7851,14 +7836,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 7306-2023</t>
+          <t>A 53848-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44970</v>
+        <v>45231</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7871,7 +7856,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7908,14 +7893,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19629-2025</t>
+          <t>A 10452-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45770.64084490741</v>
+        <v>44981</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7928,7 +7913,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7965,14 +7950,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 51301-2024</t>
+          <t>A 2950-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45604.28789351852</v>
+        <v>45315</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7985,7 +7970,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8022,14 +8007,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46777-2024</t>
+          <t>A 20512-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45583</v>
+        <v>45057</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8042,7 +8027,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8079,14 +8064,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 16663-2022</t>
+          <t>A 43996-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44672</v>
+        <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8099,7 +8084,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8136,14 +8121,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 40595-2021</t>
+          <t>A 55347-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44420.47767361111</v>
+        <v>45971.35238425926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8156,7 +8141,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8193,14 +8178,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 10452-2023</t>
+          <t>A 47222-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44981</v>
+        <v>44852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8213,7 +8198,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>12.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8250,14 +8235,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 50513-2025</t>
+          <t>A 56304-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45945</v>
+        <v>45974.60929398148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8270,7 +8255,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8307,14 +8292,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47222-2022</t>
+          <t>A 56307-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44852</v>
+        <v>45974.61260416666</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8327,7 +8312,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>12.3</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8364,14 +8349,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2950-2024</t>
+          <t>A 4928-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45315</v>
+        <v>44593.47482638889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8384,7 +8369,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8421,14 +8406,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6941-2024</t>
+          <t>A 14514-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45343.41258101852</v>
+        <v>45012</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8441,7 +8426,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8478,14 +8463,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 6944-2024</t>
+          <t>A 54711-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45343.42164351852</v>
+        <v>45618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8498,7 +8483,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8535,14 +8520,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13432-2023</t>
+          <t>A 45092-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45005.61023148148</v>
+        <v>45575.5844212963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8555,7 +8540,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8592,14 +8577,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 7782-2022</t>
+          <t>A 57982-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44608</v>
+        <v>45982.41506944445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8612,7 +8597,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8649,14 +8634,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 19380-2021</t>
+          <t>A 11-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44309</v>
+        <v>46023.58386574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8669,7 +8654,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8706,14 +8691,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 28335-2024</t>
+          <t>A 3-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45477</v>
+        <v>46023.44236111111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8726,7 +8711,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8763,14 +8748,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 3407-2024</t>
+          <t>A 57428-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45318</v>
+        <v>45240</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8783,7 +8768,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8820,14 +8805,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 23005-2024</t>
+          <t>A 70984-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45450.32965277778</v>
+        <v>44538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8840,7 +8825,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8877,14 +8862,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 53848-2023</t>
+          <t>A 40595-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45231</v>
+        <v>44420.47767361111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8897,7 +8882,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8934,14 +8919,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 14515-2023</t>
+          <t>A 61007-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45012</v>
+        <v>45645.44342592593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8951,6 +8936,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -8991,14 +8981,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 13429-2023</t>
+          <t>A 1475-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45005.60744212963</v>
+        <v>44573.50236111111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9001,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9048,14 +9038,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12855-2023</t>
+          <t>A 41623-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45001</v>
+        <v>45175.68952546296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9068,7 +9058,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9105,14 +9095,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55347-2025</t>
+          <t>A 37074-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45971.35238425926</v>
+        <v>45539</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9125,7 +9115,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9162,14 +9152,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45092-2024</t>
+          <t>A 51301-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45575.5844212963</v>
+        <v>45604.28789351852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9182,7 +9172,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9219,14 +9209,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56304-2025</t>
+          <t>A 3940-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45974.60929398148</v>
+        <v>45322</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9239,7 +9229,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9276,14 +9266,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56307-2025</t>
+          <t>A 53460-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45974.61260416666</v>
+        <v>44879</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9296,7 +9286,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9333,14 +9323,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 10007-2022</t>
+          <t>A 53807-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44621</v>
+        <v>45231</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9353,7 +9343,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9390,14 +9380,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61007-2024</t>
+          <t>A 2852-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45645.44342592593</v>
+        <v>46038.4815162037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9409,13 +9399,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9452,14 +9437,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 16789-2025</t>
+          <t>A 44728-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45754.60923611111</v>
+        <v>45574.57978009259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9472,7 +9457,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9509,14 +9494,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 36119-2024</t>
+          <t>A 3182-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45534</v>
+        <v>46041.45050925926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9529,7 +9514,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9566,14 +9551,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 41623-2023</t>
+          <t>A 26033-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45175.68952546296</v>
+        <v>44734</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9585,8 +9570,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>3.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9623,14 +9613,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 39603-2023</t>
+          <t>A 15657-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45167.46493055556</v>
+        <v>45748</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9643,7 +9633,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9680,14 +9670,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54711-2024</t>
+          <t>A 61169-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45618</v>
+        <v>46000</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9700,7 +9690,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9737,14 +9727,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 3480-2022</t>
+          <t>A 61175-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44585.62603009259</v>
+        <v>46000</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9757,7 +9747,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9794,14 +9784,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37074-2024</t>
+          <t>A 58807-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45539</v>
+        <v>45987</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9814,7 +9804,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9851,14 +9841,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 12833-2023</t>
+          <t>A 7306-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45001</v>
+        <v>44970</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9871,7 +9861,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9908,14 +9898,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 5730-2022</t>
+          <t>A 56941-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44596</v>
+        <v>45978</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9928,7 +9918,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9965,14 +9955,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 20381-2025</t>
+          <t>A 18345-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45775.43020833333</v>
+        <v>44685</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9984,8 +9974,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10022,14 +10017,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37675-2023</t>
+          <t>A 36211-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45159.5582175926</v>
+        <v>45534</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10042,7 +10037,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>7.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10079,14 +10074,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 5138-2022</t>
+          <t>A 36119-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44594</v>
+        <v>45534</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10099,7 +10094,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10136,14 +10131,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 12025-2025</t>
+          <t>A 43891-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45728.63755787037</v>
+        <v>44838</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10156,7 +10151,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10193,14 +10188,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 44728-2024</t>
+          <t>A 57461-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45574.57978009259</v>
+        <v>44896</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10213,7 +10208,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10250,14 +10245,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 43996-2022</t>
+          <t>A 51232-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44838</v>
+        <v>45947</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10270,7 +10265,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10307,14 +10302,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 18345-2022</t>
+          <t>A 62944-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44685</v>
+        <v>46009</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10326,13 +10321,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10369,14 +10359,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36884-2023</t>
+          <t>A 65200-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45154.6050925926</v>
+        <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10389,7 +10379,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10426,14 +10416,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 18348-2022</t>
+          <t>A 38813-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44685.67729166667</v>
+        <v>45887</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10445,13 +10435,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10488,14 +10473,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 16665-2022</t>
+          <t>A 5082-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44672</v>
+        <v>46049.54256944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10493,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10545,14 +10530,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 16759-2025</t>
+          <t>A 7655-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45754.5747337963</v>
+        <v>45706</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10550,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10602,14 +10587,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 27219-2022</t>
+          <t>A 14554-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44741</v>
+        <v>45741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10607,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10659,14 +10644,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 35491-2021</t>
+          <t>A 25934-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44385</v>
+        <v>44734</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10678,8 +10663,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10716,14 +10706,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 1475-2022</t>
+          <t>A 18348-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44573.50236111111</v>
+        <v>44685.67729166667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10735,8 +10725,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10773,14 +10768,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 63139-2023</t>
+          <t>A 19629-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45273</v>
+        <v>45770.64084490741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10830,14 +10825,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 45349-2023</t>
+          <t>A 6440-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45191</v>
+        <v>45338.65138888889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10845,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10887,14 +10882,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 44960-2023</t>
+          <t>A 50513-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45190</v>
+        <v>45945</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10902,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10944,14 +10939,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 36211-2024</t>
+          <t>A 30645-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45534</v>
+        <v>44763</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10959,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11001,14 +10996,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 42692-2022</t>
+          <t>A 56596-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44832</v>
+        <v>44888</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11016,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11058,14 +11053,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61011-2023</t>
+          <t>A 16663-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45261</v>
+        <v>44672</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11073,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11115,14 +11110,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 13437-2023</t>
+          <t>A 6941-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45005</v>
+        <v>45343.41258101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11130,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11172,14 +11167,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 27233-2022</t>
+          <t>A 6944-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44741</v>
+        <v>45343.42164351852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11187,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11229,14 +11224,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 50196-2022</t>
+          <t>A 2935-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44860</v>
+        <v>45315</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11244,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11286,14 +11281,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 70984-2021</t>
+          <t>A 14849-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44538</v>
+        <v>45398</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11301,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11343,14 +11338,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 21066-2023</t>
+          <t>A 13432-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45061</v>
+        <v>45005.61023148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11362,13 +11357,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11405,14 +11395,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57428-2023</t>
+          <t>A 63139-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45240</v>
+        <v>45273</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11425,7 +11415,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11462,14 +11452,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 4247-2025</t>
+          <t>A 13429-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45685</v>
+        <v>45005.60744212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11482,7 +11472,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11519,14 +11509,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 12842-2023</t>
+          <t>A 5138-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45001</v>
+        <v>44594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11539,7 +11529,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11576,14 +11566,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 26033-2022</t>
+          <t>A 53455-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44734</v>
+        <v>44874</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11595,13 +11585,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>9.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11638,14 +11623,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3940-2024</t>
+          <t>A 59702-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45322</v>
+        <v>44908</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11655,6 +11640,11 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -11695,14 +11685,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 34704-2024</t>
+          <t>A 16969-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45526</v>
+        <v>45755.4659837963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11715,7 +11705,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11752,14 +11742,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 6440-2024</t>
+          <t>A 43871-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45338.65138888889</v>
+        <v>44838</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11772,7 +11762,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11809,14 +11799,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 20512-2023</t>
+          <t>A 43884-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45057</v>
+        <v>44838</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11829,7 +11819,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11866,14 +11856,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 9701-2023</t>
+          <t>A 45349-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44984</v>
+        <v>45191</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11886,7 +11876,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11923,14 +11913,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 35801-2024</t>
+          <t>A 36884-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45532</v>
+        <v>45154.6050925926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11943,7 +11933,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11980,14 +11970,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 63268-2023</t>
+          <t>A 16787-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45273.75299768519</v>
+        <v>45754.60696759259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12000,7 +11990,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12037,14 +12027,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 50330-2023</t>
+          <t>A 50196-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45216</v>
+        <v>44860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12057,7 +12047,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12094,14 +12084,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50332-2023</t>
+          <t>A 30951-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45216.56113425926</v>
+        <v>45113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12114,7 +12104,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12151,14 +12141,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 11379-2024</t>
+          <t>A 50330-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45372.43756944445</v>
+        <v>45216</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12171,7 +12161,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12208,14 +12198,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 18246-2023</t>
+          <t>A 50332-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45041</v>
+        <v>45216.56113425926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12228,7 +12218,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12265,14 +12255,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 530-2025</t>
+          <t>A 23005-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45664.50134259259</v>
+        <v>45450.32965277778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12285,7 +12275,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12322,14 +12312,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 4501-2024</t>
+          <t>A 28335-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45327.61340277778</v>
+        <v>45477</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12342,7 +12332,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12379,14 +12369,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 26757-2023</t>
+          <t>A 34704-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45093</v>
+        <v>45526</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12399,7 +12389,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12436,14 +12426,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4245-2025</t>
+          <t>A 16759-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45685</v>
+        <v>45754.5747337963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12456,7 +12446,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12493,14 +12483,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 61377-2024</t>
+          <t>A 6648-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45646.39682870371</v>
+        <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12512,8 +12502,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12550,14 +12545,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 2114-2025</t>
+          <t>A 12833-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45672.6284375</v>
+        <v>45001</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12570,7 +12565,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12607,14 +12602,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 28385-2024</t>
+          <t>A 37082-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45477</v>
+        <v>45539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12627,7 +12622,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12664,14 +12659,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19196-2021</t>
+          <t>A 19633-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44308</v>
+        <v>45051</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12683,8 +12678,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12721,14 +12721,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 73544-2021</t>
+          <t>A 53956-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44551</v>
+        <v>45231</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12740,13 +12740,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12783,14 +12778,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 43469-2024</t>
+          <t>A 4245-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45568.72523148148</v>
+        <v>45685</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12803,7 +12798,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12840,14 +12835,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 9466-2025</t>
+          <t>A 6589-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45715.46888888889</v>
+        <v>45700.30015046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12860,7 +12855,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12897,14 +12892,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 27251-2024</t>
+          <t>A 61011-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45471</v>
+        <v>45261</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12917,7 +12912,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12954,14 +12949,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 23116-2025</t>
+          <t>A 19380-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45791.37001157407</v>
+        <v>44309</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12974,7 +12969,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13011,14 +13006,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 12028-2025</t>
+          <t>A 42692-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45728.64225694445</v>
+        <v>44832</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13031,7 +13026,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13068,14 +13063,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 50250-2024</t>
+          <t>A 18246-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45600.57039351852</v>
+        <v>45041</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13088,7 +13083,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13125,14 +13120,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 48921-2024</t>
+          <t>A 4501-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45594</v>
+        <v>45327.61340277778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13145,7 +13140,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13182,14 +13177,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 52281-2024</t>
+          <t>A 530-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45608</v>
+        <v>45664.50134259259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13202,7 +13197,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>12.3</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13239,14 +13234,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 48909-2024</t>
+          <t>A 56231-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45594</v>
+        <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13259,7 +13254,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>28.4</v>
+        <v>7.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13296,14 +13291,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 13475-2024</t>
+          <t>A 9701-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45387.58354166667</v>
+        <v>44984</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13316,7 +13311,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13353,14 +13348,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 60425-2022</t>
+          <t>A 7782-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44911</v>
+        <v>44608</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13373,7 +13368,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13410,14 +13405,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 61087-2022</t>
+          <t>A 44739-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44915</v>
+        <v>45574.59447916667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13430,7 +13425,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13467,14 +13462,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 51131-2021</t>
+          <t>A 12025-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44461</v>
+        <v>45728.63755787037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13487,7 +13482,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13524,14 +13519,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 25749-2025</t>
+          <t>A 54798-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45804.29387731481</v>
+        <v>45236.49951388889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13544,7 +13539,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13581,14 +13576,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 28189-2024</t>
+          <t>A 19196-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45477</v>
+        <v>44308</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13601,7 +13596,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>9.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13638,14 +13633,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 26592-2025</t>
+          <t>A 43469-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45807.8859375</v>
+        <v>45568.72523148148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13658,7 +13653,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13695,14 +13690,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 27828-2025</t>
+          <t>A 73544-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45817</v>
+        <v>44551</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13714,8 +13709,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13752,14 +13752,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 8478-2025</t>
+          <t>A 50250-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45709.48738425926</v>
+        <v>45600.57039351852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13809,14 +13809,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 29285-2025</t>
+          <t>A 9466-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45824</v>
+        <v>45715.46888888889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>8.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13866,14 +13866,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 28830-2025</t>
+          <t>A 12028-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45820</v>
+        <v>45728.64225694445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13923,14 +13923,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 12111-2025</t>
+          <t>A 23116-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45729.35930555555</v>
+        <v>45791.37001157407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13980,14 +13980,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 34109-2025</t>
+          <t>A 27251-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45845.49778935185</v>
+        <v>45471</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14037,14 +14037,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 26590-2025</t>
+          <t>A 48921-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45807</v>
+        <v>45594</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.3</v>
+        <v>6.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14094,14 +14094,14 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 26591-2025</t>
+          <t>A 48909-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45807</v>
+        <v>45594</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>28.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -575,7 +575,7 @@
         <v>44911</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45098</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45348</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45050</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45315</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44245</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45922.63372685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45322.57806712963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>46002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>45945</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>45447.56391203704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>45594</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>44370.37863425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>44396.42534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44284.6778125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44461.42746527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44596</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44585.62603009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>45159.5582175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>45532</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>44741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>45751.48209490741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>45754.60923611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>45001</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>45477</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45583</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>45001</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>45387.58354166667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>45372.43756944445</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45608</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44461</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>45646.39682870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>44915</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45804.29387731481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45477</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45807.8859375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>45817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45894.46975694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>45037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>45894.47711805555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45664.50216435185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>45901.54479166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>44672</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>45190</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45323.67927083333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>45167.46493055556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44883</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44596</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>45005</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>45012</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>45093</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>45775.43020833333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44838</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44838</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>45919.59726851852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>45919.49057870371</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>44741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>45273.75299768519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>45672.6284375</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>45709.48738425926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45061</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>45477</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45405</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>45477</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>45342.47940972223</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45824</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>45698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45940.34168981481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45940.38962962963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>45729.35930555555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45845.49778935185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45820</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>45947.68568287037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>45807</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>45807</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>45685</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>45805.57872685185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>45318</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44236</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>45093</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>45231</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44981</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>45315</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45057</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>45971.35238425926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>45974.60929398148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>45974.61260416666</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44593.47482638889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>45012</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>45618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>45575.5844212963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>45982.41506944445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>46023.58386574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>46023.44236111111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>45240</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44420.47767361111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>45645.44342592593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>44573.50236111111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>45175.68952546296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>45539</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45604.28789351852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45322</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44879</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>45231</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>46038.4815162037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>45574.57978009259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>46041.45050925926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44734</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45748</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>46000</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>46000</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>45987</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44970</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45978</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44685</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>45534</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>45534</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44838</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44896</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45947</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>46009</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45887</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>46049.54256944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>45706</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>45741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44734</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44685.67729166667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45770.64084490741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45338.65138888889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45945</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44763</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44888</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44672</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>45343.41258101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>45343.42164351852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>45315</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>45398</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>45005.61023148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>45273</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>45005.60744212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44874</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44908</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45755.4659837963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>44838</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>44838</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45191</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45154.6050925926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45754.60696759259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>45216</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>45216.56113425926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45450.32965277778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45477</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45526</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45754.5747337963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45001</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45051</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45231</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45685</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45700.30015046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45261</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44309</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44832</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45041</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45327.61340277778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45664.50134259259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44984</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44608</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45574.59447916667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45728.63755787037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>45236.49951388889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44308</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45568.72523148148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44551</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45600.57039351852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45715.46888888889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45728.64225694445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45791.37001157407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45471</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45594</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45594</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -575,7 +575,7 @@
         <v>44911</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45098</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45348</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45050</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45315</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44245</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45922.63372685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45322.57806712963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>46002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>45945</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>45447.56391203704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>45594</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>44370.37863425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>44396.42534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44284.6778125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44461.42746527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44596</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44585.62603009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>45159.5582175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>45532</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>44741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>45751.48209490741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>45754.60923611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>45001</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>45477</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45583</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>45001</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>45387.58354166667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>45372.43756944445</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45608</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44461</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>45646.39682870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>44915</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45804.29387731481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45477</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45807.8859375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>45817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45894.46975694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>45037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>45894.47711805555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45664.50216435185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>45901.54479166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>44672</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>45190</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45323.67927083333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>45167.46493055556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44883</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44596</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>45005</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>45012</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>45093</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>45775.43020833333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44838</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44838</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>45919.59726851852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>45919.49057870371</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>44741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>45273.75299768519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>45672.6284375</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>45709.48738425926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45061</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>45477</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45405</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>45477</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>45342.47940972223</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45824</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>45698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45940.34168981481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45940.38962962963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>45729.35930555555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45845.49778935185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45820</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>45947.68568287037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>45807</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>45807</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>45685</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>45805.57872685185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>45318</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44236</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>45093</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>45231</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44981</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>45315</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45057</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>45971.35238425926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>45974.60929398148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>45974.61260416666</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44593.47482638889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>45012</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>45618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>45575.5844212963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>45982.41506944445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>46023.58386574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>46023.44236111111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>45240</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44420.47767361111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>45645.44342592593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>44573.50236111111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>45175.68952546296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>45539</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45604.28789351852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45322</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44879</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>45231</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>46038.4815162037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>45574.57978009259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>46041.45050925926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44734</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45748</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>46000</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>46000</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>45987</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44970</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45978</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44685</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>45534</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>45534</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44838</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44896</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45947</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>46009</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45887</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>46049.54256944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>45706</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>45741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44734</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44685.67729166667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45770.64084490741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45338.65138888889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45945</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44763</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44888</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44672</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>45343.41258101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>45343.42164351852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>45315</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>45398</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>45005.61023148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>45273</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>45005.60744212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44874</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44908</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45755.4659837963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>44838</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>44838</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45191</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45154.6050925926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45754.60696759259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>45216</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>45216.56113425926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45450.32965277778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45477</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45526</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45754.5747337963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45001</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45051</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45231</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45685</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45700.30015046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45261</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44309</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44832</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45041</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45327.61340277778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45664.50134259259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44984</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44608</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45574.59447916667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45728.63755787037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>45236.49951388889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44308</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45568.72523148148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44551</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45600.57039351852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45715.46888888889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45728.64225694445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45791.37001157407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45471</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45594</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45594</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z227"/>
+  <dimension ref="A1:Z225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 60427-2022</t>
+          <t>A 24278-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44911</v>
+        <v>45079</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,17 +588,17 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,186 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Björktrast
+Rödvingetrast
+Spillkråka
+Trana</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 2787-2024</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Brunlångöra
+Nordfladdermus
+Större brunfladdermus
+Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2787-2024 artfynd.xlsx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2787-2024 karta.png", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2787-2024 FSC-klagomål.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2787-2024 FSC-klagomål mail.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2787-2024 tillsynsbegäran.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2787-2024 tillsynsbegäran mail.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 60427-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Kransrams
 Myskmadra
@@ -628,222 +808,42 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 24278-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45079</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Björktrast
-Rödvingetrast
-Spillkråka
-Trana</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 2787-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45314</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Brunlångöra
-Nordfladdermus
-Större brunfladdermus
-Vattenfladdermus</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2787-2024 artfynd.xlsx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2787-2024 karta.png", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2787-2024 FSC-klagomål.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2787-2024 FSC-klagomål mail.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2787-2024 tillsynsbegäran.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2787-2024 tillsynsbegäran mail.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 27902-2023</t>
+          <t>A 19517-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45098</v>
+        <v>45050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>10.3</v>
+        <v>6.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -874,237 +874,237 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Backsippa
+Dvärghäxört
+Liten stinksvamp</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 19517-2023 artfynd.xlsx", "A 19517-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 19517-2023 karta.png", "A 19517-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 19517-2023 FSC-klagomål.docx", "A 19517-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 19517-2023 FSC-klagomål mail.docx", "A 19517-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 19517-2023 tillsynsbegäran.docx", "A 19517-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 19517-2023 tillsynsbegäran mail.docx", "A 19517-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 7616-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Flenörtskapuschongfly
+Kösa
+Åkerkulla</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 27902-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45098</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Småvänderot
 Granbräken</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 7616-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45348</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Flenörtskapuschongfly
-Kösa
-Åkerkulla</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 19517-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45050</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Backsippa
-Dvärghäxört
-Liten stinksvamp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 19517-2023 artfynd.xlsx", "A 19517-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 19517-2023 karta.png", "A 19517-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 19517-2023 FSC-klagomål.docx", "A 19517-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 19517-2023 FSC-klagomål mail.docx", "A 19517-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 19517-2023 tillsynsbegäran.docx", "A 19517-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 19517-2023 tillsynsbegäran mail.docx", "A 19517-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2942-2024</t>
+          <t>A 20987-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45315</v>
+        <v>45439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1151,32 +1151,36 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma
-Revlummer</t>
+          <t>Spillkråka
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1194,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,14 +1273,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 20987-2024</t>
+          <t>A 2942-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45439</v>
+        <v>45315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1289,7 +1293,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>11.2</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1298,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1313,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1323,36 +1327,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
+          <t>Skogsbräsma
+Revlummer</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1614,14 +1614,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42053-2023</t>
+          <t>A 3924-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45174</v>
+        <v>45322.57806712963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1668,808 +1668,808 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Vitnoppa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 45550-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45922.63372685185</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 61690-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 50553-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45945</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Sexfläckig blombock</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 8833-2021</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44245</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 42053-2023</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 22569-2024</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45447.56391203704</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 61019-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45645</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Brokigt ängsfly</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 48926-2024</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45594</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 25480-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45802</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C23" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>0.5</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Hålnunneört</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 8833-2021</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44245</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 45550-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45922.63372685185</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 3924-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45322.57806712963</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Vitnoppa</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 61690-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 50553-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45945</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Sexfläckig blombock</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 22569-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45447.56391203704</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 61019-2024</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45645</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Brokigt ängsfly</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 48926-2024</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45594</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,14 +2530,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31810-2021</t>
+          <t>A 37135-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44370.37863425926</v>
+        <v>44396.42534722222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2587,14 +2587,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 37135-2021</t>
+          <t>A 31810-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44396.42534722222</v>
+        <v>44370.37863425926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44284.6778125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44461.42746527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44596</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3784,14 +3784,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3480-2022</t>
+          <t>A 6174-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44585.62603009259</v>
+        <v>45698</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3841,14 +3841,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10007-2022</t>
+          <t>A 16787-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44621</v>
+        <v>45754.60696759259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3898,14 +3898,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35491-2021</t>
+          <t>A 54798-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44385</v>
+        <v>45236.49951388889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3955,14 +3955,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37675-2023</t>
+          <t>A 25934-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45159.5582175926</v>
+        <v>44734</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3974,8 +3974,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4012,14 +4017,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35801-2024</t>
+          <t>A 53455-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45532</v>
+        <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4032,7 +4037,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4069,14 +4074,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16110-2024</t>
+          <t>A 56596-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45406</v>
+        <v>44888</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4089,7 +4094,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4126,14 +4131,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27233-2022</t>
+          <t>A 59702-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44741</v>
+        <v>44908</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4145,8 +4150,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4183,14 +4193,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30087-2023</t>
+          <t>A 6760-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45110</v>
+        <v>45342.47940972223</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4203,7 +4213,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4240,14 +4250,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16434-2025</t>
+          <t>A 17723-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45751.48209490741</v>
+        <v>45037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4260,7 +4270,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4297,14 +4307,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16789-2025</t>
+          <t>A 56231-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45754.60923611111</v>
+        <v>44890</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4317,7 +4327,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4354,14 +4364,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31092-2023</t>
+          <t>A 43891-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45113</v>
+        <v>44838</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4374,7 +4384,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4411,14 +4421,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12842-2023</t>
+          <t>A 14849-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45001</v>
+        <v>45398</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4431,7 +4441,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4468,14 +4478,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47136-2022</t>
+          <t>A 15657-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44848</v>
+        <v>45748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4488,7 +4498,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4525,14 +4535,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28385-2024</t>
+          <t>A 15905-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45477</v>
+        <v>45405</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4545,7 +4555,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4582,14 +4592,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 46777-2024</t>
+          <t>A 53956-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45583</v>
+        <v>45231</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4612,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4639,14 +4649,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12855-2023</t>
+          <t>A 28332-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45001</v>
+        <v>45477</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4659,7 +4669,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4696,14 +4706,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 13475-2024</t>
+          <t>A 28352-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45387.58354166667</v>
+        <v>45477</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4716,7 +4726,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4753,14 +4763,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11379-2024</t>
+          <t>A 4120-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45372.43756944445</v>
+        <v>45323.67927083333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4773,7 +4783,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4810,14 +4820,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52281-2024</t>
+          <t>A 47136-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45608</v>
+        <v>44848</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4830,7 +4840,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>12.3</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4867,14 +4877,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 51131-2021</t>
+          <t>A 43871-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44461</v>
+        <v>44838</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4887,7 +4897,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4924,14 +4934,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61377-2024</t>
+          <t>A 43884-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45646.39682870371</v>
+        <v>44838</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4944,7 +4954,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4981,14 +4991,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60425-2022</t>
+          <t>A 54753-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44911</v>
+        <v>44883</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5001,7 +5011,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5038,14 +5048,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61087-2022</t>
+          <t>A 14514-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44915</v>
+        <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5058,7 +5068,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5095,14 +5105,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25749-2025</t>
+          <t>A 30951-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45804.29387731481</v>
+        <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5115,7 +5125,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5152,14 +5162,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28189-2024</t>
+          <t>A 53460-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45477</v>
+        <v>44879</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5172,7 +5182,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5209,14 +5219,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26592-2025</t>
+          <t>A 31092-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45807.8859375</v>
+        <v>45113</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5229,7 +5239,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>7.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5266,14 +5276,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27828-2025</t>
+          <t>A 37082-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45817</v>
+        <v>45539</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,14 +5333,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40083-2025</t>
+          <t>A 14554-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45894.46975694445</v>
+        <v>45741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5343,7 +5353,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5380,14 +5390,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17723-2023</t>
+          <t>A 44739-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45037</v>
+        <v>45574.59447916667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5400,7 +5410,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5437,14 +5447,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40090-2025</t>
+          <t>A 57461-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45894.47711805555</v>
+        <v>44896</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5467,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5494,14 +5504,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 531-2025</t>
+          <t>A 7655-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45664.50216435185</v>
+        <v>45706</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5524,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5551,14 +5561,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41516-2025</t>
+          <t>A 7306-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45901.54479166667</v>
+        <v>44970</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5581,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5608,14 +5618,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 16665-2022</t>
+          <t>A 8478-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44672</v>
+        <v>45709.48738425926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5638,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5665,14 +5675,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44960-2023</t>
+          <t>A 29285-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45190</v>
+        <v>45824</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5685,7 +5695,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5722,14 +5732,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 4120-2024</t>
+          <t>A 51301-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45323.67927083333</v>
+        <v>45604.28789351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5742,7 +5752,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5779,14 +5789,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39603-2023</t>
+          <t>A 46777-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45167.46493055556</v>
+        <v>45583</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5799,7 +5809,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5836,14 +5846,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 54753-2022</t>
+          <t>A 16663-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44883</v>
+        <v>44672</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5856,7 +5866,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5893,14 +5903,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5730-2022</t>
+          <t>A 40595-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44596</v>
+        <v>44420.47767361111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5913,7 +5923,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5950,14 +5960,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13437-2023</t>
+          <t>A 40083-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45005</v>
+        <v>45894.46975694445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5970,7 +5980,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6007,14 +6017,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 14515-2023</t>
+          <t>A 10452-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45012</v>
+        <v>44981</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6027,7 +6037,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6064,14 +6074,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 26757-2023</t>
+          <t>A 40090-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45093</v>
+        <v>45894.47711805555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6084,7 +6094,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6121,14 +6131,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30730-2025</t>
+          <t>A 47222-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45831</v>
+        <v>44852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6141,7 +6151,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.4</v>
+        <v>12.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6178,14 +6188,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20381-2025</t>
+          <t>A 2950-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45775.43020833333</v>
+        <v>45315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6235,14 +6245,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43877-2022</t>
+          <t>A 28830-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44838</v>
+        <v>45820</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6255,7 +6265,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6292,14 +6302,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43897-2022</t>
+          <t>A 13432-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44838</v>
+        <v>45005.61023148148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6312,7 +6322,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6349,14 +6359,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45241-2025</t>
+          <t>A 12111-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45919.59726851852</v>
+        <v>45729.35930555555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6369,7 +6379,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>9.699999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6406,14 +6416,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 45164-2025</t>
+          <t>A 34109-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45919.49057870371</v>
+        <v>45845.49778935185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6426,7 +6436,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6463,14 +6473,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27219-2022</t>
+          <t>A 19380-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44741</v>
+        <v>44309</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6483,7 +6493,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6520,14 +6530,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 63268-2023</t>
+          <t>A 41516-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45273.75299768519</v>
+        <v>45901.54479166667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6540,7 +6550,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6577,14 +6587,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2114-2025</t>
+          <t>A 53848-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45672.6284375</v>
+        <v>45231</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6597,7 +6607,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6634,14 +6644,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 8478-2025</t>
+          <t>A 26590-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45709.48738425926</v>
+        <v>45807</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6654,7 +6664,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6691,14 +6701,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21066-2023</t>
+          <t>A 14515-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45061</v>
+        <v>45012</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6710,13 +6720,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6753,14 +6758,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28352-2024</t>
+          <t>A 13429-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45477</v>
+        <v>45005.60744212963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6773,7 +6778,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6810,14 +6815,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 15905-2024</t>
+          <t>A 12855-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45405</v>
+        <v>45001</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6835,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6867,14 +6872,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28332-2024</t>
+          <t>A 26591-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45477</v>
+        <v>45807</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6892,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6924,14 +6929,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6760-2024</t>
+          <t>A 45092-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45342.47940972223</v>
+        <v>45575.5844212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6949,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6981,14 +6986,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29285-2025</t>
+          <t>A 61007-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45824</v>
+        <v>45645.44342592593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7000,8 +7005,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7038,14 +7048,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 6174-2025</t>
+          <t>A 36119-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45698</v>
+        <v>45534</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7058,7 +7068,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7095,14 +7105,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49745-2025</t>
+          <t>A 26251-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45940.34168981481</v>
+        <v>45805.57872685185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7115,7 +7125,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7152,14 +7162,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49780-2025</t>
+          <t>A 30730-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45940.38962962963</v>
+        <v>45831</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7172,7 +7182,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7209,14 +7219,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 12111-2025</t>
+          <t>A 45241-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45729.35930555555</v>
+        <v>45919.59726851852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7229,7 +7239,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7266,14 +7276,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34109-2025</t>
+          <t>A 45164-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45845.49778935185</v>
+        <v>45919.49057870371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7286,7 +7296,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7323,14 +7333,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28830-2025</t>
+          <t>A 20381-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45820</v>
+        <v>45775.43020833333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7343,7 +7353,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7380,14 +7390,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 51235-2025</t>
+          <t>A 16969-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45947.68568287037</v>
+        <v>45755.4659837963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7400,7 +7410,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7437,14 +7447,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26590-2025</t>
+          <t>A 43877-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45807</v>
+        <v>44838</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7467,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7494,14 +7504,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26591-2025</t>
+          <t>A 43897-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45807</v>
+        <v>44838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7514,7 +7524,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7551,14 +7561,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4247-2025</t>
+          <t>A 49745-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45685</v>
+        <v>45940.34168981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7571,7 +7581,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7608,14 +7618,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26251-2025</t>
+          <t>A 49780-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45805.57872685185</v>
+        <v>45940.38962962963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7628,7 +7638,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7665,14 +7675,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 3407-2024</t>
+          <t>A 65200-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45318</v>
+        <v>44515</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7685,7 +7695,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7722,14 +7732,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 6769-2021</t>
+          <t>A 6589-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44236</v>
+        <v>45700.30015046296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7742,7 +7752,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7779,14 +7789,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26764-2023</t>
+          <t>A 16110-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45093</v>
+        <v>45406</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7799,7 +7809,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7836,14 +7846,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 53848-2023</t>
+          <t>A 4928-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45231</v>
+        <v>44593.47482638889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7856,7 +7866,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7893,14 +7903,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 10452-2023</t>
+          <t>A 51235-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44981</v>
+        <v>45947.68568287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7913,7 +7923,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7950,14 +7960,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2950-2024</t>
+          <t>A 2935-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>45315</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7970,7 +7980,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8007,14 +8017,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 20512-2023</t>
+          <t>A 26764-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45057</v>
+        <v>45093</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8027,7 +8037,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8064,14 +8074,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 43996-2022</t>
+          <t>A 30087-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44838</v>
+        <v>45110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8084,7 +8094,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8121,14 +8131,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 55347-2025</t>
+          <t>A 16434-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45971.35238425926</v>
+        <v>45751.48209490741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8141,7 +8151,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8178,14 +8188,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 47222-2022</t>
+          <t>A 19633-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44852</v>
+        <v>45051</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,8 +8207,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>12.3</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8235,14 +8250,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56304-2025</t>
+          <t>A 53807-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45974.60929398148</v>
+        <v>45231</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8255,7 +8270,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8292,14 +8307,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56307-2025</t>
+          <t>A 531-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45974.61260416666</v>
+        <v>45664.50216435185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8312,7 +8327,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8349,14 +8364,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 4928-2022</t>
+          <t>A 55347-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44593.47482638889</v>
+        <v>45971.35238425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8369,7 +8384,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8406,14 +8421,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 14514-2023</t>
+          <t>A 6941-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45012</v>
+        <v>45343.41258101852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8426,7 +8441,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8463,14 +8478,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54711-2024</t>
+          <t>A 6944-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45618</v>
+        <v>45343.42164351852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8483,7 +8498,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8520,14 +8535,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 45092-2024</t>
+          <t>A 7782-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45575.5844212963</v>
+        <v>44608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8540,7 +8555,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8577,14 +8592,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 57982-2025</t>
+          <t>A 56304-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45982.41506944445</v>
+        <v>45974.60929398148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8597,7 +8612,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8634,14 +8649,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 11-2026</t>
+          <t>A 56307-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46023.58386574074</v>
+        <v>45974.61260416666</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8654,7 +8669,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8691,14 +8706,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 3-2026</t>
+          <t>A 28335-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46023.44236111111</v>
+        <v>45477</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8711,7 +8726,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8748,14 +8763,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 57428-2023</t>
+          <t>A 3407-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45240</v>
+        <v>45318</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8768,7 +8783,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8805,14 +8820,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 70984-2021</t>
+          <t>A 23005-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44538</v>
+        <v>45450.32965277778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8825,7 +8840,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8862,14 +8877,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 40595-2021</t>
+          <t>A 10007-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44420.47767361111</v>
+        <v>44621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8882,7 +8897,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8919,14 +8934,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61007-2024</t>
+          <t>A 16789-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45645.44342592593</v>
+        <v>45754.60923611111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,13 +8953,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8981,14 +8991,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1475-2022</t>
+          <t>A 41623-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44573.50236111111</v>
+        <v>45175.68952546296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9001,7 +9011,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9038,14 +9048,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 41623-2023</t>
+          <t>A 39603-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45175.68952546296</v>
+        <v>45167.46493055556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9058,7 +9068,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9095,14 +9105,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 37074-2024</t>
+          <t>A 54711-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45539</v>
+        <v>45618</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9115,7 +9125,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9152,14 +9162,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51301-2024</t>
+          <t>A 3480-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45604.28789351852</v>
+        <v>44585.62603009259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9172,7 +9182,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9209,14 +9219,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 3940-2024</t>
+          <t>A 37074-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45322</v>
+        <v>45539</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9229,7 +9239,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9266,14 +9276,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 53460-2022</t>
+          <t>A 11-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44879</v>
+        <v>46023.58386574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9286,7 +9296,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9323,14 +9333,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 53807-2023</t>
+          <t>A 57982-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45231</v>
+        <v>45982.41506944445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9343,7 +9353,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9380,14 +9390,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 2852-2026</t>
+          <t>A 12833-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46038.4815162037</v>
+        <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9400,7 +9410,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9437,14 +9447,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 44728-2024</t>
+          <t>A 5730-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45574.57978009259</v>
+        <v>44596</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9457,7 +9467,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9494,14 +9504,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 3182-2026</t>
+          <t>A 3-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46041.45050925926</v>
+        <v>46023.44236111111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9514,7 +9524,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9551,14 +9561,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26033-2022</t>
+          <t>A 37675-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44734</v>
+        <v>45159.5582175926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9570,13 +9580,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>9.300000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9613,14 +9618,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 15657-2025</t>
+          <t>A 2852-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45748</v>
+        <v>46038.4815162037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9633,7 +9638,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9670,14 +9675,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61169-2025</t>
+          <t>A 3182-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46000</v>
+        <v>46041.45050925926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9690,7 +9695,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9727,14 +9732,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61175-2025</t>
+          <t>A 5138-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46000</v>
+        <v>44594</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9747,7 +9752,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9784,14 +9789,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58807-2025</t>
+          <t>A 12025-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45987</v>
+        <v>45728.63755787037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9804,7 +9809,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9841,14 +9846,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 7306-2023</t>
+          <t>A 61169-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44970</v>
+        <v>46000</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9861,7 +9866,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9898,14 +9903,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56941-2025</t>
+          <t>A 61175-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45978</v>
+        <v>46000</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9918,7 +9923,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9955,14 +9960,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 18345-2022</t>
+          <t>A 44728-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44685</v>
+        <v>45574.57978009259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,13 +9979,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10017,14 +10017,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 36211-2024</t>
+          <t>A 43996-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45534</v>
+        <v>44838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10074,14 +10074,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 36119-2024</t>
+          <t>A 18345-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45534</v>
+        <v>44685</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,8 +10093,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10131,14 +10136,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 43891-2022</t>
+          <t>A 36884-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44838</v>
+        <v>45154.6050925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10151,7 +10156,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10188,14 +10193,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57461-2022</t>
+          <t>A 18348-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44896</v>
+        <v>44685.67729166667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10207,8 +10212,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10245,14 +10255,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 51232-2025</t>
+          <t>A 16665-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45947</v>
+        <v>44672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10265,7 +10275,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10302,14 +10312,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62944-2025</t>
+          <t>A 5082-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46009</v>
+        <v>46049.54256944444</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10322,7 +10332,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10359,14 +10369,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 65200-2021</t>
+          <t>A 38813-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44515</v>
+        <v>45887</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10379,7 +10389,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10416,14 +10426,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 38813-2025</t>
+          <t>A 16759-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45887</v>
+        <v>45754.5747337963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10436,7 +10446,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10473,14 +10483,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 5082-2026</t>
+          <t>A 27219-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46049.54256944444</v>
+        <v>44741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10493,7 +10503,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10530,14 +10540,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 7655-2025</t>
+          <t>A 51232-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45706</v>
+        <v>45947</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10550,7 +10560,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10587,14 +10597,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 14554-2025</t>
+          <t>A 62944-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45741</v>
+        <v>46009</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10607,7 +10617,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10644,14 +10654,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 25934-2022</t>
+          <t>A 30645-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44734</v>
+        <v>44763</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10663,13 +10673,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10706,14 +10711,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 18348-2022</t>
+          <t>A 19629-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44685.67729166667</v>
+        <v>45770.64084490741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10725,13 +10730,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10768,14 +10768,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 19629-2025</t>
+          <t>A 35491-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45770.64084490741</v>
+        <v>44385</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10825,14 +10825,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6440-2024</t>
+          <t>A 1475-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45338.65138888889</v>
+        <v>44573.50236111111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10882,14 +10882,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 50513-2025</t>
+          <t>A 63139-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45945</v>
+        <v>45273</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10939,14 +10939,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 30645-2022</t>
+          <t>A 50513-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44763</v>
+        <v>45945</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10996,14 +10996,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 56596-2022</t>
+          <t>A 45349-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44888</v>
+        <v>45191</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11053,14 +11053,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 16663-2022</t>
+          <t>A 44960-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44672</v>
+        <v>45190</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11110,14 +11110,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 6941-2024</t>
+          <t>A 58807-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45343.41258101852</v>
+        <v>45987</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11167,14 +11167,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6944-2024</t>
+          <t>A 36211-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45343.42164351852</v>
+        <v>45534</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>7.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11224,14 +11224,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 2935-2024</t>
+          <t>A 56941-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45315</v>
+        <v>45978</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11281,14 +11281,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 14849-2024</t>
+          <t>A 42692-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45398</v>
+        <v>44832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11338,14 +11338,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 13432-2023</t>
+          <t>A 61011-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45005.61023148148</v>
+        <v>45261</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11395,14 +11395,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 63139-2023</t>
+          <t>A 13437-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45273</v>
+        <v>45005</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11452,14 +11452,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 13429-2023</t>
+          <t>A 27233-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45005.60744212963</v>
+        <v>44741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.3</v>
+        <v>5.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11509,14 +11509,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5138-2022</t>
+          <t>A 50196-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44594</v>
+        <v>44860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11566,14 +11566,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53455-2022</t>
+          <t>A 70984-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44874</v>
+        <v>44538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11623,14 +11623,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 59702-2022</t>
+          <t>A 21066-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44908</v>
+        <v>45061</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11685,14 +11685,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 16969-2025</t>
+          <t>A 57428-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45755.4659837963</v>
+        <v>45240</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11742,14 +11742,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 43871-2022</t>
+          <t>A 4247-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44838</v>
+        <v>45685</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11799,14 +11799,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 43884-2022</t>
+          <t>A 12842-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44838</v>
+        <v>45001</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11856,14 +11856,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 45349-2023</t>
+          <t>A 26033-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45191</v>
+        <v>44734</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11875,8 +11875,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>3.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11913,14 +11918,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 36884-2023</t>
+          <t>A 3940-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45154.6050925926</v>
+        <v>45322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11938,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11970,14 +11975,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 16787-2025</t>
+          <t>A 34704-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45754.60696759259</v>
+        <v>45526</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11995,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12027,14 +12032,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 50196-2022</t>
+          <t>A 6440-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44860</v>
+        <v>45338.65138888889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12052,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12084,14 +12089,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 30951-2023</t>
+          <t>A 20512-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45113</v>
+        <v>45057</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12109,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12141,14 +12146,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50330-2023</t>
+          <t>A 9701-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45216</v>
+        <v>44984</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12166,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12198,14 +12203,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 50332-2023</t>
+          <t>A 35801-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45216.56113425926</v>
+        <v>45532</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12223,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12255,14 +12260,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 23005-2024</t>
+          <t>A 63268-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45450.32965277778</v>
+        <v>45273.75299768519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12280,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12312,14 +12317,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 28335-2024</t>
+          <t>A 50330-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45477</v>
+        <v>45216</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12337,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12369,14 +12374,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 34704-2024</t>
+          <t>A 50332-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45526</v>
+        <v>45216.56113425926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12394,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12426,14 +12431,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 16759-2025</t>
+          <t>A 11379-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45754.5747337963</v>
+        <v>45372.43756944445</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12451,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12483,14 +12488,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 6648-2021</t>
+          <t>A 18246-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44235</v>
+        <v>45041</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12502,13 +12507,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12545,14 +12545,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 12833-2023</t>
+          <t>A 530-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45001</v>
+        <v>45664.50134259259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12602,14 +12602,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 37082-2024</t>
+          <t>A 4501-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45539</v>
+        <v>45327.61340277778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12659,14 +12659,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19633-2023</t>
+          <t>A 26757-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45051</v>
+        <v>45093</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12678,13 +12678,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12721,14 +12716,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 53956-2023</t>
+          <t>A 4245-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45231</v>
+        <v>45685</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12741,7 +12736,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12778,14 +12773,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 4245-2025</t>
+          <t>A 61377-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45685</v>
+        <v>45646.39682870371</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12798,7 +12793,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12835,14 +12830,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 6589-2025</t>
+          <t>A 2114-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45700.30015046296</v>
+        <v>45672.6284375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12855,7 +12850,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12892,14 +12887,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61011-2023</t>
+          <t>A 28385-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45261</v>
+        <v>45477</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12912,7 +12907,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12949,14 +12944,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 19380-2021</t>
+          <t>A 19196-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12969,7 +12964,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.9</v>
+        <v>9.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13006,14 +13001,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 42692-2022</t>
+          <t>A 73544-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44832</v>
+        <v>44551</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13025,8 +13020,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13063,14 +13063,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 18246-2023</t>
+          <t>A 43469-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45041</v>
+        <v>45568.72523148148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13120,14 +13120,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 4501-2024</t>
+          <t>A 9466-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45327.61340277778</v>
+        <v>45715.46888888889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13177,14 +13177,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 530-2025</t>
+          <t>A 27251-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45664.50134259259</v>
+        <v>45471</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13234,14 +13234,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56231-2022</t>
+          <t>A 23116-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44890</v>
+        <v>45791.37001157407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>7.7</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13291,14 +13291,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 9701-2023</t>
+          <t>A 12028-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44984</v>
+        <v>45728.64225694445</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13348,14 +13348,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 7782-2022</t>
+          <t>A 50250-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44608</v>
+        <v>45600.57039351852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13405,14 +13405,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 44739-2024</t>
+          <t>A 48921-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45574.59447916667</v>
+        <v>45594</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.1</v>
+        <v>6.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13462,14 +13462,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 12025-2025</t>
+          <t>A 52281-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45728.63755787037</v>
+        <v>45608</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.6</v>
+        <v>12.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13519,14 +13519,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 54798-2023</t>
+          <t>A 48909-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45236.49951388889</v>
+        <v>45594</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.6</v>
+        <v>28.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13576,14 +13576,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 19196-2021</t>
+          <t>A 13475-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44308</v>
+        <v>45387.58354166667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13633,14 +13633,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 43469-2024</t>
+          <t>A 60425-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45568.72523148148</v>
+        <v>44911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13690,14 +13690,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 73544-2021</t>
+          <t>A 61087-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44551</v>
+        <v>44915</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13709,13 +13709,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13752,14 +13747,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 50250-2024</t>
+          <t>A 51131-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45600.57039351852</v>
+        <v>44461</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13772,7 +13767,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13809,14 +13804,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 9466-2025</t>
+          <t>A 25749-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45715.46888888889</v>
+        <v>45804.29387731481</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13829,7 +13824,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13866,14 +13861,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 12028-2025</t>
+          <t>A 28189-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45728.64225694445</v>
+        <v>45477</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13886,7 +13881,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13923,14 +13918,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 23116-2025</t>
+          <t>A 26592-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45791.37001157407</v>
+        <v>45807.8859375</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13943,7 +13938,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13977,17 +13972,17 @@
       </c>
       <c r="R224" s="2" t="inlineStr"/>
     </row>
-    <row r="225" ht="15" customHeight="1">
+    <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 27251-2024</t>
+          <t>A 27828-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45471</v>
+        <v>45817</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14000,7 +13995,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14033,120 +14028,6 @@
         <v>0</v>
       </c>
       <c r="R225" s="2" t="inlineStr"/>
-    </row>
-    <row r="226" ht="15" customHeight="1">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>A 48921-2024</t>
-        </is>
-      </c>
-      <c r="B226" s="1" t="n">
-        <v>45594</v>
-      </c>
-      <c r="C226" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G226" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>0</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0</v>
-      </c>
-      <c r="L226" t="n">
-        <v>0</v>
-      </c>
-      <c r="M226" t="n">
-        <v>0</v>
-      </c>
-      <c r="N226" t="n">
-        <v>0</v>
-      </c>
-      <c r="O226" t="n">
-        <v>0</v>
-      </c>
-      <c r="P226" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q226" t="n">
-        <v>0</v>
-      </c>
-      <c r="R226" s="2" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>A 48909-2024</t>
-        </is>
-      </c>
-      <c r="B227" s="1" t="n">
-        <v>45594</v>
-      </c>
-      <c r="C227" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G227" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>0</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0</v>
-      </c>
-      <c r="L227" t="n">
-        <v>0</v>
-      </c>
-      <c r="M227" t="n">
-        <v>0</v>
-      </c>
-      <c r="N227" t="n">
-        <v>0</v>
-      </c>
-      <c r="O227" t="n">
-        <v>0</v>
-      </c>
-      <c r="P227" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q227" t="n">
-        <v>0</v>
-      </c>
-      <c r="R227" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 24278-2023</t>
+          <t>A 60427-2022</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45079</v>
+        <v>44911</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,94 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Kransrams
+Myskmadra
+Vårärt
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 24278-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Björktrast
 Rödvingetrast
@@ -628,91 +716,91 @@
 Trana</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 2787-2024</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45314</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0.8</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>4</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -720,119 +808,31 @@
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2787-2024 artfynd.xlsx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2787-2024 karta.png", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2787-2024 FSC-klagomål.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2787-2024 FSC-klagomål mail.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2787-2024 tillsynsbegäran.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2787-2024 tillsynsbegäran mail.docx", "A 2787-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 60427-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44911</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Kransrams
-Myskmadra
-Vårärt
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,14 +923,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 7616-2024</t>
+          <t>A 27902-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45348</v>
+        <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>10.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -961,150 +961,150 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Småvänderot
+Granbräken</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 7616-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Flenörtskapuschongfly
 Kösa
 Åkerkulla</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 27902-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45098</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Småvänderot
-Granbräken</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 20987-2024</t>
+          <t>A 2942-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45439</v>
+        <v>45315</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>11.2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1151,36 +1151,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
+          <t>Skogsbräsma
+Revlummer</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1190,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,14 +1269,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2942-2024</t>
+          <t>A 20987-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45315</v>
+        <v>45439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1293,7 +1289,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1302,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1317,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1327,32 +1323,36 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma
-Revlummer</t>
+          <t>Spillkråka
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
         <v/>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1614,14 +1614,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 3924-2024</t>
+          <t>A 42053-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45322.57806712963</v>
+        <v>45174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1668,808 +1668,808 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 22569-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45447.56391203704</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 61019-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45645</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Brokigt ängsfly</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 48926-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45594</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 25480-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45802</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Hålnunneört</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 45550-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45922.63372685185</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 8833-2021</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44245</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 3924-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45322.57806712963</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
           <t>Vitnoppa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 45550-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45922.63372685185</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 61690-2025</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 61690-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Kambräken</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 50553-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45945</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C23" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Sexfläckig blombock</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 8833-2021</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44245</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 42053-2023</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45174</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 22569-2024</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45447.56391203704</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 61019-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45645</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Brokigt ängsfly</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 48926-2024</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45594</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 25480-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45802</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Hålnunneört</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,14 +2530,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 37135-2021</t>
+          <t>A 31810-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44396.42534722222</v>
+        <v>44370.37863425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2587,14 +2587,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31810-2021</t>
+          <t>A 37135-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44370.37863425926</v>
+        <v>44396.42534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44284.6778125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44461.42746527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44596</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3784,14 +3784,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6174-2025</t>
+          <t>A 40083-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45698</v>
+        <v>45894.46975694445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3841,14 +3841,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16787-2025</t>
+          <t>A 40090-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45754.60696759259</v>
+        <v>45894.47711805555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3898,14 +3898,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 54798-2023</t>
+          <t>A 3480-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45236.49951388889</v>
+        <v>44585.62603009259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3955,14 +3955,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 25934-2022</t>
+          <t>A 19380-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44734</v>
+        <v>44309</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3974,13 +3974,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4017,14 +4012,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53455-2022</t>
+          <t>A 10007-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44874</v>
+        <v>44621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4037,7 +4032,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4074,14 +4069,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56596-2022</t>
+          <t>A 35491-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44888</v>
+        <v>44385</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4094,7 +4089,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4131,14 +4126,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59702-2022</t>
+          <t>A 35801-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44908</v>
+        <v>45532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4150,13 +4145,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4193,14 +4183,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6760-2024</t>
+          <t>A 16110-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45342.47940972223</v>
+        <v>45406</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4213,7 +4203,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4250,14 +4240,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17723-2023</t>
+          <t>A 42692-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45037</v>
+        <v>44832</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4270,7 +4260,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4307,14 +4297,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56231-2022</t>
+          <t>A 27233-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44890</v>
+        <v>44741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4327,7 +4317,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4364,14 +4354,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43891-2022</t>
+          <t>A 30087-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44838</v>
+        <v>45110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4384,7 +4374,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4421,14 +4411,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14849-2024</t>
+          <t>A 18246-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45398</v>
+        <v>45041</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4441,7 +4431,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4478,14 +4468,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15657-2025</t>
+          <t>A 41516-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45748</v>
+        <v>45901.54479166667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4498,7 +4488,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4535,14 +4525,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15905-2024</t>
+          <t>A 4501-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45405</v>
+        <v>45327.61340277778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4555,7 +4545,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4592,14 +4582,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53956-2023</t>
+          <t>A 37675-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45231</v>
+        <v>45159.5582175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4612,7 +4602,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4649,14 +4639,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28332-2024</t>
+          <t>A 530-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45477</v>
+        <v>45664.50134259259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4669,7 +4659,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4706,14 +4696,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28352-2024</t>
+          <t>A 56231-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45477</v>
+        <v>44890</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4726,7 +4716,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4763,14 +4753,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4120-2024</t>
+          <t>A 16434-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45323.67927083333</v>
+        <v>45751.48209490741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4773,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4820,14 +4810,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47136-2022</t>
+          <t>A 16789-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44848</v>
+        <v>45754.60923611111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4840,7 +4830,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4877,14 +4867,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43871-2022</t>
+          <t>A 9701-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44838</v>
+        <v>44984</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4897,7 +4887,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4934,14 +4924,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 43884-2022</t>
+          <t>A 7782-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44838</v>
+        <v>44608</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4954,7 +4944,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4991,14 +4981,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 54753-2022</t>
+          <t>A 31092-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44883</v>
+        <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5011,7 +5001,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>7.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5048,14 +5038,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 14514-2023</t>
+          <t>A 44739-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45012</v>
+        <v>45574.59447916667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5068,7 +5058,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5105,14 +5095,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30951-2023</t>
+          <t>A 12025-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45113</v>
+        <v>45728.63755787037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5125,7 +5115,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5162,14 +5152,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53460-2022</t>
+          <t>A 12842-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44879</v>
+        <v>45001</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5182,7 +5172,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5219,14 +5209,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31092-2023</t>
+          <t>A 54798-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45113</v>
+        <v>45236.49951388889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5239,7 +5229,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7.8</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5276,14 +5266,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 37082-2024</t>
+          <t>A 28385-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45539</v>
+        <v>45477</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5296,7 +5286,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5333,14 +5323,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14554-2025</t>
+          <t>A 47136-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45741</v>
+        <v>44848</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5353,7 +5343,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5390,14 +5380,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44739-2024</t>
+          <t>A 46777-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45574.59447916667</v>
+        <v>45583</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5410,7 +5400,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5447,14 +5437,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57461-2022</t>
+          <t>A 19196-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44896</v>
+        <v>44308</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5467,7 +5457,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>9.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5504,14 +5494,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 7655-2025</t>
+          <t>A 43469-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45706</v>
+        <v>45568.72523148148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5524,7 +5514,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5561,14 +5551,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7306-2023</t>
+          <t>A 73544-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44970</v>
+        <v>44551</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5580,8 +5570,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5618,14 +5613,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8478-2025</t>
+          <t>A 50250-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45709.48738425926</v>
+        <v>45600.57039351852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5638,7 +5633,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5675,14 +5670,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29285-2025</t>
+          <t>A 9466-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45824</v>
+        <v>45715.46888888889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5695,7 +5690,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5732,14 +5727,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51301-2024</t>
+          <t>A 12855-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45604.28789351852</v>
+        <v>45001</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5747,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5789,14 +5784,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46777-2024</t>
+          <t>A 12028-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45583</v>
+        <v>45728.64225694445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5809,7 +5804,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5846,14 +5841,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16663-2022</t>
+          <t>A 23116-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44672</v>
+        <v>45791.37001157407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5866,7 +5861,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5903,14 +5898,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 40595-2021</t>
+          <t>A 11379-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44420.47767361111</v>
+        <v>45372.43756944445</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5923,7 +5918,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5960,14 +5955,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 40083-2025</t>
+          <t>A 30730-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45894.46975694445</v>
+        <v>45831</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5975,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6017,14 +6012,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10452-2023</t>
+          <t>A 27251-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44981</v>
+        <v>45471</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6032,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6074,14 +6069,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40090-2025</t>
+          <t>A 48921-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45894.47711805555</v>
+        <v>45594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6089,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6131,14 +6126,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47222-2022</t>
+          <t>A 61377-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44852</v>
+        <v>45646.39682870371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6146,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>12.3</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6188,14 +6183,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 2950-2024</t>
+          <t>A 48909-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45315</v>
+        <v>45594</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6203,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>28.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6245,14 +6240,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28830-2025</t>
+          <t>A 45241-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45820</v>
+        <v>45919.59726851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6260,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6302,14 +6297,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 13432-2023</t>
+          <t>A 13475-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45005.61023148148</v>
+        <v>45387.58354166667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6322,7 +6317,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6359,14 +6354,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12111-2025</t>
+          <t>A 45164-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45729.35930555555</v>
+        <v>45919.49057870371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6379,7 +6374,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6416,14 +6411,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 34109-2025</t>
+          <t>A 52281-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45845.49778935185</v>
+        <v>45608</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6436,7 +6431,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>12.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6473,14 +6468,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19380-2021</t>
+          <t>A 51131-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44309</v>
+        <v>44461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6493,7 +6488,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6530,14 +6525,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41516-2025</t>
+          <t>A 60425-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45901.54479166667</v>
+        <v>44911</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6550,7 +6545,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6587,14 +6582,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 53848-2023</t>
+          <t>A 61087-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45231</v>
+        <v>44915</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6644,14 +6639,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 26590-2025</t>
+          <t>A 17723-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45807</v>
+        <v>45037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6664,7 +6659,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6701,14 +6696,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 14515-2023</t>
+          <t>A 25749-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45012</v>
+        <v>45804.29387731481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6758,14 +6753,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13429-2023</t>
+          <t>A 531-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45005.60744212963</v>
+        <v>45664.50216435185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6778,7 +6773,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6815,14 +6810,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12855-2023</t>
+          <t>A 16665-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45001</v>
+        <v>44672</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6835,7 +6830,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6872,14 +6867,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26591-2025</t>
+          <t>A 44960-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45807</v>
+        <v>45190</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6892,7 +6887,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6929,14 +6924,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45092-2024</t>
+          <t>A 4120-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45575.5844212963</v>
+        <v>45323.67927083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6949,7 +6944,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6986,14 +6981,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61007-2024</t>
+          <t>A 28189-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45645.44342592593</v>
+        <v>45477</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7005,13 +7000,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7048,14 +7038,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 36119-2024</t>
+          <t>A 39603-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45534</v>
+        <v>45167.46493055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7058,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7105,14 +7095,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26251-2025</t>
+          <t>A 54753-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45805.57872685185</v>
+        <v>44883</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7125,7 +7115,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7162,14 +7152,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 30730-2025</t>
+          <t>A 26592-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45831</v>
+        <v>45807.8859375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7182,7 +7172,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7219,14 +7209,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45241-2025</t>
+          <t>A 27828-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45919.59726851852</v>
+        <v>45817</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7239,7 +7229,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>9.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7276,14 +7266,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 45164-2025</t>
+          <t>A 5730-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45919.49057870371</v>
+        <v>44596</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7296,7 +7286,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7333,14 +7323,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 20381-2025</t>
+          <t>A 13437-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45775.43020833333</v>
+        <v>45005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7353,7 +7343,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7390,14 +7380,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16969-2025</t>
+          <t>A 14515-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45755.4659837963</v>
+        <v>45012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7410,7 +7400,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7447,14 +7437,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43877-2022</t>
+          <t>A 26757-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44838</v>
+        <v>45093</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7467,7 +7457,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7504,14 +7494,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 43897-2022</t>
+          <t>A 20381-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44838</v>
+        <v>45775.43020833333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7524,7 +7514,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7561,14 +7551,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49745-2025</t>
+          <t>A 43877-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45940.34168981481</v>
+        <v>44838</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7571,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7618,14 +7608,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 49780-2025</t>
+          <t>A 43897-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45940.38962962963</v>
+        <v>44838</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7638,7 +7628,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7675,14 +7665,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 65200-2021</t>
+          <t>A 27219-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44515</v>
+        <v>44741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7695,7 +7685,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7732,14 +7722,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 6589-2025</t>
+          <t>A 63268-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45700.30015046296</v>
+        <v>45273.75299768519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7789,14 +7779,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 16110-2024</t>
+          <t>A 2114-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45406</v>
+        <v>45672.6284375</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7809,7 +7799,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7846,14 +7836,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 4928-2022</t>
+          <t>A 8478-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44593.47482638889</v>
+        <v>45709.48738425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7866,7 +7856,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7903,14 +7893,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 51235-2025</t>
+          <t>A 21066-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45947.68568287037</v>
+        <v>45061</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7922,8 +7912,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7960,14 +7955,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2935-2024</t>
+          <t>A 29285-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45315</v>
+        <v>45824</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7980,7 +7975,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8017,14 +8012,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26764-2023</t>
+          <t>A 28352-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45093</v>
+        <v>45477</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8037,7 +8032,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8074,14 +8069,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 30087-2023</t>
+          <t>A 15905-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45110</v>
+        <v>45405</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8094,7 +8089,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8131,14 +8126,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 16434-2025</t>
+          <t>A 12111-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45751.48209490741</v>
+        <v>45729.35930555555</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8151,7 +8146,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8188,14 +8183,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 19633-2023</t>
+          <t>A 28332-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45051</v>
+        <v>45477</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,13 +8202,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8250,14 +8240,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 53807-2023</t>
+          <t>A 34109-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45231</v>
+        <v>45845.49778935185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8270,7 +8260,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8307,14 +8297,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 531-2025</t>
+          <t>A 28830-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45664.50216435185</v>
+        <v>45820</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8327,7 +8317,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8364,14 +8354,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 55347-2025</t>
+          <t>A 6760-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45971.35238425926</v>
+        <v>45342.47940972223</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8384,7 +8374,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8421,14 +8411,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6941-2024</t>
+          <t>A 6174-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45343.41258101852</v>
+        <v>45698</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8441,7 +8431,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8478,14 +8468,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 6944-2024</t>
+          <t>A 26590-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45343.42164351852</v>
+        <v>45807</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8498,7 +8488,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8535,14 +8525,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 7782-2022</t>
+          <t>A 26591-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44608</v>
+        <v>45807</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8555,7 +8545,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8592,14 +8582,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 56304-2025</t>
+          <t>A 49745-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45974.60929398148</v>
+        <v>45940.34168981481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8612,7 +8602,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8649,14 +8639,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 56307-2025</t>
+          <t>A 49780-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45974.61260416666</v>
+        <v>45940.38962962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8669,7 +8659,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8706,14 +8696,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 28335-2024</t>
+          <t>A 26251-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45477</v>
+        <v>45805.57872685185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8726,7 +8716,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8763,14 +8753,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 3407-2024</t>
+          <t>A 4247-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45318</v>
+        <v>45685</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8783,7 +8773,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8820,14 +8810,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 23005-2024</t>
+          <t>A 3407-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45450.32965277778</v>
+        <v>45318</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8840,7 +8830,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8877,14 +8867,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10007-2022</t>
+          <t>A 51235-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44621</v>
+        <v>45947.68568287037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8934,14 +8924,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16789-2025</t>
+          <t>A 26764-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45754.60923611111</v>
+        <v>45093</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8954,7 +8944,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8991,14 +8981,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41623-2023</t>
+          <t>A 53848-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45175.68952546296</v>
+        <v>45231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9001,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9048,14 +9038,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 39603-2023</t>
+          <t>A 10452-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45167.46493055556</v>
+        <v>44981</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9068,7 +9058,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9105,14 +9095,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54711-2024</t>
+          <t>A 2950-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45618</v>
+        <v>45315</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9125,7 +9115,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9162,14 +9152,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3480-2022</t>
+          <t>A 20512-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44585.62603009259</v>
+        <v>45057</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9182,7 +9172,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9219,14 +9209,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 37074-2024</t>
+          <t>A 43996-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45539</v>
+        <v>44838</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9239,7 +9229,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9276,14 +9266,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 11-2026</t>
+          <t>A 47222-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46023.58386574074</v>
+        <v>44852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9296,7 +9286,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>12.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9333,14 +9323,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 57982-2025</t>
+          <t>A 4928-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45982.41506944445</v>
+        <v>44593.47482638889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9353,7 +9343,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9390,14 +9380,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 12833-2023</t>
+          <t>A 14514-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45001</v>
+        <v>45012</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9410,7 +9400,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9447,14 +9437,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 5730-2022</t>
+          <t>A 54711-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44596</v>
+        <v>45618</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9467,7 +9457,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9504,14 +9494,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 3-2026</t>
+          <t>A 55347-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46023.44236111111</v>
+        <v>45971.35238425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9524,7 +9514,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9561,14 +9551,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 37675-2023</t>
+          <t>A 45092-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45159.5582175926</v>
+        <v>45575.5844212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9581,7 +9571,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9618,14 +9608,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2852-2026</t>
+          <t>A 56304-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46038.4815162037</v>
+        <v>45974.60929398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9638,7 +9628,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9675,14 +9665,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 3182-2026</t>
+          <t>A 56307-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46041.45050925926</v>
+        <v>45974.61260416666</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9732,14 +9722,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 5138-2022</t>
+          <t>A 57428-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44594</v>
+        <v>45240</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9752,7 +9742,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9789,14 +9779,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 12025-2025</t>
+          <t>A 70984-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45728.63755787037</v>
+        <v>44538</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9809,7 +9799,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9846,14 +9836,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 61169-2025</t>
+          <t>A 40595-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46000</v>
+        <v>44420.47767361111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9866,7 +9856,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9903,14 +9893,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 61175-2025</t>
+          <t>A 61007-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46000</v>
+        <v>45645.44342592593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9922,8 +9912,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9960,14 +9955,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 44728-2024</t>
+          <t>A 57982-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45574.57978009259</v>
+        <v>45982.41506944445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9980,7 +9975,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10017,14 +10012,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 43996-2022</t>
+          <t>A 11-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44838</v>
+        <v>46023.58386574074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10037,7 +10032,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10074,14 +10069,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 18345-2022</t>
+          <t>A 3-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44685</v>
+        <v>46023.44236111111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10091,11 +10086,6 @@
       <c r="E157" t="inlineStr">
         <is>
           <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -10136,14 +10126,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 36884-2023</t>
+          <t>A 1475-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45154.6050925926</v>
+        <v>44573.50236111111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10156,7 +10146,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10193,14 +10183,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18348-2022</t>
+          <t>A 41623-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44685.67729166667</v>
+        <v>45175.68952546296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10212,13 +10202,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10255,14 +10240,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 16665-2022</t>
+          <t>A 37074-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44672</v>
+        <v>45539</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10275,7 +10260,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10312,14 +10297,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5082-2026</t>
+          <t>A 51301-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46049.54256944444</v>
+        <v>45604.28789351852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10332,7 +10317,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10369,14 +10354,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 38813-2025</t>
+          <t>A 3940-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45887</v>
+        <v>45322</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10389,7 +10374,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10426,14 +10411,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16759-2025</t>
+          <t>A 53460-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45754.5747337963</v>
+        <v>44879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10446,7 +10431,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10483,14 +10468,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 27219-2022</t>
+          <t>A 53807-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44741</v>
+        <v>45231</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10503,7 +10488,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10540,14 +10525,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 51232-2025</t>
+          <t>A 44728-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45947</v>
+        <v>45574.57978009259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10560,7 +10545,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10597,14 +10582,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 62944-2025</t>
+          <t>A 26033-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46009</v>
+        <v>44734</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10616,8 +10601,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10654,14 +10644,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 30645-2022</t>
+          <t>A 2852-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44763</v>
+        <v>46038.4815162037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10674,7 +10664,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10711,14 +10701,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 19629-2025</t>
+          <t>A 15657-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45770.64084490741</v>
+        <v>45748</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10731,7 +10721,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10768,14 +10758,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35491-2021</t>
+          <t>A 3182-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44385</v>
+        <v>46041.45050925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10788,7 +10778,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10825,14 +10815,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 1475-2022</t>
+          <t>A 61169-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44573.50236111111</v>
+        <v>46000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10845,7 +10835,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10882,14 +10872,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 63139-2023</t>
+          <t>A 7306-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45273</v>
+        <v>44970</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10902,7 +10892,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10939,14 +10929,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 50513-2025</t>
+          <t>A 61175-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45945</v>
+        <v>46000</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10949,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10996,14 +10986,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45349-2023</t>
+          <t>A 18345-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45191</v>
+        <v>44685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11015,8 +11005,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11053,14 +11048,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 44960-2023</t>
+          <t>A 36211-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45190</v>
+        <v>45534</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11073,7 +11068,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>7.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11110,14 +11105,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 58807-2025</t>
+          <t>A 36119-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45987</v>
+        <v>45534</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11130,7 +11125,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11167,14 +11162,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 36211-2024</t>
+          <t>A 43891-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45534</v>
+        <v>44838</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11187,7 +11182,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11224,14 +11219,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 56941-2025</t>
+          <t>A 57461-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45978</v>
+        <v>44896</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11244,7 +11239,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11281,14 +11276,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 42692-2022</t>
+          <t>A 65200-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44832</v>
+        <v>44515</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11301,7 +11296,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11338,14 +11333,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 61011-2023</t>
+          <t>A 7655-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45261</v>
+        <v>45706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11358,7 +11353,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11395,14 +11390,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 13437-2023</t>
+          <t>A 14554-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45005</v>
+        <v>45741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11415,7 +11410,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11452,14 +11447,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 27233-2022</t>
+          <t>A 51232-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44741</v>
+        <v>45947</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11472,7 +11467,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11509,14 +11504,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 50196-2022</t>
+          <t>A 62944-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44860</v>
+        <v>46009</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11529,7 +11524,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11566,14 +11561,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 70984-2021</t>
+          <t>A 38813-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44538</v>
+        <v>45887</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11586,7 +11581,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11623,14 +11618,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 21066-2023</t>
+          <t>A 25934-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45061</v>
+        <v>44734</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11644,11 +11639,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11685,14 +11680,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 57428-2023</t>
+          <t>A 18348-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45240</v>
+        <v>44685.67729166667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11704,8 +11699,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11742,14 +11742,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 4247-2025</t>
+          <t>A 5082-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45685</v>
+        <v>46049.54256944444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11799,14 +11799,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 12842-2023</t>
+          <t>A 6440-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45001</v>
+        <v>45338.65138888889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11856,14 +11856,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 26033-2022</t>
+          <t>A 56596-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44734</v>
+        <v>44888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11875,13 +11875,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>9.300000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11918,14 +11913,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 3940-2024</t>
+          <t>A 16663-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45322</v>
+        <v>44672</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11938,7 +11933,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11975,14 +11970,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 34704-2024</t>
+          <t>A 6941-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45526</v>
+        <v>45343.41258101852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11995,7 +11990,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12032,14 +12027,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 6440-2024</t>
+          <t>A 6944-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45338.65138888889</v>
+        <v>45343.42164351852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12052,7 +12047,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12089,14 +12084,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 20512-2023</t>
+          <t>A 2935-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45057</v>
+        <v>45315</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12109,7 +12104,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12146,14 +12141,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 9701-2023</t>
+          <t>A 19629-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44984</v>
+        <v>45770.64084490741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12166,7 +12161,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12203,14 +12198,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 35801-2024</t>
+          <t>A 50513-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45532</v>
+        <v>45945</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12223,7 +12218,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12260,14 +12255,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 63268-2023</t>
+          <t>A 30645-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45273.75299768519</v>
+        <v>44763</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12280,7 +12275,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12317,14 +12312,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 50330-2023</t>
+          <t>A 14849-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45216</v>
+        <v>45398</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12337,7 +12332,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12374,14 +12369,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 50332-2023</t>
+          <t>A 13432-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45216.56113425926</v>
+        <v>45005.61023148148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12394,7 +12389,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12431,14 +12426,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 11379-2024</t>
+          <t>A 63139-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45372.43756944445</v>
+        <v>45273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12451,7 +12446,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12488,14 +12483,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 18246-2023</t>
+          <t>A 13429-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45041</v>
+        <v>45005.60744212963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12508,7 +12503,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12545,14 +12540,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 530-2025</t>
+          <t>A 5138-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45664.50134259259</v>
+        <v>44594</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12565,7 +12560,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12602,14 +12597,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 4501-2024</t>
+          <t>A 56941-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45327.61340277778</v>
+        <v>45978</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12622,7 +12617,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12659,14 +12654,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 26757-2023</t>
+          <t>A 53455-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45093</v>
+        <v>44874</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12679,7 +12674,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12716,14 +12711,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4245-2025</t>
+          <t>A 59702-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45685</v>
+        <v>44908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12735,8 +12730,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12773,14 +12773,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61377-2024</t>
+          <t>A 58807-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45646.39682870371</v>
+        <v>45987</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12830,14 +12830,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 2114-2025</t>
+          <t>A 16969-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45672.6284375</v>
+        <v>45755.4659837963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12887,14 +12887,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 28385-2024</t>
+          <t>A 43871-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45477</v>
+        <v>44838</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12944,14 +12944,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 19196-2021</t>
+          <t>A 43884-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44308</v>
+        <v>44838</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13001,14 +13001,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 73544-2021</t>
+          <t>A 45349-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44551</v>
+        <v>45191</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13020,13 +13020,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13063,14 +13058,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 43469-2024</t>
+          <t>A 36884-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45568.72523148148</v>
+        <v>45154.6050925926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13083,7 +13078,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13120,14 +13115,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 9466-2025</t>
+          <t>A 16787-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45715.46888888889</v>
+        <v>45754.60696759259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13140,7 +13135,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13177,14 +13172,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 27251-2024</t>
+          <t>A 50196-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45471</v>
+        <v>44860</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13197,7 +13192,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13234,14 +13229,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 23116-2025</t>
+          <t>A 30951-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45791.37001157407</v>
+        <v>45113</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13254,7 +13249,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13291,14 +13286,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 12028-2025</t>
+          <t>A 50330-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45728.64225694445</v>
+        <v>45216</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13311,7 +13306,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13348,14 +13343,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 50250-2024</t>
+          <t>A 50332-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45600.57039351852</v>
+        <v>45216.56113425926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13368,7 +13363,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13405,14 +13400,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 48921-2024</t>
+          <t>A 23005-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45594</v>
+        <v>45450.32965277778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13425,7 +13420,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13462,14 +13457,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52281-2024</t>
+          <t>A 28335-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45608</v>
+        <v>45477</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13482,7 +13477,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>12.3</v>
+        <v>3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13519,14 +13514,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 48909-2024</t>
+          <t>A 34704-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45594</v>
+        <v>45526</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13539,7 +13534,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>28.4</v>
+        <v>0.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13576,14 +13571,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13475-2024</t>
+          <t>A 16759-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45387.58354166667</v>
+        <v>45754.5747337963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13596,7 +13591,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13633,14 +13628,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 60425-2022</t>
+          <t>A 12833-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44911</v>
+        <v>45001</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13690,14 +13685,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 61087-2022</t>
+          <t>A 37082-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44915</v>
+        <v>45539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13710,7 +13705,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13747,14 +13742,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 51131-2021</t>
+          <t>A 19633-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44461</v>
+        <v>45051</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13766,8 +13761,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13804,14 +13804,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 25749-2025</t>
+          <t>A 53956-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45804.29387731481</v>
+        <v>45231</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13861,14 +13861,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 28189-2024</t>
+          <t>A 4245-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45477</v>
+        <v>45685</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13918,14 +13918,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 26592-2025</t>
+          <t>A 6589-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45807.8859375</v>
+        <v>45700.30015046296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13975,14 +13975,14 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 27828-2025</t>
+          <t>A 61011-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45817</v>
+        <v>45261</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z225"/>
+  <dimension ref="A1:Z229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 60427-2022</t>
+          <t>A 2787-2024</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44911</v>
+        <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,186 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Brunlångöra
+Nordfladdermus
+Större brunfladdermus
+Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2787-2024 artfynd.xlsx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2787-2024 karta.png", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2787-2024 FSC-klagomål.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2787-2024 FSC-klagomål mail.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2787-2024 tillsynsbegäran.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2787-2024 tillsynsbegäran mail.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 24278-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Björktrast
+Rödvingetrast
+Spillkråka
+Trana</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 60427-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Kransrams
 Myskmadra
@@ -628,211 +808,31 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 24278-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45079</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Björktrast
-Rödvingetrast
-Spillkråka
-Trana</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 2787-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45314</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Brunlångöra
-Nordfladdermus
-Större brunfladdermus
-Vattenfladdermus</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2787-2024 artfynd.xlsx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2787-2024 karta.png", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2787-2024 FSC-klagomål.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2787-2024 FSC-klagomål mail.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2787-2024 tillsynsbegäran.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2787-2024 tillsynsbegäran mail.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,14 +923,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 27902-2023</t>
+          <t>A 7616-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45098</v>
+        <v>45348</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10.3</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -961,150 +961,150 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
         <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Flenörtskapuschongfly
+Kösa
+Åkerkulla</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 27902-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45098</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Småvänderot
 Granbräken</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 7616-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45348</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Flenörtskapuschongfly
-Kösa
-Åkerkulla</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2942-2024</t>
+          <t>A 20987-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45315</v>
+        <v>45439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1151,32 +1151,36 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma
-Revlummer</t>
+          <t>Spillkråka
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1194,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,14 +1273,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 20987-2024</t>
+          <t>A 2942-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45439</v>
+        <v>45315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1289,7 +1293,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>11.2</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1298,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1313,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1323,36 +1327,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
+          <t>Skogsbräsma
+Revlummer</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1614,14 +1614,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42053-2023</t>
+          <t>A 3924-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45174</v>
+        <v>45322.57806712963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1668,638 +1668,638 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Vitnoppa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 25480-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45802</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Hålnunneört</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 42053-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 8833-2021</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44245</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 45550-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45922.63372685185</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 22569-2024</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>45447.56391203704</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C19" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>2.2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 61019-2024</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45645</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G20" t="n">
         <v>2.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Brokigt ängsfly</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 48926-2024</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>45594</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C21" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>10.8</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 25480-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45802</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Hålnunneört</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 45550-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45922.63372685185</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 8833-2021</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44245</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 3924-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45322.57806712963</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Vitnoppa</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>46002</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>45945</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,14 +2530,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31810-2021</t>
+          <t>A 37135-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44370.37863425926</v>
+        <v>44396.42534722222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2587,14 +2587,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 37135-2021</t>
+          <t>A 31810-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44396.42534722222</v>
+        <v>44370.37863425926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3271,14 +3271,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44166-2021</t>
+          <t>A 5726-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44434</v>
+        <v>44596</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3328,14 +3328,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 15330-2021</t>
+          <t>A 44173-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44284.6778125</v>
+        <v>44434</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3385,14 +3385,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 44173-2021</t>
+          <t>A 44166-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3442,14 +3442,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 51120-2021</t>
+          <t>A 15330-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44461.42746527777</v>
+        <v>44284.6778125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3556,14 +3556,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 5726-2022</t>
+          <t>A 37913-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44596</v>
+        <v>44403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3613,14 +3613,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 37913-2021</t>
+          <t>A 6042-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44403</v>
+        <v>44599</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3670,14 +3670,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 65203-2021</t>
+          <t>A 51120-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44515</v>
+        <v>44461.42746527777</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3727,14 +3727,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 6042-2022</t>
+          <t>A 65203-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44599</v>
+        <v>44515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3784,14 +3784,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40083-2025</t>
+          <t>A 4120-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45894.46975694445</v>
+        <v>45323.67927083333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3841,14 +3841,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40090-2025</t>
+          <t>A 54753-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45894.47711805555</v>
+        <v>44883</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3898,14 +3898,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 3480-2022</t>
+          <t>A 47136-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44585.62603009259</v>
+        <v>44848</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3955,14 +3955,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19380-2021</t>
+          <t>A 43871-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44309</v>
+        <v>44838</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4012,14 +4012,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 10007-2022</t>
+          <t>A 43884-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44621</v>
+        <v>44838</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4069,14 +4069,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35491-2021</t>
+          <t>A 6589-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44385</v>
+        <v>45700.30015046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4126,14 +4126,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 35801-2024</t>
+          <t>A 16110-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45532</v>
+        <v>45406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4183,14 +4183,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16110-2024</t>
+          <t>A 4928-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45406</v>
+        <v>44593.47482638889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4240,14 +4240,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 42692-2022</t>
+          <t>A 14514-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44832</v>
+        <v>45012</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4297,14 +4297,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27233-2022</t>
+          <t>A 30951-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44741</v>
+        <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4354,14 +4354,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30087-2023</t>
+          <t>A 2935-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45110</v>
+        <v>45315</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4411,14 +4411,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 18246-2023</t>
+          <t>A 26764-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45041</v>
+        <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4468,14 +4468,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 41516-2025</t>
+          <t>A 6174-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45901.54479166667</v>
+        <v>45698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4525,14 +4525,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4501-2024</t>
+          <t>A 30087-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45327.61340277778</v>
+        <v>45110</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4582,14 +4582,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 37675-2023</t>
+          <t>A 15905-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45159.5582175926</v>
+        <v>45405</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4639,14 +4639,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 530-2025</t>
+          <t>A 53460-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45664.50134259259</v>
+        <v>44879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4696,14 +4696,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56231-2022</t>
+          <t>A 16787-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44890</v>
+        <v>45754.60696759259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4753,14 +4753,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16434-2025</t>
+          <t>A 54798-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45751.48209490741</v>
+        <v>45236.49951388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4810,14 +4810,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16789-2025</t>
+          <t>A 25934-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45754.60923611111</v>
+        <v>44734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4829,8 +4829,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>5.7</v>
+        <v>0.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4867,14 +4872,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9701-2023</t>
+          <t>A 16434-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44984</v>
+        <v>45751.48209490741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4887,7 +4892,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4924,14 +4929,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7782-2022</t>
+          <t>A 53455-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44608</v>
+        <v>44874</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4944,7 +4949,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4981,14 +4986,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31092-2023</t>
+          <t>A 59702-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45113</v>
+        <v>44908</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5000,8 +5005,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5038,14 +5048,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44739-2024</t>
+          <t>A 19633-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45574.59447916667</v>
+        <v>45051</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5057,8 +5067,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5095,14 +5110,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12025-2025</t>
+          <t>A 6760-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45728.63755787037</v>
+        <v>45342.47940972223</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5115,7 +5130,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5152,14 +5167,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 12842-2023</t>
+          <t>A 56596-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45001</v>
+        <v>44888</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5172,7 +5187,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5209,14 +5224,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54798-2023</t>
+          <t>A 17723-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45236.49951388889</v>
+        <v>45037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5229,7 +5244,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5266,14 +5281,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28385-2024</t>
+          <t>A 31092-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45477</v>
+        <v>45113</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5286,7 +5301,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.3</v>
+        <v>7.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5323,14 +5338,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47136-2022</t>
+          <t>A 37082-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44848</v>
+        <v>45539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5343,7 +5358,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5380,14 +5395,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 46777-2024</t>
+          <t>A 53807-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45583</v>
+        <v>45231</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5400,7 +5415,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5437,14 +5452,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 19196-2021</t>
+          <t>A 43891-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44308</v>
+        <v>44838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5472,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5494,14 +5509,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43469-2024</t>
+          <t>A 56231-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45568.72523148148</v>
+        <v>44890</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5529,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>7.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5551,14 +5566,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 73544-2021</t>
+          <t>A 14849-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44551</v>
+        <v>45398</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5570,13 +5585,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5613,14 +5623,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50250-2024</t>
+          <t>A 531-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45600.57039351852</v>
+        <v>45664.50216435185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5643,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5670,14 +5680,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9466-2025</t>
+          <t>A 15657-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45715.46888888889</v>
+        <v>45748</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5700,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5727,14 +5737,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12855-2023</t>
+          <t>A 14554-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45001</v>
+        <v>45741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5747,7 +5757,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5784,14 +5794,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12028-2025</t>
+          <t>A 28332-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45728.64225694445</v>
+        <v>45477</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5804,7 +5814,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5841,14 +5851,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 23116-2025</t>
+          <t>A 28352-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45791.37001157407</v>
+        <v>45477</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5861,7 +5871,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5898,14 +5908,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 11379-2024</t>
+          <t>A 53956-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45372.43756944445</v>
+        <v>45231</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5918,7 +5928,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5955,14 +5965,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30730-2025</t>
+          <t>A 6941-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45831</v>
+        <v>45343.41258101852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5975,7 +5985,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6012,14 +6022,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27251-2024</t>
+          <t>A 6944-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45471</v>
+        <v>45343.42164351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6032,7 +6042,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6069,14 +6079,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 48921-2024</t>
+          <t>A 44739-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45594</v>
+        <v>45574.59447916667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6089,7 +6099,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6126,14 +6136,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61377-2024</t>
+          <t>A 57461-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45646.39682870371</v>
+        <v>44896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6146,7 +6156,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6183,14 +6193,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48909-2024</t>
+          <t>A 7782-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45594</v>
+        <v>44608</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6203,7 +6213,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>28.4</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6240,14 +6250,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45241-2025</t>
+          <t>A 28335-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45919.59726851852</v>
+        <v>45477</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6260,7 +6270,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>9.699999999999999</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6297,14 +6307,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 13475-2024</t>
+          <t>A 3407-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45387.58354166667</v>
+        <v>45318</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6317,7 +6327,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6354,14 +6364,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45164-2025</t>
+          <t>A 23005-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45919.49057870371</v>
+        <v>45450.32965277778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6374,7 +6384,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6411,14 +6421,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 52281-2024</t>
+          <t>A 7655-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45608</v>
+        <v>45706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6431,7 +6441,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>12.3</v>
+        <v>3.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6468,14 +6478,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51131-2021</t>
+          <t>A 28189-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44461</v>
+        <v>45477</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6488,7 +6498,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6525,14 +6535,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60425-2022</t>
+          <t>A 10007-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44911</v>
+        <v>44621</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6545,7 +6555,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6582,14 +6592,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61087-2022</t>
+          <t>A 26592-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44915</v>
+        <v>45807.8859375</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6602,7 +6612,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6639,14 +6649,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17723-2023</t>
+          <t>A 16789-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45037</v>
+        <v>45754.60923611111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6659,7 +6669,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6696,14 +6706,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25749-2025</t>
+          <t>A 41623-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45804.29387731481</v>
+        <v>45175.68952546296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6716,7 +6726,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6753,14 +6763,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 531-2025</t>
+          <t>A 39603-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45664.50216435185</v>
+        <v>45167.46493055556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6773,7 +6783,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6810,14 +6820,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16665-2022</t>
+          <t>A 54711-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44672</v>
+        <v>45618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6840,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6867,14 +6877,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44960-2023</t>
+          <t>A 7306-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45190</v>
+        <v>44970</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6897,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6924,14 +6934,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4120-2024</t>
+          <t>A 27828-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45323.67927083333</v>
+        <v>45817</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6954,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6981,14 +6991,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28189-2024</t>
+          <t>A 3480-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45477</v>
+        <v>44585.62603009259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7001,7 +7011,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7038,14 +7048,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39603-2023</t>
+          <t>A 37074-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45167.46493055556</v>
+        <v>45539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7058,7 +7068,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7095,14 +7105,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 54753-2022</t>
+          <t>A 51301-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44883</v>
+        <v>45604.28789351852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7115,7 +7125,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7152,14 +7162,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 26592-2025</t>
+          <t>A 46777-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45807.8859375</v>
+        <v>45583</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7172,7 +7182,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7209,14 +7219,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27828-2025</t>
+          <t>A 16663-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45817</v>
+        <v>44672</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7229,7 +7239,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7266,14 +7276,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 5730-2022</t>
+          <t>A 40595-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44596</v>
+        <v>44420.47767361111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7286,7 +7296,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7323,14 +7333,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13437-2023</t>
+          <t>A 10452-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45005</v>
+        <v>44981</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7343,7 +7353,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7380,14 +7390,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 14515-2023</t>
+          <t>A 47222-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45012</v>
+        <v>44852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7400,7 +7410,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>12.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7437,14 +7447,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26757-2023</t>
+          <t>A 2950-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45093</v>
+        <v>45315</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7467,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7494,14 +7504,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20381-2025</t>
+          <t>A 12833-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45775.43020833333</v>
+        <v>45001</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7514,7 +7524,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7551,14 +7561,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 43877-2022</t>
+          <t>A 5730-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44838</v>
+        <v>44596</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7571,7 +7581,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7608,14 +7618,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 43897-2022</t>
+          <t>A 13432-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44838</v>
+        <v>45005.61023148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7628,7 +7638,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7665,14 +7675,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27219-2022</t>
+          <t>A 27233-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
         <v>44741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7685,7 +7695,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7722,14 +7732,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 63268-2023</t>
+          <t>A 50196-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45273.75299768519</v>
+        <v>44860</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7742,7 +7752,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7779,14 +7789,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 2114-2025</t>
+          <t>A 19380-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45672.6284375</v>
+        <v>44309</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7799,7 +7809,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7836,14 +7846,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 8478-2025</t>
+          <t>A 70984-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45709.48738425926</v>
+        <v>44538</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7856,7 +7866,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7893,14 +7903,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 21066-2023</t>
+          <t>A 53848-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45061</v>
+        <v>45231</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7910,11 +7920,6 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -7955,14 +7960,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 29285-2025</t>
+          <t>A 37675-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45824</v>
+        <v>45159.5582175926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7975,7 +7980,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8012,14 +8017,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28352-2024</t>
+          <t>A 14515-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45477</v>
+        <v>45012</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8032,7 +8037,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8069,14 +8074,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 15905-2024</t>
+          <t>A 13429-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45405</v>
+        <v>45005.60744212963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8089,7 +8094,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8126,14 +8131,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12111-2025</t>
+          <t>A 12855-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45729.35930555555</v>
+        <v>45001</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8146,7 +8151,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8183,14 +8188,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28332-2024</t>
+          <t>A 45092-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45477</v>
+        <v>45575.5844212963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8203,7 +8208,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8240,14 +8245,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 34109-2025</t>
+          <t>A 21066-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45845.49778935185</v>
+        <v>45061</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,8 +8264,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8297,14 +8307,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28830-2025</t>
+          <t>A 8478-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45820</v>
+        <v>45709.48738425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8317,7 +8327,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8354,14 +8364,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 6760-2024</t>
+          <t>A 29285-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45342.47940972223</v>
+        <v>45824</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8374,7 +8384,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8411,14 +8421,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6174-2025</t>
+          <t>A 61007-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45698</v>
+        <v>45645.44342592593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8430,8 +8440,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8468,14 +8483,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 26590-2025</t>
+          <t>A 57428-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45807</v>
+        <v>45240</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8488,7 +8503,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8525,14 +8540,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26591-2025</t>
+          <t>A 36119-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45807</v>
+        <v>45534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8545,7 +8560,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8582,14 +8597,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49745-2025</t>
+          <t>A 4247-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45940.34168981481</v>
+        <v>45685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8602,7 +8617,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8639,14 +8654,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49780-2025</t>
+          <t>A 28830-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45940.38962962963</v>
+        <v>45820</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8659,7 +8674,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8696,14 +8711,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 26251-2025</t>
+          <t>A 12111-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45805.57872685185</v>
+        <v>45729.35930555555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8716,7 +8731,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8753,14 +8768,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 4247-2025</t>
+          <t>A 34109-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45685</v>
+        <v>45845.49778935185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8773,7 +8788,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8810,14 +8825,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3407-2024</t>
+          <t>A 12842-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45318</v>
+        <v>45001</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8830,7 +8845,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8867,14 +8882,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 51235-2025</t>
+          <t>A 26033-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45947.68568287037</v>
+        <v>44734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8886,8 +8901,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8924,14 +8944,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26764-2023</t>
+          <t>A 5138-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45093</v>
+        <v>44594</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8944,7 +8964,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8981,14 +9001,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 53848-2023</t>
+          <t>A 12025-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45231</v>
+        <v>45728.63755787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9001,7 +9021,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9038,14 +9058,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10452-2023</t>
+          <t>A 3940-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44981</v>
+        <v>45322</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9058,7 +9078,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9095,14 +9115,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 2950-2024</t>
+          <t>A 44728-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45315</v>
+        <v>45574.57978009259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9115,7 +9135,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9152,14 +9172,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 20512-2023</t>
+          <t>A 43996-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45057</v>
+        <v>44838</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9172,7 +9192,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9209,14 +9229,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 43996-2022</t>
+          <t>A 18345-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44838</v>
+        <v>44685</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9228,8 +9248,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9266,14 +9291,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 47222-2022</t>
+          <t>A 26590-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44852</v>
+        <v>45807</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9286,7 +9311,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>12.3</v>
+        <v>3.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9323,14 +9348,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 4928-2022</t>
+          <t>A 36884-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44593.47482638889</v>
+        <v>45154.6050925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9343,7 +9368,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9380,14 +9405,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 14514-2023</t>
+          <t>A 26591-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45012</v>
+        <v>45807</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9400,7 +9425,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9437,14 +9462,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 54711-2024</t>
+          <t>A 18348-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45618</v>
+        <v>44685.67729166667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9456,8 +9481,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9494,14 +9524,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55347-2025</t>
+          <t>A 34704-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45971.35238425926</v>
+        <v>45526</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9514,7 +9544,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9551,14 +9581,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45092-2024</t>
+          <t>A 16665-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45575.5844212963</v>
+        <v>44672</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9571,7 +9601,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9608,14 +9638,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56304-2025</t>
+          <t>A 26251-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45974.60929398148</v>
+        <v>45805.57872685185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9628,7 +9658,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9665,14 +9695,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56307-2025</t>
+          <t>A 20381-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45974.61260416666</v>
+        <v>45775.43020833333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9685,7 +9715,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9722,14 +9752,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 57428-2023</t>
+          <t>A 16759-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45240</v>
+        <v>45754.5747337963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9742,7 +9772,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9779,14 +9809,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 70984-2021</t>
+          <t>A 27219-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44538</v>
+        <v>44741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9799,7 +9829,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9836,14 +9866,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 40595-2021</t>
+          <t>A 16969-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44420.47767361111</v>
+        <v>45755.4659837963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9856,7 +9886,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9893,14 +9923,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 61007-2024</t>
+          <t>A 35491-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45645.44342592593</v>
+        <v>44385</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,13 +9942,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9955,14 +9980,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 57982-2025</t>
+          <t>A 1475-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45982.41506944445</v>
+        <v>44573.50236111111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9975,7 +10000,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10012,14 +10037,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11-2026</t>
+          <t>A 63139-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46023.58386574074</v>
+        <v>45273</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10032,7 +10057,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10069,14 +10094,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3-2026</t>
+          <t>A 43877-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46023.44236111111</v>
+        <v>44838</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10089,7 +10114,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10126,14 +10151,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1475-2022</t>
+          <t>A 43897-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44573.50236111111</v>
+        <v>44838</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10146,7 +10171,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10183,14 +10208,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 41623-2023</t>
+          <t>A 6440-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45175.68952546296</v>
+        <v>45338.65138888889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10203,7 +10228,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10240,14 +10265,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 37074-2024</t>
+          <t>A 45349-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45539</v>
+        <v>45191</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10260,7 +10285,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10297,14 +10322,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 51301-2024</t>
+          <t>A 44960-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45604.28789351852</v>
+        <v>45190</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10317,7 +10342,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10354,14 +10379,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 3940-2024</t>
+          <t>A 36211-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45322</v>
+        <v>45534</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10374,7 +10399,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10411,14 +10436,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53460-2022</t>
+          <t>A 42692-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44879</v>
+        <v>44832</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10431,7 +10456,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10468,14 +10493,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 53807-2023</t>
+          <t>A 20512-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45231</v>
+        <v>45057</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10488,7 +10513,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10525,14 +10550,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 44728-2024</t>
+          <t>A 65200-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45574.57978009259</v>
+        <v>44515</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10545,7 +10570,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10582,14 +10607,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 26033-2022</t>
+          <t>A 61011-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44734</v>
+        <v>45261</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10601,13 +10626,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>9.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10644,14 +10664,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 2852-2026</t>
+          <t>A 13437-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46038.4815162037</v>
+        <v>45005</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10701,14 +10721,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 15657-2025</t>
+          <t>A 9701-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45748</v>
+        <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10741,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10758,14 +10778,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 3182-2026</t>
+          <t>A 40083-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46041.45050925926</v>
+        <v>45894.46975694445</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10778,7 +10798,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10815,14 +10835,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 61169-2025</t>
+          <t>A 35801-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46000</v>
+        <v>45532</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10835,7 +10855,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10872,14 +10892,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 7306-2023</t>
+          <t>A 40090-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44970</v>
+        <v>45894.47711805555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10892,7 +10912,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10929,14 +10949,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61175-2025</t>
+          <t>A 63268-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46000</v>
+        <v>45273.75299768519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10949,7 +10969,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10986,14 +11006,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 18345-2022</t>
+          <t>A 50330-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44685</v>
+        <v>45216</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11003,11 +11023,6 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -11048,14 +11063,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 36211-2024</t>
+          <t>A 50332-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45534</v>
+        <v>45216.56113425926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11068,7 +11083,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>7.6</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11105,14 +11120,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 36119-2024</t>
+          <t>A 11379-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45534</v>
+        <v>45372.43756944445</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11125,7 +11140,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11162,14 +11177,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 43891-2022</t>
+          <t>A 41516-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44838</v>
+        <v>45901.54479166667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11182,7 +11197,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11219,14 +11234,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 57461-2022</t>
+          <t>A 18246-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44896</v>
+        <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11239,7 +11254,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11276,14 +11291,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 65200-2021</t>
+          <t>A 530-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44515</v>
+        <v>45664.50134259259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,14 +11348,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 7655-2025</t>
+          <t>A 4501-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45706</v>
+        <v>45327.61340277778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11353,7 +11368,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11390,14 +11405,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 14554-2025</t>
+          <t>A 26757-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45741</v>
+        <v>45093</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11410,7 +11425,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11447,14 +11462,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 51232-2025</t>
+          <t>A 30730-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45947</v>
+        <v>45831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11467,7 +11482,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11504,14 +11519,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 62944-2025</t>
+          <t>A 4245-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46009</v>
+        <v>45685</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11524,7 +11539,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11561,14 +11576,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 38813-2025</t>
+          <t>A 61377-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45887</v>
+        <v>45646.39682870371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11581,7 +11596,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11618,14 +11633,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 25934-2022</t>
+          <t>A 45241-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44734</v>
+        <v>45919.59726851852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11637,13 +11652,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>0.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11680,14 +11690,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 18348-2022</t>
+          <t>A 2114-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44685.67729166667</v>
+        <v>45672.6284375</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11699,13 +11709,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11742,14 +11747,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 5082-2026</t>
+          <t>A 45164-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46049.54256944444</v>
+        <v>45919.49057870371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11767,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11799,14 +11804,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6440-2024</t>
+          <t>A 28385-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45338.65138888889</v>
+        <v>45477</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11824,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11856,14 +11861,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 56596-2022</t>
+          <t>A 19196-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44888</v>
+        <v>44308</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11881,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>9.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11913,14 +11918,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 16663-2022</t>
+          <t>A 73544-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44672</v>
+        <v>44551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11932,8 +11937,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11970,14 +11980,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 6941-2024</t>
+          <t>A 43469-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45343.41258101852</v>
+        <v>45568.72523148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +12000,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12027,14 +12037,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 6944-2024</t>
+          <t>A 49745-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45343.42164351852</v>
+        <v>45940.34168981481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12057,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12084,14 +12094,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2935-2024</t>
+          <t>A 49780-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45315</v>
+        <v>45940.38962962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12114,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>5.4</v>
+        <v>0.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12141,14 +12151,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 19629-2025</t>
+          <t>A 9466-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45770.64084490741</v>
+        <v>45715.46888888889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12171,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12198,14 +12208,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 50513-2025</t>
+          <t>A 27251-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45945</v>
+        <v>45471</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12228,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12255,14 +12265,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 30645-2022</t>
+          <t>A 23116-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44763</v>
+        <v>45791.37001157407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12285,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12312,14 +12322,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 14849-2024</t>
+          <t>A 12028-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45398</v>
+        <v>45728.64225694445</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12342,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12369,14 +12379,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 13432-2023</t>
+          <t>A 50250-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45005.61023148148</v>
+        <v>45600.57039351852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12399,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12426,14 +12436,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 63139-2023</t>
+          <t>A 51235-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45273</v>
+        <v>45947.68568287037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12456,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12483,14 +12493,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 13429-2023</t>
+          <t>A 48921-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45005.60744212963</v>
+        <v>45594</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12513,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.3</v>
+        <v>6.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12540,14 +12550,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5138-2022</t>
+          <t>A 52281-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44594</v>
+        <v>45608</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12570,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>12.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12597,14 +12607,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 56941-2025</t>
+          <t>A 48909-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45978</v>
+        <v>45594</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12627,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.7</v>
+        <v>28.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12654,14 +12664,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 53455-2022</t>
+          <t>A 13475-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44874</v>
+        <v>45387.58354166667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12684,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12711,14 +12721,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59702-2022</t>
+          <t>A 60425-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44908</v>
+        <v>44911</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12730,13 +12740,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12773,14 +12778,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 58807-2025</t>
+          <t>A 61087-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45987</v>
+        <v>44915</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12793,7 +12798,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12830,14 +12835,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 16969-2025</t>
+          <t>A 51131-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45755.4659837963</v>
+        <v>44461</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12850,7 +12855,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12887,14 +12892,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 43871-2022</t>
+          <t>A 25749-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44838</v>
+        <v>45804.29387731481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12907,7 +12912,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12944,14 +12949,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 43884-2022</t>
+          <t>A 55347-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44838</v>
+        <v>45971.35238425926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12964,7 +12969,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13001,14 +13006,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 45349-2023</t>
+          <t>A 56304-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45191</v>
+        <v>45974.60929398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13021,7 +13026,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13058,14 +13063,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 36884-2023</t>
+          <t>A 56307-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45154.6050925926</v>
+        <v>45974.61260416666</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13078,7 +13083,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13115,14 +13120,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 16787-2025</t>
+          <t>A 11-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45754.60696759259</v>
+        <v>46023.58386574074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13135,7 +13140,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13172,14 +13177,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 50196-2022</t>
+          <t>A 57982-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44860</v>
+        <v>45982.41506944445</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13192,7 +13197,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13229,14 +13234,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 30951-2023</t>
+          <t>A 3-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45113</v>
+        <v>46023.44236111111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13249,7 +13254,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13286,14 +13291,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 50330-2023</t>
+          <t>A 2852-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45216</v>
+        <v>46038.4815162037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13306,7 +13311,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13343,14 +13348,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 50332-2023</t>
+          <t>A 3182-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45216.56113425926</v>
+        <v>46041.45050925926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13363,7 +13368,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13400,14 +13405,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 23005-2024</t>
+          <t>A 61169-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45450.32965277778</v>
+        <v>46000</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13457,14 +13462,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 28335-2024</t>
+          <t>A 61175-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45477</v>
+        <v>46000</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13477,7 +13482,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13514,14 +13519,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 34704-2024</t>
+          <t>A 5082-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45526</v>
+        <v>46049.54256944444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13534,7 +13539,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13571,14 +13576,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 16759-2025</t>
+          <t>A 38813-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45754.5747337963</v>
+        <v>45887</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13591,7 +13596,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13628,14 +13633,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 12833-2023</t>
+          <t>A 51232-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45001</v>
+        <v>45947</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13648,7 +13653,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13685,14 +13690,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 37082-2024</t>
+          <t>A 62944-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45539</v>
+        <v>46009</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13705,7 +13710,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13742,14 +13747,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 19633-2023</t>
+          <t>A 30645-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45051</v>
+        <v>44763</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13761,13 +13766,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13804,14 +13804,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 53956-2023</t>
+          <t>A 19629-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45231</v>
+        <v>45770.64084490741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13861,14 +13861,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 4245-2025</t>
+          <t>A 50513-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45685</v>
+        <v>45945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13918,116 +13918,344 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 6589-2025</t>
+          <t>A 56941-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45700.30015046296</v>
+        <v>45978</v>
       </c>
       <c r="C224" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" s="2" t="inlineStr"/>
+    </row>
+    <row r="225" ht="15" customHeight="1">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>A 8290-2026</t>
+        </is>
+      </c>
+      <c r="B225" s="1" t="n">
         <v>46064</v>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G224" t="n">
+      <c r="C225" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" s="2" t="inlineStr"/>
+    </row>
+    <row r="226" ht="15" customHeight="1">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>A 58807-2025</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>45987</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" s="2" t="inlineStr"/>
+    </row>
+    <row r="227" ht="15" customHeight="1">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>A 8329-2026</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" s="2" t="inlineStr"/>
+    </row>
+    <row r="228" ht="15" customHeight="1">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>A 8296-2026</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" s="2" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>A 8305-2026</t>
+        </is>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="C229" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
         <v>0.5</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>0</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0</v>
-      </c>
-      <c r="L224" t="n">
-        <v>0</v>
-      </c>
-      <c r="M224" t="n">
-        <v>0</v>
-      </c>
-      <c r="N224" t="n">
-        <v>0</v>
-      </c>
-      <c r="O224" t="n">
-        <v>0</v>
-      </c>
-      <c r="P224" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q224" t="n">
-        <v>0</v>
-      </c>
-      <c r="R224" s="2" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>A 61011-2023</t>
-        </is>
-      </c>
-      <c r="B225" s="1" t="n">
-        <v>45261</v>
-      </c>
-      <c r="C225" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G225" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0</v>
-      </c>
-      <c r="L225" t="n">
-        <v>0</v>
-      </c>
-      <c r="M225" t="n">
-        <v>0</v>
-      </c>
-      <c r="N225" t="n">
-        <v>0</v>
-      </c>
-      <c r="O225" t="n">
-        <v>0</v>
-      </c>
-      <c r="P225" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q225" t="n">
-        <v>0</v>
-      </c>
-      <c r="R225" s="2" t="inlineStr"/>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 2787-2024</t>
+          <t>A 60427-2022</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45314</v>
+        <v>44911</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,186 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Kransrams
+Myskmadra
+Vårärt
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 24278-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Björktrast
+Rödvingetrast
+Spillkråka
+Trana</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 2787-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -628,222 +808,42 @@
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2787-2024 artfynd.xlsx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2787-2024 karta.png", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2787-2024 FSC-klagomål.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2787-2024 FSC-klagomål mail.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2787-2024 tillsynsbegäran.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2787-2024 tillsynsbegäran mail.docx", "A 2787-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 24278-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45079</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Björktrast
-Rödvingetrast
-Spillkråka
-Trana</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 60427-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44911</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Kransrams
-Myskmadra
-Vårärt
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 19517-2023</t>
+          <t>A 27902-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45050</v>
+        <v>45098</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>10.3</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -874,237 +874,237 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Småvänderot
+Granbräken</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 7616-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Flenörtskapuschongfly
+Kösa
+Åkerkulla</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 19517-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45050</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Backsippa
 Dvärghäxört
 Liten stinksvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 19517-2023 artfynd.xlsx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 19517-2023 karta.png", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 19517-2023 FSC-klagomål.docx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 19517-2023 FSC-klagomål mail.docx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 19517-2023 tillsynsbegäran.docx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 19517-2023 tillsynsbegäran mail.docx", "A 19517-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 7616-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45348</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Flenörtskapuschongfly
-Kösa
-Åkerkulla</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 27902-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45098</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Småvänderot
-Granbräken</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 20987-2024</t>
+          <t>A 2942-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45439</v>
+        <v>45315</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>11.2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1151,36 +1151,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
+          <t>Skogsbräsma
+Revlummer</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1190,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,14 +1269,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2942-2024</t>
+          <t>A 20987-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45315</v>
+        <v>45439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1293,7 +1289,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1302,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1317,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1327,32 +1323,36 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma
-Revlummer</t>
+          <t>Spillkråka
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
         <v/>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1614,14 +1614,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 3924-2024</t>
+          <t>A 42053-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45322.57806712963</v>
+        <v>45174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1668,808 +1668,808 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 48926-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45594</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 25480-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45802</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Hålnunneört</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 50553-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45945</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Sexfläckig blombock</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 8833-2021</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44245</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 3924-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45322.57806712963</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
           <t>Vitnoppa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 25480-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45802</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 45550-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45922.63372685185</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Hålnunneört</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 42053-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45174</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 8833-2021</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44245</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 45550-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45922.63372685185</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 61690-2025</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 22569-2024</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>45447.56391203704</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C22" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>2.2</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 61019-2024</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45645</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C23" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G23" t="n">
         <v>2.2</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Brokigt ängsfly</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 48926-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45594</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 61690-2025</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 50553-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45945</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Sexfläckig blombock</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,14 +2530,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 37135-2021</t>
+          <t>A 31810-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44396.42534722222</v>
+        <v>44370.37863425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2587,14 +2587,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31810-2021</t>
+          <t>A 37135-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44370.37863425926</v>
+        <v>44396.42534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3271,14 +3271,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5726-2022</t>
+          <t>A 44166-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44596</v>
+        <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3328,14 +3328,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 44173-2021</t>
+          <t>A 15330-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44434</v>
+        <v>44284.6778125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3385,14 +3385,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 44166-2021</t>
+          <t>A 44173-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3442,14 +3442,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 15330-2021</t>
+          <t>A 51120-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44284.6778125</v>
+        <v>44461.42746527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3556,14 +3556,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 37913-2021</t>
+          <t>A 5726-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44403</v>
+        <v>44596</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3613,14 +3613,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 6042-2022</t>
+          <t>A 37913-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44599</v>
+        <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3670,14 +3670,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 51120-2021</t>
+          <t>A 65203-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44461.42746527777</v>
+        <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3727,14 +3727,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 65203-2021</t>
+          <t>A 6042-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44515</v>
+        <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3784,14 +3784,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 4120-2024</t>
+          <t>A 3480-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45323.67927083333</v>
+        <v>44585.62603009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3841,14 +3841,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 54753-2022</t>
+          <t>A 35491-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44883</v>
+        <v>44385</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3898,14 +3898,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 47136-2022</t>
+          <t>A 10007-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44848</v>
+        <v>44621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3955,14 +3955,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 43871-2022</t>
+          <t>A 35801-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44838</v>
+        <v>45532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4012,14 +4012,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 43884-2022</t>
+          <t>A 16110-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44838</v>
+        <v>45406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4069,14 +4069,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 6589-2025</t>
+          <t>A 27233-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45700.30015046296</v>
+        <v>44741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4126,14 +4126,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 16110-2024</t>
+          <t>A 37675-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45406</v>
+        <v>45159.5582175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4183,14 +4183,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 4928-2022</t>
+          <t>A 30087-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44593.47482638889</v>
+        <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4240,14 +4240,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 14514-2023</t>
+          <t>A 16434-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45012</v>
+        <v>45751.48209490741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4297,14 +4297,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30951-2023</t>
+          <t>A 16789-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45113</v>
+        <v>45754.60923611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4354,14 +4354,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2935-2024</t>
+          <t>A 31092-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45315</v>
+        <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4411,14 +4411,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26764-2023</t>
+          <t>A 12842-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45093</v>
+        <v>45001</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4468,14 +4468,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6174-2025</t>
+          <t>A 47136-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45698</v>
+        <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4525,14 +4525,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30087-2023</t>
+          <t>A 28385-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45110</v>
+        <v>45477</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4582,14 +4582,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15905-2024</t>
+          <t>A 46777-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45405</v>
+        <v>45583</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4639,14 +4639,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 53460-2022</t>
+          <t>A 48921-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44879</v>
+        <v>45594</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4696,14 +4696,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16787-2025</t>
+          <t>A 48909-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45754.60696759259</v>
+        <v>45594</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>28.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4753,14 +4753,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 54798-2023</t>
+          <t>A 13475-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45236.49951388889</v>
+        <v>45387.58354166667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4810,14 +4810,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25934-2022</t>
+          <t>A 12855-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44734</v>
+        <v>45001</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4829,13 +4829,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4872,14 +4867,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16434-2025</t>
+          <t>A 52281-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45751.48209490741</v>
+        <v>45608</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4892,7 +4887,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>12.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4929,14 +4924,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 53455-2022</t>
+          <t>A 11379-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44874</v>
+        <v>45372.43756944445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4949,7 +4944,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4986,14 +4981,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59702-2022</t>
+          <t>A 51131-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44908</v>
+        <v>44461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5005,13 +5000,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5048,14 +5038,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 19633-2023</t>
+          <t>A 60425-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45051</v>
+        <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5067,13 +5057,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5110,14 +5095,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6760-2024</t>
+          <t>A 61087-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45342.47940972223</v>
+        <v>44915</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5130,7 +5115,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5167,14 +5152,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56596-2022</t>
+          <t>A 56941-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44888</v>
+        <v>45978</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5187,7 +5172,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5224,14 +5209,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17723-2023</t>
+          <t>A 25749-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45037</v>
+        <v>45804.29387731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5244,7 +5229,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5281,14 +5266,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31092-2023</t>
+          <t>A 61377-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45113</v>
+        <v>45646.39682870371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5301,7 +5286,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5338,14 +5323,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37082-2024</t>
+          <t>A 8305-2026</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45539</v>
+        <v>46064</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5358,7 +5343,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5395,14 +5380,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53807-2023</t>
+          <t>A 5082-2026</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45231</v>
+        <v>46049.54256944444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5415,7 +5400,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5452,14 +5437,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43891-2022</t>
+          <t>A 3-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44838</v>
+        <v>46023.44236111111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5472,7 +5457,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5509,14 +5494,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56231-2022</t>
+          <t>A 8290-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44890</v>
+        <v>46064</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5529,7 +5514,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5566,14 +5551,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14849-2024</t>
+          <t>A 11-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45398</v>
+        <v>46023.58386574074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5586,7 +5571,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5623,14 +5608,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 531-2025</t>
+          <t>A 28189-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45664.50216435185</v>
+        <v>45477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5643,7 +5628,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5680,14 +5665,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 15657-2025</t>
+          <t>A 58807-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45748</v>
+        <v>45987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5700,7 +5685,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5737,14 +5722,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14554-2025</t>
+          <t>A 26592-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45741</v>
+        <v>45807.8859375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5757,7 +5742,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5794,14 +5779,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28332-2024</t>
+          <t>A 8296-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45477</v>
+        <v>46064</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5799,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5851,14 +5836,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28352-2024</t>
+          <t>A 8329-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45477</v>
+        <v>46064</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5856,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5908,14 +5893,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 53956-2023</t>
+          <t>A 27828-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45231</v>
+        <v>45817</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5913,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5965,14 +5950,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 6941-2024</t>
+          <t>A 17723-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45343.41258101852</v>
+        <v>45037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5970,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6022,14 +6007,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6944-2024</t>
+          <t>A 531-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45343.42164351852</v>
+        <v>45664.50216435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6027,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6079,14 +6064,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44739-2024</t>
+          <t>A 16665-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45574.59447916667</v>
+        <v>44672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6084,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6136,14 +6121,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57461-2022</t>
+          <t>A 44960-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44896</v>
+        <v>45190</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6156,7 +6141,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6193,14 +6178,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7782-2022</t>
+          <t>A 4120-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44608</v>
+        <v>45323.67927083333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6213,7 +6198,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6250,14 +6235,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28335-2024</t>
+          <t>A 39603-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45477</v>
+        <v>45167.46493055556</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6270,7 +6255,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6307,14 +6292,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3407-2024</t>
+          <t>A 54753-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45318</v>
+        <v>44883</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6312,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6364,14 +6349,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 23005-2024</t>
+          <t>A 40083-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45450.32965277778</v>
+        <v>45894.46975694445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6384,7 +6369,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6421,14 +6406,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7655-2025</t>
+          <t>A 40090-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45706</v>
+        <v>45894.47711805555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6441,7 +6426,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6478,14 +6463,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28189-2024</t>
+          <t>A 5730-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45477</v>
+        <v>44596</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6498,7 +6483,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6535,14 +6520,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10007-2022</t>
+          <t>A 13437-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44621</v>
+        <v>45005</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6555,7 +6540,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6592,14 +6577,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 26592-2025</t>
+          <t>A 14515-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45807.8859375</v>
+        <v>45012</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6612,7 +6597,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6649,14 +6634,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16789-2025</t>
+          <t>A 8478-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45754.60923611111</v>
+        <v>45709.48738425926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6669,7 +6654,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6706,14 +6691,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 41623-2023</t>
+          <t>A 26757-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45175.68952546296</v>
+        <v>45093</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6726,7 +6711,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6763,14 +6748,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 39603-2023</t>
+          <t>A 41516-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45167.46493055556</v>
+        <v>45901.54479166667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6783,7 +6768,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6820,14 +6805,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 54711-2024</t>
+          <t>A 20381-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45618</v>
+        <v>45775.43020833333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6840,7 +6825,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6877,14 +6862,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7306-2023</t>
+          <t>A 43877-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44970</v>
+        <v>44838</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6897,7 +6882,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6934,14 +6919,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 27828-2025</t>
+          <t>A 43897-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45817</v>
+        <v>44838</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6954,7 +6939,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6991,14 +6976,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 3480-2022</t>
+          <t>A 29285-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44585.62603009259</v>
+        <v>45824</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7011,7 +6996,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7048,14 +7033,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37074-2024</t>
+          <t>A 12111-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45539</v>
+        <v>45729.35930555555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7053,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7105,14 +7090,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 51301-2024</t>
+          <t>A 27219-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45604.28789351852</v>
+        <v>44741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7125,7 +7110,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7162,14 +7147,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46777-2024</t>
+          <t>A 34109-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45583</v>
+        <v>45845.49778935185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7182,7 +7167,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7219,14 +7204,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 16663-2022</t>
+          <t>A 28830-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44672</v>
+        <v>45820</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7239,7 +7224,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7276,14 +7261,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40595-2021</t>
+          <t>A 63268-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44420.47767361111</v>
+        <v>45273.75299768519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7296,7 +7281,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7333,14 +7318,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10452-2023</t>
+          <t>A 26590-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44981</v>
+        <v>45807</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7353,7 +7338,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7390,14 +7375,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47222-2022</t>
+          <t>A 26591-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44852</v>
+        <v>45807</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7410,7 +7395,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>12.3</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7447,14 +7432,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 2950-2024</t>
+          <t>A 2114-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45315</v>
+        <v>45672.6284375</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7504,14 +7489,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12833-2023</t>
+          <t>A 21066-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45001</v>
+        <v>45061</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7523,8 +7508,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7561,14 +7551,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5730-2022</t>
+          <t>A 26251-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44596</v>
+        <v>45805.57872685185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7571,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7618,14 +7608,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 13432-2023</t>
+          <t>A 28352-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45005.61023148148</v>
+        <v>45477</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7638,7 +7628,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7675,14 +7665,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27233-2022</t>
+          <t>A 15905-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44741</v>
+        <v>45405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7695,7 +7685,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7732,14 +7722,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50196-2022</t>
+          <t>A 28332-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44860</v>
+        <v>45477</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7752,7 +7742,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7789,14 +7779,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 19380-2021</t>
+          <t>A 6760-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44309</v>
+        <v>45342.47940972223</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7809,7 +7799,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7846,14 +7836,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 70984-2021</t>
+          <t>A 6174-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44538</v>
+        <v>45698</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7866,7 +7856,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7903,14 +7893,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 53848-2023</t>
+          <t>A 30730-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45231</v>
+        <v>45831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7923,7 +7913,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7960,14 +7950,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37675-2023</t>
+          <t>A 45241-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45159.5582175926</v>
+        <v>45919.59726851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7980,7 +7970,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8017,14 +8007,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 14515-2023</t>
+          <t>A 45164-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45012</v>
+        <v>45919.49057870371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8037,7 +8027,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8074,14 +8064,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 13429-2023</t>
+          <t>A 4247-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45005.60744212963</v>
+        <v>45685</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8094,7 +8084,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8131,14 +8121,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12855-2023</t>
+          <t>A 3407-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45001</v>
+        <v>45318</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8151,7 +8141,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8188,14 +8178,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 45092-2024</t>
+          <t>A 26764-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45575.5844212963</v>
+        <v>45093</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8208,7 +8198,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8245,14 +8235,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 21066-2023</t>
+          <t>A 53848-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45061</v>
+        <v>45231</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8262,11 +8252,6 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -8307,14 +8292,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 8478-2025</t>
+          <t>A 10452-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45709.48738425926</v>
+        <v>44981</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8327,7 +8312,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8364,14 +8349,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29285-2025</t>
+          <t>A 2950-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45824</v>
+        <v>45315</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8384,7 +8369,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8421,14 +8406,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 61007-2024</t>
+          <t>A 20512-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45645.44342592593</v>
+        <v>45057</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8440,13 +8425,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8483,14 +8463,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 57428-2023</t>
+          <t>A 43996-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45240</v>
+        <v>44838</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8503,7 +8483,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8540,14 +8520,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 36119-2024</t>
+          <t>A 47222-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45534</v>
+        <v>44852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8560,7 +8540,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>12.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8597,14 +8577,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4247-2025</t>
+          <t>A 4928-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45685</v>
+        <v>44593.47482638889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8617,7 +8597,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8654,14 +8634,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28830-2025</t>
+          <t>A 14514-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45820</v>
+        <v>45012</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8674,7 +8654,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8711,14 +8691,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 12111-2025</t>
+          <t>A 54711-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45729.35930555555</v>
+        <v>45618</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8731,7 +8711,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8768,14 +8748,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 34109-2025</t>
+          <t>A 49745-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45845.49778935185</v>
+        <v>45940.34168981481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8788,7 +8768,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8825,14 +8805,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12842-2023</t>
+          <t>A 49780-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45001</v>
+        <v>45940.38962962963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8845,7 +8825,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8882,14 +8862,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 26033-2022</t>
+          <t>A 45092-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44734</v>
+        <v>45575.5844212963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8901,13 +8881,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>9.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8944,14 +8919,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 5138-2022</t>
+          <t>A 51235-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44594</v>
+        <v>45947.68568287037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8964,7 +8939,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9001,14 +8976,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 12025-2025</t>
+          <t>A 57428-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45728.63755787037</v>
+        <v>45240</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9021,7 +8996,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9058,14 +9033,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 3940-2024</t>
+          <t>A 70984-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45322</v>
+        <v>44538</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9078,7 +9053,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9115,14 +9090,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 44728-2024</t>
+          <t>A 40595-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45574.57978009259</v>
+        <v>44420.47767361111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9135,7 +9110,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9172,14 +9147,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43996-2022</t>
+          <t>A 61007-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44838</v>
+        <v>45645.44342592593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9191,8 +9166,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9229,14 +9209,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 18345-2022</t>
+          <t>A 1475-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44685</v>
+        <v>44573.50236111111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9248,13 +9228,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9291,14 +9266,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 26590-2025</t>
+          <t>A 41623-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45807</v>
+        <v>45175.68952546296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9286,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9348,14 +9323,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 36884-2023</t>
+          <t>A 37074-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45154.6050925926</v>
+        <v>45539</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9343,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9405,14 +9380,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 26591-2025</t>
+          <t>A 51301-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45807</v>
+        <v>45604.28789351852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9400,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9462,14 +9437,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 18348-2022</t>
+          <t>A 3940-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44685.67729166667</v>
+        <v>45322</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9481,13 +9456,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9524,14 +9494,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 34704-2024</t>
+          <t>A 53460-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45526</v>
+        <v>44879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9544,7 +9514,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9581,14 +9551,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 16665-2022</t>
+          <t>A 53807-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44672</v>
+        <v>45231</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9601,7 +9571,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9638,14 +9608,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 26251-2025</t>
+          <t>A 55347-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45805.57872685185</v>
+        <v>45971.35238425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9658,7 +9628,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9695,14 +9665,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20381-2025</t>
+          <t>A 44728-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45775.43020833333</v>
+        <v>45574.57978009259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9715,7 +9685,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9752,14 +9722,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 16759-2025</t>
+          <t>A 26033-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45754.5747337963</v>
+        <v>44734</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9771,8 +9741,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9809,14 +9784,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 27219-2022</t>
+          <t>A 15657-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44741</v>
+        <v>45748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9829,7 +9804,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9866,14 +9841,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16969-2025</t>
+          <t>A 56304-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45755.4659837963</v>
+        <v>45974.60929398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9886,7 +9861,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9923,14 +9898,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 35491-2021</t>
+          <t>A 56307-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44385</v>
+        <v>45974.61260416666</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9943,7 +9918,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9980,14 +9955,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1475-2022</t>
+          <t>A 7306-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44573.50236111111</v>
+        <v>44970</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10000,7 +9975,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10037,14 +10012,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 63139-2023</t>
+          <t>A 18345-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45273</v>
+        <v>44685</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10056,8 +10031,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10094,14 +10074,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 43877-2022</t>
+          <t>A 36211-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44838</v>
+        <v>45534</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10114,7 +10094,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.3</v>
+        <v>7.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10151,14 +10131,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 43897-2022</t>
+          <t>A 36119-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44838</v>
+        <v>45534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10171,7 +10151,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10208,14 +10188,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 6440-2024</t>
+          <t>A 43891-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45338.65138888889</v>
+        <v>44838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10228,7 +10208,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10265,14 +10245,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45349-2023</t>
+          <t>A 57461-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45191</v>
+        <v>44896</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10285,7 +10265,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10322,14 +10302,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 44960-2023</t>
+          <t>A 57982-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45190</v>
+        <v>45982.41506944445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10342,7 +10322,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10379,14 +10359,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36211-2024</t>
+          <t>A 65200-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45534</v>
+        <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10399,7 +10379,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10436,14 +10416,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 42692-2022</t>
+          <t>A 7655-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44832</v>
+        <v>45706</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10456,7 +10436,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10493,14 +10473,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 20512-2023</t>
+          <t>A 14554-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45057</v>
+        <v>45741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10513,7 +10493,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10550,14 +10530,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 65200-2021</t>
+          <t>A 25934-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44515</v>
+        <v>44734</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10569,8 +10549,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10607,14 +10592,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61011-2023</t>
+          <t>A 18348-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45261</v>
+        <v>44685.67729166667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10626,8 +10611,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10664,14 +10654,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 13437-2023</t>
+          <t>A 6440-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45005</v>
+        <v>45338.65138888889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10684,7 +10674,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10721,14 +10711,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 9701-2023</t>
+          <t>A 56596-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44984</v>
+        <v>44888</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10741,7 +10731,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10778,14 +10768,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 40083-2025</t>
+          <t>A 16663-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45894.46975694445</v>
+        <v>44672</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10798,7 +10788,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10835,14 +10825,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 35801-2024</t>
+          <t>A 6941-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45532</v>
+        <v>45343.41258101852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10855,7 +10845,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10892,14 +10882,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 40090-2025</t>
+          <t>A 6944-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45894.47711805555</v>
+        <v>45343.42164351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10912,7 +10902,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10949,14 +10939,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63268-2023</t>
+          <t>A 2935-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45273.75299768519</v>
+        <v>45315</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10969,7 +10959,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11006,14 +10996,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 50330-2023</t>
+          <t>A 2852-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45216</v>
+        <v>46038.4815162037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11026,7 +11016,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11063,14 +11053,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 50332-2023</t>
+          <t>A 14849-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45216.56113425926</v>
+        <v>45398</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11073,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11120,14 +11110,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 11379-2024</t>
+          <t>A 3182-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45372.43756944445</v>
+        <v>46041.45050925926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11130,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11177,14 +11167,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 41516-2025</t>
+          <t>A 61169-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45901.54479166667</v>
+        <v>46000</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11187,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11234,14 +11224,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 18246-2023</t>
+          <t>A 13432-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45041</v>
+        <v>45005.61023148148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11254,7 +11244,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11291,14 +11281,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 530-2025</t>
+          <t>A 61175-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45664.50134259259</v>
+        <v>46000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11311,7 +11301,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11348,14 +11338,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 4501-2024</t>
+          <t>A 63139-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45327.61340277778</v>
+        <v>45273</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11368,7 +11358,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11405,14 +11395,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 26757-2023</t>
+          <t>A 13429-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45093</v>
+        <v>45005.60744212963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11425,7 +11415,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11462,14 +11452,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 30730-2025</t>
+          <t>A 5138-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45831</v>
+        <v>44594</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11482,7 +11472,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11519,14 +11509,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 4245-2025</t>
+          <t>A 53455-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45685</v>
+        <v>44874</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11539,7 +11529,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11576,14 +11566,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61377-2024</t>
+          <t>A 59702-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45646.39682870371</v>
+        <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11595,8 +11585,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11633,14 +11628,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 45241-2025</t>
+          <t>A 51232-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45919.59726851852</v>
+        <v>45947</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11653,7 +11648,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>9.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11690,14 +11685,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 2114-2025</t>
+          <t>A 62944-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45672.6284375</v>
+        <v>46009</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11710,7 +11705,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11747,14 +11742,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 45164-2025</t>
+          <t>A 38813-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45919.49057870371</v>
+        <v>45887</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11767,7 +11762,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11804,14 +11799,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 28385-2024</t>
+          <t>A 16969-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45477</v>
+        <v>45755.4659837963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11824,7 +11819,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11861,14 +11856,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 19196-2021</t>
+          <t>A 43871-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44308</v>
+        <v>44838</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11881,7 +11876,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>9.5</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11918,14 +11913,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 73544-2021</t>
+          <t>A 43884-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44551</v>
+        <v>44838</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11937,13 +11932,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11980,14 +11970,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 43469-2024</t>
+          <t>A 19629-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45568.72523148148</v>
+        <v>45770.64084490741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12000,7 +11990,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12037,14 +12027,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 49745-2025</t>
+          <t>A 45349-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45940.34168981481</v>
+        <v>45191</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12057,7 +12047,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12094,14 +12084,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 49780-2025</t>
+          <t>A 50513-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45940.38962962963</v>
+        <v>45945</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12114,7 +12104,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12151,14 +12141,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 9466-2025</t>
+          <t>A 36884-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45715.46888888889</v>
+        <v>45154.6050925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12171,7 +12161,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12208,14 +12198,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 27251-2024</t>
+          <t>A 30645-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45471</v>
+        <v>44763</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12228,7 +12218,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12265,14 +12255,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 23116-2025</t>
+          <t>A 16787-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45791.37001157407</v>
+        <v>45754.60696759259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12285,7 +12275,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12322,14 +12312,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 12028-2025</t>
+          <t>A 50196-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45728.64225694445</v>
+        <v>44860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12379,14 +12369,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 50250-2024</t>
+          <t>A 30951-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45600.57039351852</v>
+        <v>45113</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12399,7 +12389,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12436,14 +12426,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 51235-2025</t>
+          <t>A 50330-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45947.68568287037</v>
+        <v>45216</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12456,7 +12446,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12493,14 +12483,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 48921-2024</t>
+          <t>A 50332-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45594</v>
+        <v>45216.56113425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12513,7 +12503,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12550,14 +12540,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 52281-2024</t>
+          <t>A 23005-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45608</v>
+        <v>45450.32965277778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12570,7 +12560,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>12.3</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12607,14 +12597,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 48909-2024</t>
+          <t>A 28335-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45594</v>
+        <v>45477</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12627,7 +12617,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>28.4</v>
+        <v>3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12664,14 +12654,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 13475-2024</t>
+          <t>A 34704-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45387.58354166667</v>
+        <v>45526</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12684,7 +12674,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12721,14 +12711,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 60425-2022</t>
+          <t>A 16759-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44911</v>
+        <v>45754.5747337963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12741,7 +12731,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12778,14 +12768,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61087-2022</t>
+          <t>A 12833-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44915</v>
+        <v>45001</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12798,7 +12788,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12835,14 +12825,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 51131-2021</t>
+          <t>A 37082-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44461</v>
+        <v>45539</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12855,7 +12845,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12892,14 +12882,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 25749-2025</t>
+          <t>A 19633-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45804.29387731481</v>
+        <v>45051</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12909,6 +12899,11 @@
       <c r="E206" t="inlineStr">
         <is>
           <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -12949,14 +12944,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 55347-2025</t>
+          <t>A 53956-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45971.35238425926</v>
+        <v>45231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12969,7 +12964,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13006,14 +13001,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 56304-2025</t>
+          <t>A 4245-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45974.60929398148</v>
+        <v>45685</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13026,7 +13021,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13063,14 +13058,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 56307-2025</t>
+          <t>A 6589-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45974.61260416666</v>
+        <v>45700.30015046296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13083,7 +13078,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13120,14 +13115,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11-2026</t>
+          <t>A 61011-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46023.58386574074</v>
+        <v>45261</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13140,7 +13135,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13177,14 +13172,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 57982-2025</t>
+          <t>A 19380-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45982.41506944445</v>
+        <v>44309</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13197,7 +13192,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13234,14 +13229,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 3-2026</t>
+          <t>A 42692-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46023.44236111111</v>
+        <v>44832</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13254,7 +13249,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13291,14 +13286,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 2852-2026</t>
+          <t>A 18246-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46038.4815162037</v>
+        <v>45041</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13311,7 +13306,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13348,14 +13343,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 3182-2026</t>
+          <t>A 4501-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46041.45050925926</v>
+        <v>45327.61340277778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13368,7 +13363,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13405,14 +13400,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 61169-2025</t>
+          <t>A 530-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46000</v>
+        <v>45664.50134259259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13425,7 +13420,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13462,14 +13457,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61175-2025</t>
+          <t>A 56231-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46000</v>
+        <v>44890</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13482,7 +13477,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.2</v>
+        <v>7.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13519,14 +13514,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 5082-2026</t>
+          <t>A 9701-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46049.54256944444</v>
+        <v>44984</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13539,7 +13534,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13576,14 +13571,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 38813-2025</t>
+          <t>A 7782-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45887</v>
+        <v>44608</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13596,7 +13591,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13633,14 +13628,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 51232-2025</t>
+          <t>A 44739-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45947</v>
+        <v>45574.59447916667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13653,7 +13648,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13690,14 +13685,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 62944-2025</t>
+          <t>A 12025-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46009</v>
+        <v>45728.63755787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13710,7 +13705,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13747,14 +13742,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 30645-2022</t>
+          <t>A 54798-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44763</v>
+        <v>45236.49951388889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13767,7 +13762,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13804,14 +13799,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 19629-2025</t>
+          <t>A 19196-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45770.64084490741</v>
+        <v>44308</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13824,7 +13819,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13861,14 +13856,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 50513-2025</t>
+          <t>A 43469-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45945</v>
+        <v>45568.72523148148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13881,7 +13876,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13918,14 +13913,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 56941-2025</t>
+          <t>A 73544-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45978</v>
+        <v>44551</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13937,8 +13932,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13975,14 +13975,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 8290-2026</t>
+          <t>A 50250-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46064</v>
+        <v>45600.57039351852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14032,14 +14032,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 58807-2025</t>
+          <t>A 9466-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45987</v>
+        <v>45715.46888888889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14089,14 +14089,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 8329-2026</t>
+          <t>A 12028-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46064</v>
+        <v>45728.64225694445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14146,14 +14146,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 8296-2026</t>
+          <t>A 23116-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46064</v>
+        <v>45791.37001157407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14203,14 +14203,14 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 8305-2026</t>
+          <t>A 27251-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46064</v>
+        <v>45471</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z229"/>
+  <dimension ref="A1:Z230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44911</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45098</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45348</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45050</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45315</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1699,14 +1699,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 48926-2024</t>
+          <t>A 61019-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45594</v>
+        <v>45645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,8 +1718,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>10.8</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1728,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1746,798 +1751,821 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Brokigt ängsfly</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 61690-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 48926-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45594</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 25480-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45802</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>0.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Hålnunneört</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 45550-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45922.63372685185</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 8833-2021</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44245</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 3924-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45322.57806712963</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Vitnoppa</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 8315-2026</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Småjungfrukam</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8315-2026 artfynd.xlsx", "A 8315-2026")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8315-2026 karta.png", "A 8315-2026")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8315-2026 FSC-klagomål.docx", "A 8315-2026")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8315-2026 FSC-klagomål mail.docx", "A 8315-2026")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8315-2026 tillsynsbegäran.docx", "A 8315-2026")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8315-2026 tillsynsbegäran mail.docx", "A 8315-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 50553-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45945</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C23" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Sexfläckig blombock</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 8833-2021</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44245</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="n">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 22569-2024</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45447.56391203704</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 3924-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45322.57806712963</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Vitnoppa</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 45550-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45922.63372685185</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 61690-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 22569-2024</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45447.56391203704</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 61019-2024</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45645</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Brokigt ängsfly</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 54563-2022</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44882.93611111111</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
-    </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31810-2021</t>
+          <t>A 54563-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44370.37863425926</v>
+        <v>44882.93611111111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2550,7 +2578,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2587,14 +2615,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 37135-2021</t>
+          <t>A 31810-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44396.42534722222</v>
+        <v>44370.37863425926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2607,7 +2635,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2644,14 +2672,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 51197-2021</t>
+          <t>A 37135-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44460</v>
+        <v>44396.42534722222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2664,7 +2692,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2701,14 +2729,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11506-2021</t>
+          <t>A 51197-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44264</v>
+        <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2721,7 +2749,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,14 +2786,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22392-2022</t>
+          <t>A 11506-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44713</v>
+        <v>44264</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2778,7 +2806,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,14 +2843,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 25369-2021</t>
+          <t>A 22392-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44342.59005787037</v>
+        <v>44713</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2835,7 +2863,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2872,14 +2900,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 8443-2022</t>
+          <t>A 25369-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44612.72564814815</v>
+        <v>44342.59005787037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2892,7 +2920,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2929,14 +2957,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18939-2022</t>
+          <t>A 8443-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44690</v>
+        <v>44612.72564814815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2949,7 +2977,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2986,14 +3014,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54738-2022</t>
+          <t>A 18939-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44883.57881944445</v>
+        <v>44690</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3006,7 +3034,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3043,14 +3071,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 10013-2021</t>
+          <t>A 54738-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44253</v>
+        <v>44883.57881944445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3063,7 +3091,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3100,14 +3128,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 70982-2021</t>
+          <t>A 10013-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44538</v>
+        <v>44253</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3120,7 +3148,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3157,14 +3185,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13440-2021</t>
+          <t>A 70982-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44273</v>
+        <v>44538</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3177,7 +3205,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3214,14 +3242,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 44160-2021</t>
+          <t>A 13440-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44434</v>
+        <v>44273</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3234,7 +3262,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3271,14 +3299,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44166-2021</t>
+          <t>A 44160-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3291,7 +3319,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3328,14 +3356,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 15330-2021</t>
+          <t>A 44166-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44284.6778125</v>
+        <v>44434</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3348,7 +3376,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3385,14 +3413,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 44173-2021</t>
+          <t>A 15330-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44434</v>
+        <v>44284.6778125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3405,7 +3433,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3442,14 +3470,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 51120-2021</t>
+          <t>A 44173-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44461.42746527777</v>
+        <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3462,7 +3490,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3499,14 +3527,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46107-2021</t>
+          <t>A 51120-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44442.36733796296</v>
+        <v>44461.42746527777</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3519,7 +3547,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3556,14 +3584,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 5726-2022</t>
+          <t>A 46107-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44596</v>
+        <v>44442.36733796296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3576,7 +3604,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3613,14 +3641,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 37913-2021</t>
+          <t>A 5726-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44403</v>
+        <v>44596</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3633,7 +3661,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3670,14 +3698,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 65203-2021</t>
+          <t>A 37913-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44515</v>
+        <v>44403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3690,7 +3718,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3727,14 +3755,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 6042-2022</t>
+          <t>A 65203-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44599</v>
+        <v>44515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3747,7 +3775,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3784,14 +3812,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3480-2022</t>
+          <t>A 6042-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44585.62603009259</v>
+        <v>44599</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3841,14 +3869,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35491-2021</t>
+          <t>A 3480-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44385</v>
+        <v>44585.62603009259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3861,7 +3889,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3898,14 +3926,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10007-2022</t>
+          <t>A 35491-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44621</v>
+        <v>44385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3918,7 +3946,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3955,14 +3983,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35801-2024</t>
+          <t>A 10007-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45532</v>
+        <v>44621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3975,7 +4003,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4012,14 +4040,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16110-2024</t>
+          <t>A 35801-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45406</v>
+        <v>45532</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4032,7 +4060,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4069,14 +4097,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27233-2022</t>
+          <t>A 16110-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44741</v>
+        <v>45406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4089,7 +4117,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4126,14 +4154,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 37675-2023</t>
+          <t>A 27233-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45159.5582175926</v>
+        <v>44741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4146,7 +4174,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4190,7 +4218,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4240,14 +4268,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16434-2025</t>
+          <t>A 37675-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45751.48209490741</v>
+        <v>45159.5582175926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4260,7 +4288,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4297,14 +4325,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16789-2025</t>
+          <t>A 16434-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45754.60923611111</v>
+        <v>45751.48209490741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4317,7 +4345,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4361,7 +4389,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4418,7 +4446,7 @@
         <v>45001</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4468,14 +4496,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47136-2022</t>
+          <t>A 16789-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44848</v>
+        <v>45754.60923611111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4488,7 +4516,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4525,14 +4553,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28385-2024</t>
+          <t>A 50250-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45477</v>
+        <v>45600.57039351852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4545,7 +4573,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4582,14 +4610,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 46777-2024</t>
+          <t>A 9466-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45583</v>
+        <v>45715.46888888889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4630,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4639,14 +4667,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48921-2024</t>
+          <t>A 28385-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45594</v>
+        <v>45477</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4659,7 +4687,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.3</v>
+        <v>0.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4696,14 +4724,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48909-2024</t>
+          <t>A 12028-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45594</v>
+        <v>45728.64225694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4716,7 +4744,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>28.4</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4753,14 +4781,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13475-2024</t>
+          <t>A 23116-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45387.58354166667</v>
+        <v>45791.37001157407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,14 +4838,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 12855-2023</t>
+          <t>A 47136-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45001</v>
+        <v>44848</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4830,7 +4858,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4867,14 +4895,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52281-2024</t>
+          <t>A 27251-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45608</v>
+        <v>45471</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4887,7 +4915,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>12.3</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4924,14 +4952,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11379-2024</t>
+          <t>A 46777-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45372.43756944445</v>
+        <v>45583</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4944,7 +4972,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4981,14 +5009,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51131-2021</t>
+          <t>A 48921-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44461</v>
+        <v>45594</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5001,7 +5029,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5038,14 +5066,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60425-2022</t>
+          <t>A 48909-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44911</v>
+        <v>45594</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5058,7 +5086,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>28.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5095,14 +5123,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61087-2022</t>
+          <t>A 13475-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44915</v>
+        <v>45387.58354166667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5115,7 +5143,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5152,14 +5180,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56941-2025</t>
+          <t>A 52281-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45978</v>
+        <v>45608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5172,7 +5200,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.7</v>
+        <v>12.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5209,14 +5237,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25749-2025</t>
+          <t>A 51131-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45804.29387731481</v>
+        <v>44461</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5229,7 +5257,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5266,14 +5294,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61377-2024</t>
+          <t>A 60425-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45646.39682870371</v>
+        <v>44911</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5286,7 +5314,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5323,14 +5351,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8305-2026</t>
+          <t>A 40083-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46064</v>
+        <v>45894.46975694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5343,7 +5371,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5380,14 +5408,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5082-2026</t>
+          <t>A 61087-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46049.54256944444</v>
+        <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5400,7 +5428,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5437,14 +5465,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3-2026</t>
+          <t>A 40090-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46023.44236111111</v>
+        <v>45894.47711805555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,14 +5522,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8290-2026</t>
+          <t>A 12855-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46064</v>
+        <v>45001</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5542,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5551,14 +5579,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11-2026</t>
+          <t>A 25749-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46023.58386574074</v>
+        <v>45804.29387731481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5599,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5608,14 +5636,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28189-2024</t>
+          <t>A 11379-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45477</v>
+        <v>45372.43756944445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5656,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5665,14 +5693,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58807-2025</t>
+          <t>A 41516-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45987</v>
+        <v>45901.54479166667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,14 +5750,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26592-2025</t>
+          <t>A 28189-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45807.8859375</v>
+        <v>45477</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5742,7 +5770,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5779,14 +5807,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8296-2026</t>
+          <t>A 26592-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46064</v>
+        <v>45807.8859375</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5799,7 +5827,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5836,14 +5864,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8329-2026</t>
+          <t>A 61377-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46064</v>
+        <v>45646.39682870371</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5856,7 +5884,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5900,7 +5928,7 @@
         <v>45817</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,14 +5978,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17723-2023</t>
+          <t>A 62944-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45037</v>
+        <v>46009</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,14 +6035,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 531-2025</t>
+          <t>A 30730-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45664.50216435185</v>
+        <v>45831</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6027,7 +6055,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6064,14 +6092,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 16665-2022</t>
+          <t>A 17723-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44672</v>
+        <v>45037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6084,7 +6112,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6121,14 +6149,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 44960-2023</t>
+          <t>A 38813-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45190</v>
+        <v>45887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6141,7 +6169,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6178,14 +6206,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4120-2024</t>
+          <t>A 531-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45323.67927083333</v>
+        <v>45664.50216435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6198,7 +6226,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6235,14 +6263,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 39603-2023</t>
+          <t>A 16665-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45167.46493055556</v>
+        <v>44672</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6255,7 +6283,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6292,14 +6320,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54753-2022</t>
+          <t>A 45241-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44883</v>
+        <v>45919.59726851852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6312,7 +6340,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6349,14 +6377,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40083-2025</t>
+          <t>A 44960-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45894.46975694445</v>
+        <v>45190</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6369,7 +6397,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6406,14 +6434,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 40090-2025</t>
+          <t>A 45164-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45894.47711805555</v>
+        <v>45919.49057870371</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6426,7 +6454,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6463,14 +6491,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5730-2022</t>
+          <t>A 4120-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44596</v>
+        <v>45323.67927083333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6483,7 +6511,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6520,14 +6548,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13437-2023</t>
+          <t>A 39603-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45005</v>
+        <v>45167.46493055556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6540,7 +6568,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6577,14 +6605,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14515-2023</t>
+          <t>A 54753-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45012</v>
+        <v>44883</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6597,7 +6625,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6641,7 +6669,7 @@
         <v>45709.48738425926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,14 +6719,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26757-2023</t>
+          <t>A 5730-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45093</v>
+        <v>44596</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6711,7 +6739,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6748,14 +6776,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 41516-2025</t>
+          <t>A 13437-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45901.54479166667</v>
+        <v>45005</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6796,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6805,14 +6833,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 20381-2025</t>
+          <t>A 29285-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45775.43020833333</v>
+        <v>45824</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6825,7 +6853,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6862,14 +6890,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43877-2022</t>
+          <t>A 14515-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44838</v>
+        <v>45012</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6882,7 +6910,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6919,14 +6947,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43897-2022</t>
+          <t>A 26757-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44838</v>
+        <v>45093</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6939,7 +6967,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6976,14 +7004,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29285-2025</t>
+          <t>A 20381-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45824</v>
+        <v>45775.43020833333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6996,7 +7024,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7040,7 +7068,7 @@
         <v>45729.35930555555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7090,14 +7118,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27219-2022</t>
+          <t>A 34109-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44741</v>
+        <v>45845.49778935185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7110,7 +7138,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7147,14 +7175,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 34109-2025</t>
+          <t>A 43877-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45845.49778935185</v>
+        <v>44838</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7167,7 +7195,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7204,14 +7232,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28830-2025</t>
+          <t>A 43897-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45820</v>
+        <v>44838</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7224,7 +7252,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7261,14 +7289,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 63268-2023</t>
+          <t>A 28830-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45273.75299768519</v>
+        <v>45820</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7281,7 +7309,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7318,14 +7346,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26590-2025</t>
+          <t>A 27219-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45807</v>
+        <v>44741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7338,7 +7366,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7375,14 +7403,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26591-2025</t>
+          <t>A 26590-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
         <v>45807</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7423,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7432,14 +7460,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 2114-2025</t>
+          <t>A 26591-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45672.6284375</v>
+        <v>45807</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7452,7 +7480,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7489,14 +7517,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21066-2023</t>
+          <t>A 63268-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45061</v>
+        <v>45273.75299768519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7508,13 +7536,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7551,14 +7574,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26251-2025</t>
+          <t>A 49745-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45805.57872685185</v>
+        <v>45940.34168981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7571,7 +7594,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7608,14 +7631,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28352-2024</t>
+          <t>A 49780-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45477</v>
+        <v>45940.38962962963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7628,7 +7651,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7665,14 +7688,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 15905-2024</t>
+          <t>A 26251-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45405</v>
+        <v>45805.57872685185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7685,7 +7708,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7722,14 +7745,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28332-2024</t>
+          <t>A 2114-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45477</v>
+        <v>45672.6284375</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7742,7 +7765,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7779,14 +7802,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 6760-2024</t>
+          <t>A 19629-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45342.47940972223</v>
+        <v>45770.64084490741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7799,7 +7822,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7836,14 +7859,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 6174-2025</t>
+          <t>A 50513-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45698</v>
+        <v>45945</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7856,7 +7879,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7893,14 +7916,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 30730-2025</t>
+          <t>A 30645-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45831</v>
+        <v>44763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7913,7 +7936,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7950,14 +7973,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 45241-2025</t>
+          <t>A 51235-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45919.59726851852</v>
+        <v>45947.68568287037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7970,7 +7993,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>9.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8007,14 +8030,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45164-2025</t>
+          <t>A 21066-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45919.49057870371</v>
+        <v>45061</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,8 +8049,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8064,14 +8092,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4247-2025</t>
+          <t>A 28352-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45685</v>
+        <v>45477</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,14 +8149,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 3407-2024</t>
+          <t>A 15905-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45318</v>
+        <v>45405</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8141,7 +8169,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8178,14 +8206,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26764-2023</t>
+          <t>A 28332-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45093</v>
+        <v>45477</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8198,7 +8226,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8235,14 +8263,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 53848-2023</t>
+          <t>A 6760-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45231</v>
+        <v>45342.47940972223</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8255,7 +8283,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8292,14 +8320,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 10452-2023</t>
+          <t>A 6174-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44981</v>
+        <v>45698</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8312,7 +8340,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8349,14 +8377,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2950-2024</t>
+          <t>A 55347-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45315</v>
+        <v>45971.35238425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8369,7 +8397,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8406,14 +8434,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20512-2023</t>
+          <t>A 56941-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45057</v>
+        <v>45978</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8426,7 +8454,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8463,14 +8491,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43996-2022</t>
+          <t>A 56304-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44838</v>
+        <v>45974.60929398148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8483,7 +8511,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8520,14 +8548,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47222-2022</t>
+          <t>A 56307-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44852</v>
+        <v>45974.61260416666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8540,7 +8568,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>12.3</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8577,14 +8605,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4928-2022</t>
+          <t>A 3-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44593.47482638889</v>
+        <v>46023.44236111111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8597,7 +8625,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8634,14 +8662,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 14514-2023</t>
+          <t>A 8290-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45012</v>
+        <v>46064</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8654,7 +8682,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8691,14 +8719,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 54711-2024</t>
+          <t>A 11-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45618</v>
+        <v>46023.58386574074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8711,7 +8739,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8748,14 +8776,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49745-2025</t>
+          <t>A 4247-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45940.34168981481</v>
+        <v>45685</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8768,7 +8796,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8805,14 +8833,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 49780-2025</t>
+          <t>A 3407-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45940.38962962963</v>
+        <v>45318</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8825,7 +8853,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.4</v>
+        <v>6.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8862,14 +8890,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45092-2024</t>
+          <t>A 57982-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45575.5844212963</v>
+        <v>45982.41506944445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8882,7 +8910,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8919,14 +8947,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 51235-2025</t>
+          <t>A 26764-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45947.68568287037</v>
+        <v>45093</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8939,7 +8967,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8976,14 +9004,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 57428-2023</t>
+          <t>A 53848-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45240</v>
+        <v>45231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8996,7 +9024,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9033,14 +9061,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 70984-2021</t>
+          <t>A 8296-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44538</v>
+        <v>46064</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9053,7 +9081,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9090,14 +9118,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 40595-2021</t>
+          <t>A 8329-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44420.47767361111</v>
+        <v>46064</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9110,7 +9138,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9147,14 +9175,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 61007-2024</t>
+          <t>A 51232-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45645.44342592593</v>
+        <v>45947</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,13 +9194,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9209,14 +9232,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1475-2022</t>
+          <t>A 10452-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44573.50236111111</v>
+        <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9229,7 +9252,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9266,14 +9289,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 41623-2023</t>
+          <t>A 2950-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45175.68952546296</v>
+        <v>45315</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9286,7 +9309,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9323,14 +9346,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 37074-2024</t>
+          <t>A 58807-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45539</v>
+        <v>45987</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9343,7 +9366,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9380,14 +9403,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51301-2024</t>
+          <t>A 8305-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45604.28789351852</v>
+        <v>46064</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9400,7 +9423,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9437,14 +9460,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 3940-2024</t>
+          <t>A 5082-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45322</v>
+        <v>46049.54256944444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9457,7 +9480,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9494,14 +9517,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 53460-2022</t>
+          <t>A 20512-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44879</v>
+        <v>45057</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9514,7 +9537,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9551,14 +9574,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 53807-2023</t>
+          <t>A 43996-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45231</v>
+        <v>44838</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9571,7 +9594,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9608,14 +9631,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 55347-2025</t>
+          <t>A 47222-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45971.35238425926</v>
+        <v>44852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9628,7 +9651,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>12.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9665,14 +9688,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 44728-2024</t>
+          <t>A 4928-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45574.57978009259</v>
+        <v>44593.47482638889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9685,7 +9708,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9722,14 +9745,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 26033-2022</t>
+          <t>A 14514-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44734</v>
+        <v>45012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9741,13 +9764,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>9.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9784,14 +9802,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 15657-2025</t>
+          <t>A 54711-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45748</v>
+        <v>45618</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9804,7 +9822,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9841,14 +9859,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 56304-2025</t>
+          <t>A 2852-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45974.60929398148</v>
+        <v>46038.4815162037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9861,7 +9879,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9898,14 +9916,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56307-2025</t>
+          <t>A 3182-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45974.61260416666</v>
+        <v>46041.45050925926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9955,14 +9973,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 7306-2023</t>
+          <t>A 45092-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44970</v>
+        <v>45575.5844212963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9975,7 +9993,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10012,14 +10030,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 18345-2022</t>
+          <t>A 61169-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44685</v>
+        <v>46000</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10029,11 +10047,6 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -10074,14 +10087,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 36211-2024</t>
+          <t>A 61175-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45534</v>
+        <v>46000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10094,7 +10107,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.6</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10131,14 +10144,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 36119-2024</t>
+          <t>A 57428-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45534</v>
+        <v>45240</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10151,7 +10164,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10188,14 +10201,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 43891-2022</t>
+          <t>A 70984-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44838</v>
+        <v>44538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10208,7 +10221,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10245,14 +10258,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 57461-2022</t>
+          <t>A 40595-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44896</v>
+        <v>44420.47767361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10265,7 +10278,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10302,14 +10315,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 57982-2025</t>
+          <t>A 61007-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45982.41506944445</v>
+        <v>45645.44342592593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10321,8 +10334,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10359,14 +10377,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 65200-2021</t>
+          <t>A 1475-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44515</v>
+        <v>44573.50236111111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10379,7 +10397,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10416,14 +10434,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 7655-2025</t>
+          <t>A 41623-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45706</v>
+        <v>45175.68952546296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10436,7 +10454,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10473,14 +10491,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 14554-2025</t>
+          <t>A 37074-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45741</v>
+        <v>45539</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10493,7 +10511,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10530,14 +10548,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 25934-2022</t>
+          <t>A 51301-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44734</v>
+        <v>45604.28789351852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10549,13 +10567,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10592,14 +10605,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 18348-2022</t>
+          <t>A 3940-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44685.67729166667</v>
+        <v>45322</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10611,13 +10624,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10654,14 +10662,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 6440-2024</t>
+          <t>A 53460-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45338.65138888889</v>
+        <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10674,7 +10682,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10711,14 +10719,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 56596-2022</t>
+          <t>A 53807-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44888</v>
+        <v>45231</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10731,7 +10739,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10768,14 +10776,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 16663-2022</t>
+          <t>A 44728-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44672</v>
+        <v>45574.57978009259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10788,7 +10796,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10825,14 +10833,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6941-2024</t>
+          <t>A 26033-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45343.41258101852</v>
+        <v>44734</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10844,8 +10852,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10882,14 +10895,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6944-2024</t>
+          <t>A 15657-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45343.42164351852</v>
+        <v>45748</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10902,7 +10915,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10939,14 +10952,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2935-2024</t>
+          <t>A 7306-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45315</v>
+        <v>44970</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10972,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10996,14 +11009,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2852-2026</t>
+          <t>A 18345-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46038.4815162037</v>
+        <v>44685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11015,8 +11028,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11053,14 +11071,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 14849-2024</t>
+          <t>A 36211-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45398</v>
+        <v>45534</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11073,7 +11091,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11110,14 +11128,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 3182-2026</t>
+          <t>A 36119-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46041.45050925926</v>
+        <v>45534</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11130,7 +11148,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11167,14 +11185,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 61169-2025</t>
+          <t>A 43891-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46000</v>
+        <v>44838</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11187,7 +11205,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11224,14 +11242,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 13432-2023</t>
+          <t>A 57461-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45005.61023148148</v>
+        <v>44896</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11244,7 +11262,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11281,14 +11299,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61175-2025</t>
+          <t>A 65200-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46000</v>
+        <v>44515</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11301,7 +11319,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11338,14 +11356,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 63139-2023</t>
+          <t>A 7655-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45273</v>
+        <v>45706</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11358,7 +11376,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11395,14 +11413,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 13429-2023</t>
+          <t>A 14554-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45005.60744212963</v>
+        <v>45741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11415,7 +11433,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11452,14 +11470,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 5138-2022</t>
+          <t>A 25934-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44594</v>
+        <v>44734</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11471,8 +11489,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11509,14 +11532,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 53455-2022</t>
+          <t>A 18348-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44874</v>
+        <v>44685.67729166667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11528,8 +11551,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11566,14 +11594,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59702-2022</t>
+          <t>A 6440-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44908</v>
+        <v>45338.65138888889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11585,13 +11613,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11628,14 +11651,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 51232-2025</t>
+          <t>A 56596-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45947</v>
+        <v>44888</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11671,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11685,14 +11708,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 62944-2025</t>
+          <t>A 16663-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46009</v>
+        <v>44672</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11728,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11742,14 +11765,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 38813-2025</t>
+          <t>A 6941-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45887</v>
+        <v>45343.41258101852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11785,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11799,14 +11822,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 16969-2025</t>
+          <t>A 6944-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45755.4659837963</v>
+        <v>45343.42164351852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11842,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11856,14 +11879,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 43871-2022</t>
+          <t>A 2935-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44838</v>
+        <v>45315</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11899,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11913,14 +11936,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 43884-2022</t>
+          <t>A 14849-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44838</v>
+        <v>45398</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11956,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11970,14 +11993,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 19629-2025</t>
+          <t>A 13432-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45770.64084490741</v>
+        <v>45005.61023148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +12013,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12027,14 +12050,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 45349-2023</t>
+          <t>A 63139-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45191</v>
+        <v>45273</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12070,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12084,14 +12107,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50513-2025</t>
+          <t>A 13429-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45945</v>
+        <v>45005.60744212963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12127,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12141,14 +12164,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36884-2023</t>
+          <t>A 5138-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45154.6050925926</v>
+        <v>44594</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12184,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12198,14 +12221,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 30645-2022</t>
+          <t>A 53455-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44763</v>
+        <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12241,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12255,14 +12278,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 16787-2025</t>
+          <t>A 59702-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45754.60696759259</v>
+        <v>44908</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12274,8 +12297,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12312,14 +12340,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 50196-2022</t>
+          <t>A 16969-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44860</v>
+        <v>45755.4659837963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12360,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12369,14 +12397,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 30951-2023</t>
+          <t>A 43871-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45113</v>
+        <v>44838</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12417,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12426,14 +12454,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 50330-2023</t>
+          <t>A 43884-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45216</v>
+        <v>44838</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12474,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12483,14 +12511,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50332-2023</t>
+          <t>A 45349-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45216.56113425926</v>
+        <v>45191</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12531,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12540,14 +12568,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 23005-2024</t>
+          <t>A 36884-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45450.32965277778</v>
+        <v>45154.6050925926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12588,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12597,14 +12625,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 28335-2024</t>
+          <t>A 16787-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45477</v>
+        <v>45754.60696759259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12645,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12654,14 +12682,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 34704-2024</t>
+          <t>A 50196-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45526</v>
+        <v>44860</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12702,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12711,14 +12739,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 16759-2025</t>
+          <t>A 30951-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45754.5747337963</v>
+        <v>45113</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12768,14 +12796,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 12833-2023</t>
+          <t>A 50330-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45001</v>
+        <v>45216</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12816,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12825,14 +12853,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 37082-2024</t>
+          <t>A 50332-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45539</v>
+        <v>45216.56113425926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12873,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12882,14 +12910,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 19633-2023</t>
+          <t>A 23005-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45051</v>
+        <v>45450.32965277778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12901,13 +12929,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12944,14 +12967,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 53956-2023</t>
+          <t>A 28335-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45231</v>
+        <v>45477</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12964,7 +12987,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13001,14 +13024,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 4245-2025</t>
+          <t>A 34704-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45685</v>
+        <v>45526</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13021,7 +13044,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13058,14 +13081,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 6589-2025</t>
+          <t>A 16759-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45700.30015046296</v>
+        <v>45754.5747337963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13078,7 +13101,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13115,14 +13138,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 61011-2023</t>
+          <t>A 12833-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45261</v>
+        <v>45001</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13135,7 +13158,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13172,14 +13195,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 19380-2021</t>
+          <t>A 37082-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44309</v>
+        <v>45539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13192,7 +13215,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13229,14 +13252,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 42692-2022</t>
+          <t>A 19633-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44832</v>
+        <v>45051</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13248,8 +13271,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13286,14 +13314,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 18246-2023</t>
+          <t>A 53956-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45041</v>
+        <v>45231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13306,7 +13334,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13343,14 +13371,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 4501-2024</t>
+          <t>A 4245-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45327.61340277778</v>
+        <v>45685</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13363,7 +13391,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13400,14 +13428,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 530-2025</t>
+          <t>A 6589-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45664.50134259259</v>
+        <v>45700.30015046296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13420,7 +13448,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13457,14 +13485,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 56231-2022</t>
+          <t>A 61011-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44890</v>
+        <v>45261</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13477,7 +13505,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13514,14 +13542,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 9701-2023</t>
+          <t>A 19380-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44984</v>
+        <v>44309</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13534,7 +13562,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13571,14 +13599,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 7782-2022</t>
+          <t>A 42692-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44608</v>
+        <v>44832</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13591,7 +13619,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13628,14 +13656,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 44739-2024</t>
+          <t>A 18246-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45574.59447916667</v>
+        <v>45041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13648,7 +13676,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13685,14 +13713,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 12025-2025</t>
+          <t>A 4501-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45728.63755787037</v>
+        <v>45327.61340277778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13705,7 +13733,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13742,14 +13770,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54798-2023</t>
+          <t>A 530-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45236.49951388889</v>
+        <v>45664.50134259259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13762,7 +13790,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13799,14 +13827,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 19196-2021</t>
+          <t>A 56231-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44308</v>
+        <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13819,7 +13847,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13856,14 +13884,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 43469-2024</t>
+          <t>A 9701-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45568.72523148148</v>
+        <v>44984</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13904,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13913,14 +13941,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 73544-2021</t>
+          <t>A 7782-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44551</v>
+        <v>44608</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13932,13 +13960,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13975,14 +13998,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 50250-2024</t>
+          <t>A 44739-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45600.57039351852</v>
+        <v>45574.59447916667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +14018,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14032,14 +14055,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 9466-2025</t>
+          <t>A 12025-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45715.46888888889</v>
+        <v>45728.63755787037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14075,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14089,14 +14112,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 12028-2025</t>
+          <t>A 54798-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45728.64225694445</v>
+        <v>45236.49951388889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14132,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14146,14 +14169,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 23116-2025</t>
+          <t>A 19196-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45791.37001157407</v>
+        <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14189,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14200,17 +14223,17 @@
       </c>
       <c r="R228" s="2" t="inlineStr"/>
     </row>
-    <row r="229">
+    <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 27251-2024</t>
+          <t>A 43469-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45471</v>
+        <v>45568.72523148148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14246,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14256,6 +14279,68 @@
         <v>0</v>
       </c>
       <c r="R229" s="2" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>A 73544-2021</t>
+        </is>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>44551</v>
+      </c>
+      <c r="C230" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z230"/>
+  <dimension ref="A1:Z229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44911</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45098</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45348</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45050</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45315</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45645</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1789,14 +1789,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 61690-2025</t>
+          <t>A 48926-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46002</v>
+        <v>45594</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,20 +1809,20 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>10.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -1833,395 +1833,395 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 25480-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45802</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Hålnunneört</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 45550-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45922.63372685185</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 3924-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45322.57806712963</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Vitnoppa</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 61690-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Kambräken</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 48926-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45594</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 25480-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45802</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Hålnunneört</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 45550-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45922.63372685185</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 8833-2021</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44245</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8833-2021 artfynd.xlsx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8833-2021 karta.png", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8833-2021 FSC-klagomål.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8833-2021 FSC-klagomål mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8833-2021 tillsynsbegäran.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8833-2021 tillsynsbegäran mail.docx", "A 8833-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3924-2024</t>
+          <t>A 50553-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45322.57806712963</v>
+        <v>45945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2243,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2261,38 +2261,38 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Vitnoppa</t>
+          <t>Sexfläckig blombock</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
         <v/>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
         <v>46064</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2384,14 +2384,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50553-2025</t>
+          <t>A 22569-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45945</v>
+        <v>45447.56391203704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2438,45 +2438,49 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Sexfläckig blombock</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 22569-2024</t>
+          <t>A 54563-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45447.56391203704</v>
+        <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2489,16 +2493,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2513,59 +2517,27 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 54563-2022</t>
+          <t>A 31810-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44882.93611111111</v>
+        <v>44370.37863425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2550,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2615,14 +2587,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31810-2021</t>
+          <t>A 37135-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44370.37863425926</v>
+        <v>44396.42534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2607,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2672,14 +2644,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 37135-2021</t>
+          <t>A 51197-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44396.42534722222</v>
+        <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2664,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2729,14 +2701,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 51197-2021</t>
+          <t>A 11506-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44460</v>
+        <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2721,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2786,14 +2758,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11506-2021</t>
+          <t>A 22392-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44264</v>
+        <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2778,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,14 +2815,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22392-2022</t>
+          <t>A 25369-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44713</v>
+        <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2835,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2900,14 +2872,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 25369-2021</t>
+          <t>A 8443-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44342.59005787037</v>
+        <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2892,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2957,14 +2929,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 8443-2022</t>
+          <t>A 18939-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44612.72564814815</v>
+        <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2949,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3014,14 +2986,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 18939-2022</t>
+          <t>A 54738-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44690</v>
+        <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3006,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3071,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 54738-2022</t>
+          <t>A 10013-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44883.57881944445</v>
+        <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3063,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3128,14 +3100,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 10013-2021</t>
+          <t>A 70982-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44253</v>
+        <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3120,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3185,14 +3157,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 70982-2021</t>
+          <t>A 13440-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44538</v>
+        <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3177,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3242,14 +3214,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13440-2021</t>
+          <t>A 44160-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44273</v>
+        <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3234,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3299,14 +3271,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44160-2021</t>
+          <t>A 44166-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3291,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3356,14 +3328,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 44166-2021</t>
+          <t>A 15330-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44434</v>
+        <v>44284.6778125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3348,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3413,14 +3385,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15330-2021</t>
+          <t>A 44173-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44284.6778125</v>
+        <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3405,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3470,14 +3442,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 44173-2021</t>
+          <t>A 51120-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44434</v>
+        <v>44461.42746527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3462,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3527,14 +3499,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 51120-2021</t>
+          <t>A 46107-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44461.42746527777</v>
+        <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3519,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3584,14 +3556,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 46107-2021</t>
+          <t>A 5726-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44442.36733796296</v>
+        <v>44596</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3576,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3641,14 +3613,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 5726-2022</t>
+          <t>A 37913-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44596</v>
+        <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3633,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3698,14 +3670,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 37913-2021</t>
+          <t>A 65203-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44403</v>
+        <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3690,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3755,14 +3727,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 65203-2021</t>
+          <t>A 6042-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44515</v>
+        <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3747,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3812,14 +3784,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6042-2022</t>
+          <t>A 3480-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44599</v>
+        <v>44585.62603009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3869,14 +3841,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3480-2022</t>
+          <t>A 10007-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44585.62603009259</v>
+        <v>44621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3861,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3933,7 +3905,7 @@
         <v>44385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3983,14 +3955,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10007-2022</t>
+          <t>A 35801-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44621</v>
+        <v>45532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +3975,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4040,14 +4012,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35801-2024</t>
+          <t>A 16110-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45532</v>
+        <v>45406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4032,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4097,14 +4069,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16110-2024</t>
+          <t>A 27233-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45406</v>
+        <v>44741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4089,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4154,14 +4126,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27233-2022</t>
+          <t>A 37675-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44741</v>
+        <v>45159.5582175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4146,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4218,7 +4190,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4268,14 +4240,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37675-2023</t>
+          <t>A 16434-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45159.5582175926</v>
+        <v>45751.48209490741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4260,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4325,14 +4297,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16434-2025</t>
+          <t>A 16789-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45751.48209490741</v>
+        <v>45754.60923611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4317,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4382,14 +4354,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31092-2023</t>
+          <t>A 43469-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45113</v>
+        <v>45568.72523148148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4374,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7.8</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4439,14 +4411,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12842-2023</t>
+          <t>A 73544-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45001</v>
+        <v>44551</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,8 +4430,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4496,14 +4473,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16789-2025</t>
+          <t>A 31092-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45754.60923611111</v>
+        <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4493,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4560,7 +4537,7 @@
         <v>45600.57039351852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4594,7 @@
         <v>45715.46888888889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4667,14 +4644,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28385-2024</t>
+          <t>A 12842-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45477</v>
+        <v>45001</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4664,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4731,7 +4708,7 @@
         <v>45728.64225694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4765,7 @@
         <v>45791.37001157407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4838,14 +4815,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47136-2022</t>
+          <t>A 27251-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44848</v>
+        <v>45471</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4835,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4895,14 +4872,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 27251-2024</t>
+          <t>A 48921-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45471</v>
+        <v>45594</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4892,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>6.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4952,14 +4929,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46777-2024</t>
+          <t>A 56304-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45583</v>
+        <v>45974.60929398148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4949,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5009,14 +4986,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48921-2024</t>
+          <t>A 56307-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45594</v>
+        <v>45974.61260416666</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5006,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5066,14 +5043,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48909-2024</t>
+          <t>A 28385-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45594</v>
+        <v>45477</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5063,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>28.4</v>
+        <v>0.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5123,14 +5100,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 13475-2024</t>
+          <t>A 47136-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45387.58354166667</v>
+        <v>44848</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5180,14 +5157,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52281-2024</t>
+          <t>A 48909-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45608</v>
+        <v>45594</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5177,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>12.3</v>
+        <v>28.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5237,14 +5214,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 51131-2021</t>
+          <t>A 46777-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44461</v>
+        <v>45583</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5234,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5294,14 +5271,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60425-2022</t>
+          <t>A 13475-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44911</v>
+        <v>45387.58354166667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5291,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5358,7 +5335,7 @@
         <v>45894.46975694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5408,14 +5385,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61087-2022</t>
+          <t>A 40090-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44915</v>
+        <v>45894.47711805555</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5405,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5465,14 +5442,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40090-2025</t>
+          <t>A 52281-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45894.47711805555</v>
+        <v>45608</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5462,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>12.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5522,14 +5499,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12855-2023</t>
+          <t>A 51131-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45001</v>
+        <v>44461</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5519,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5579,14 +5556,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25749-2025</t>
+          <t>A 41516-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45804.29387731481</v>
+        <v>45901.54479166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5576,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5636,14 +5613,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11379-2024</t>
+          <t>A 60425-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45372.43756944445</v>
+        <v>44911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5633,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5693,14 +5670,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41516-2025</t>
+          <t>A 61087-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45901.54479166667</v>
+        <v>44915</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5690,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5750,14 +5727,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28189-2024</t>
+          <t>A 25749-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45477</v>
+        <v>45804.29387731481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5747,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5807,14 +5784,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26592-2025</t>
+          <t>A 12855-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45807.8859375</v>
+        <v>45001</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5864,14 +5841,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 61377-2024</t>
+          <t>A 11379-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45646.39682870371</v>
+        <v>45372.43756944445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5861,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5921,14 +5898,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27828-2025</t>
+          <t>A 28189-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45817</v>
+        <v>45477</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5941,7 +5918,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5978,14 +5955,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62944-2025</t>
+          <t>A 26592-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46009</v>
+        <v>45807.8859375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5998,7 +5975,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6035,14 +6012,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30730-2025</t>
+          <t>A 61377-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45831</v>
+        <v>45646.39682870371</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6055,7 +6032,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6092,14 +6069,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17723-2023</t>
+          <t>A 27828-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45037</v>
+        <v>45817</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6112,7 +6089,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6149,14 +6126,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 38813-2025</t>
+          <t>A 30730-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45887</v>
+        <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6169,7 +6146,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6206,14 +6183,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 531-2025</t>
+          <t>A 45241-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45664.50216435185</v>
+        <v>45919.59726851852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6226,7 +6203,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6263,14 +6240,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 16665-2022</t>
+          <t>A 45164-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44672</v>
+        <v>45919.49057870371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6283,7 +6260,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6320,14 +6297,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 45241-2025</t>
+          <t>A 57982-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45919.59726851852</v>
+        <v>45982.41506944445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6340,7 +6317,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>9.699999999999999</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6377,14 +6354,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44960-2023</t>
+          <t>A 17723-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45190</v>
+        <v>45037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6397,7 +6374,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6434,14 +6411,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 45164-2025</t>
+          <t>A 531-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45919.49057870371</v>
+        <v>45664.50216435185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6454,7 +6431,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6491,14 +6468,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 4120-2024</t>
+          <t>A 16665-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45323.67927083333</v>
+        <v>44672</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6511,7 +6488,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6548,14 +6525,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 39603-2023</t>
+          <t>A 44960-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45167.46493055556</v>
+        <v>45190</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6568,7 +6545,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6605,14 +6582,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 54753-2022</t>
+          <t>A 4120-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44883</v>
+        <v>45323.67927083333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6625,7 +6602,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6662,14 +6639,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 8478-2025</t>
+          <t>A 39603-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45709.48738425926</v>
+        <v>45167.46493055556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6682,7 +6659,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6719,14 +6696,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5730-2022</t>
+          <t>A 54753-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44596</v>
+        <v>44883</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6739,7 +6716,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6776,14 +6753,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13437-2023</t>
+          <t>A 8478-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45005</v>
+        <v>45709.48738425926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6796,7 +6773,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6833,14 +6810,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29285-2025</t>
+          <t>A 5730-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45824</v>
+        <v>44596</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6853,7 +6830,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>8.199999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6890,14 +6867,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 14515-2023</t>
+          <t>A 13437-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45012</v>
+        <v>45005</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6910,7 +6887,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6947,14 +6924,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26757-2023</t>
+          <t>A 14515-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45093</v>
+        <v>45012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6967,7 +6944,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7004,14 +6981,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20381-2025</t>
+          <t>A 26757-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45775.43020833333</v>
+        <v>45093</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7024,7 +7001,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7061,14 +7038,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 12111-2025</t>
+          <t>A 29285-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45729.35930555555</v>
+        <v>45824</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7081,7 +7058,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7118,14 +7095,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 34109-2025</t>
+          <t>A 20381-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45845.49778935185</v>
+        <v>45775.43020833333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7138,7 +7115,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7182,7 +7159,7 @@
         <v>44838</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7239,7 +7216,7 @@
         <v>44838</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7289,14 +7266,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 28830-2025</t>
+          <t>A 49745-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45820</v>
+        <v>45940.34168981481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7309,7 +7286,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7346,14 +7323,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 27219-2022</t>
+          <t>A 49780-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44741</v>
+        <v>45940.38962962963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7366,7 +7343,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7403,14 +7380,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26590-2025</t>
+          <t>A 12111-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45807</v>
+        <v>45729.35930555555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7423,7 +7400,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7460,14 +7437,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26591-2025</t>
+          <t>A 34109-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45807</v>
+        <v>45845.49778935185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7480,7 +7457,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7517,14 +7494,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 63268-2023</t>
+          <t>A 28830-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45273.75299768519</v>
+        <v>45820</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7537,7 +7514,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7574,14 +7551,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49745-2025</t>
+          <t>A 27219-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45940.34168981481</v>
+        <v>44741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7594,7 +7571,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7631,14 +7608,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 49780-2025</t>
+          <t>A 63268-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45940.38962962963</v>
+        <v>45273.75299768519</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7651,7 +7628,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7688,14 +7665,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26251-2025</t>
+          <t>A 51235-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45805.57872685185</v>
+        <v>45947.68568287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7708,7 +7685,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7745,14 +7722,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 2114-2025</t>
+          <t>A 26590-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45672.6284375</v>
+        <v>45807</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7765,7 +7742,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7802,14 +7779,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 19629-2025</t>
+          <t>A 26591-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45770.64084490741</v>
+        <v>45807</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7822,7 +7799,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7859,14 +7836,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50513-2025</t>
+          <t>A 2114-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45945</v>
+        <v>45672.6284375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7879,7 +7856,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7916,14 +7893,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 30645-2022</t>
+          <t>A 26251-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44763</v>
+        <v>45805.57872685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7936,7 +7913,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7973,14 +7950,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 51235-2025</t>
+          <t>A 21066-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45947.68568287037</v>
+        <v>45061</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7992,8 +7969,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8030,14 +8012,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21066-2023</t>
+          <t>A 28352-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45061</v>
+        <v>45477</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8049,13 +8031,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8092,14 +8069,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28352-2024</t>
+          <t>A 15905-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45477</v>
+        <v>45405</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8112,7 +8089,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8149,14 +8126,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 15905-2024</t>
+          <t>A 28332-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45405</v>
+        <v>45477</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8169,7 +8146,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8206,14 +8183,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28332-2024</t>
+          <t>A 6760-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45477</v>
+        <v>45342.47940972223</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8203,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8263,14 +8240,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6760-2024</t>
+          <t>A 6174-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45342.47940972223</v>
+        <v>45698</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8260,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8320,14 +8297,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6174-2025</t>
+          <t>A 55347-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45698</v>
+        <v>45971.35238425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8317,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8377,14 +8354,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 55347-2025</t>
+          <t>A 4247-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45971.35238425926</v>
+        <v>45685</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8374,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8434,14 +8411,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 56941-2025</t>
+          <t>A 3407-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45978</v>
+        <v>45318</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8431,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8491,14 +8468,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 56304-2025</t>
+          <t>A 2852-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45974.60929398148</v>
+        <v>46038.4815162037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8488,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8548,14 +8525,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56307-2025</t>
+          <t>A 26764-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45974.61260416666</v>
+        <v>45093</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8545,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8605,14 +8582,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 3-2026</t>
+          <t>A 53848-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46023.44236111111</v>
+        <v>45231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8602,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8662,14 +8639,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 8290-2026</t>
+          <t>A 3182-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46064</v>
+        <v>46041.45050925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8659,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8719,14 +8696,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 11-2026</t>
+          <t>A 61169-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46023.58386574074</v>
+        <v>46000</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8716,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8776,14 +8753,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 4247-2025</t>
+          <t>A 10452-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45685</v>
+        <v>44981</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8796,7 +8773,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8833,14 +8810,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3407-2024</t>
+          <t>A 2950-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45318</v>
+        <v>45315</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8853,7 +8830,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8890,14 +8867,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 57982-2025</t>
+          <t>A 61175-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45982.41506944445</v>
+        <v>46000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8910,7 +8887,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8947,14 +8924,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26764-2023</t>
+          <t>A 20512-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45093</v>
+        <v>45057</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8967,7 +8944,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9004,14 +8981,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 53848-2023</t>
+          <t>A 43996-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45231</v>
+        <v>44838</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9024,7 +9001,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9061,14 +9038,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 8296-2026</t>
+          <t>A 47222-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46064</v>
+        <v>44852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9081,7 +9058,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.4</v>
+        <v>12.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9118,14 +9095,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 8329-2026</t>
+          <t>A 4928-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46064</v>
+        <v>44593.47482638889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9138,7 +9115,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9175,14 +9152,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51232-2025</t>
+          <t>A 14514-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45947</v>
+        <v>45012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9195,7 +9172,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9232,14 +9209,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 10452-2023</t>
+          <t>A 54711-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44981</v>
+        <v>45618</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9252,7 +9229,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9289,14 +9266,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2950-2024</t>
+          <t>A 62944-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45315</v>
+        <v>46009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9309,7 +9286,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9346,14 +9323,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58807-2025</t>
+          <t>A 38813-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45987</v>
+        <v>45887</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,14 +9380,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8305-2026</t>
+          <t>A 45092-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46064</v>
+        <v>45575.5844212963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9423,7 +9400,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9460,14 +9437,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 5082-2026</t>
+          <t>A 57428-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46049.54256944444</v>
+        <v>45240</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9480,7 +9457,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9517,14 +9494,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 20512-2023</t>
+          <t>A 19629-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45057</v>
+        <v>45770.64084490741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9537,7 +9514,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9574,14 +9551,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 43996-2022</t>
+          <t>A 70984-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44838</v>
+        <v>44538</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9594,7 +9571,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9631,14 +9608,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 47222-2022</t>
+          <t>A 40595-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44852</v>
+        <v>44420.47767361111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9651,7 +9628,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>12.3</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9688,14 +9665,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 4928-2022</t>
+          <t>A 61007-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44593.47482638889</v>
+        <v>45645.44342592593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9707,8 +9684,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9745,14 +9727,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 14514-2023</t>
+          <t>A 50513-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45012</v>
+        <v>45945</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9765,7 +9747,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9802,14 +9784,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 54711-2024</t>
+          <t>A 30645-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45618</v>
+        <v>44763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9822,7 +9804,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9859,14 +9841,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2852-2026</t>
+          <t>A 1475-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46038.4815162037</v>
+        <v>44573.50236111111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9879,7 +9861,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9916,14 +9898,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 3182-2026</t>
+          <t>A 41623-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46041.45050925926</v>
+        <v>45175.68952546296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9936,7 +9918,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9973,14 +9955,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 45092-2024</t>
+          <t>A 37074-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45575.5844212963</v>
+        <v>45539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9993,7 +9975,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10030,14 +10012,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 61169-2025</t>
+          <t>A 51301-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46000</v>
+        <v>45604.28789351852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10050,7 +10032,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10087,14 +10069,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 61175-2025</t>
+          <t>A 3940-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46000</v>
+        <v>45322</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10107,7 +10089,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10144,14 +10126,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 57428-2023</t>
+          <t>A 56941-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45240</v>
+        <v>45978</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10164,7 +10146,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10201,14 +10183,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 70984-2021</t>
+          <t>A 53460-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44538</v>
+        <v>44879</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10221,7 +10203,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10258,14 +10240,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 40595-2021</t>
+          <t>A 3-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44420.47767361111</v>
+        <v>46023.44236111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10278,7 +10260,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10315,14 +10297,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61007-2024</t>
+          <t>A 8290-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45645.44342592593</v>
+        <v>46064</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10334,13 +10316,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10377,14 +10354,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 1475-2022</t>
+          <t>A 11-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44573.50236111111</v>
+        <v>46023.58386574074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10397,7 +10374,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10434,14 +10411,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 41623-2023</t>
+          <t>A 53807-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45175.68952546296</v>
+        <v>45231</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10454,7 +10431,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10491,14 +10468,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 37074-2024</t>
+          <t>A 8296-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45539</v>
+        <v>46064</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10511,7 +10488,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10548,14 +10525,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 51301-2024</t>
+          <t>A 8329-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45604.28789351852</v>
+        <v>46064</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10568,7 +10545,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10605,14 +10582,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 3940-2024</t>
+          <t>A 51232-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45322</v>
+        <v>45947</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10625,7 +10602,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10662,14 +10639,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 53460-2022</t>
+          <t>A 44728-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44879</v>
+        <v>45574.57978009259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10682,7 +10659,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10719,14 +10696,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 53807-2023</t>
+          <t>A 26033-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45231</v>
+        <v>44734</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10738,8 +10715,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10776,14 +10758,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 44728-2024</t>
+          <t>A 15657-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45574.57978009259</v>
+        <v>45748</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10796,7 +10778,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10833,14 +10815,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 26033-2022</t>
+          <t>A 58807-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44734</v>
+        <v>45987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10852,13 +10834,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>9.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10895,14 +10872,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 15657-2025</t>
+          <t>A 8305-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45748</v>
+        <v>46064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10892,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10952,14 +10929,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 7306-2023</t>
+          <t>A 5082-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44970</v>
+        <v>46049.54256944444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10949,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11009,14 +10986,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 18345-2022</t>
+          <t>A 7306-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44685</v>
+        <v>44970</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11028,13 +11005,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11071,14 +11043,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 36211-2024</t>
+          <t>A 18345-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45534</v>
+        <v>44685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11090,8 +11062,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11128,14 +11105,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 36119-2024</t>
+          <t>A 36211-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
         <v>45534</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11148,7 +11125,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11185,14 +11162,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 43891-2022</t>
+          <t>A 36119-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44838</v>
+        <v>45534</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11205,7 +11182,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11242,14 +11219,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 57461-2022</t>
+          <t>A 43891-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44896</v>
+        <v>44838</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11262,7 +11239,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11299,14 +11276,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 65200-2021</t>
+          <t>A 57461-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44515</v>
+        <v>44896</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11319,7 +11296,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11356,14 +11333,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 7655-2025</t>
+          <t>A 65200-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45706</v>
+        <v>44515</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11353,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11413,14 +11390,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 14554-2025</t>
+          <t>A 7655-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45741</v>
+        <v>45706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11410,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11470,14 +11447,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 25934-2022</t>
+          <t>A 14554-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44734</v>
+        <v>45741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11489,13 +11466,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11532,14 +11504,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 18348-2022</t>
+          <t>A 25934-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44685.67729166667</v>
+        <v>44734</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11553,11 +11525,11 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11594,14 +11566,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6440-2024</t>
+          <t>A 18348-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45338.65138888889</v>
+        <v>44685.67729166667</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11613,8 +11585,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11651,14 +11628,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 56596-2022</t>
+          <t>A 6440-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44888</v>
+        <v>45338.65138888889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11671,7 +11648,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11708,14 +11685,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 16663-2022</t>
+          <t>A 56596-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44672</v>
+        <v>44888</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11705,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11765,14 +11742,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 6941-2024</t>
+          <t>A 16663-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45343.41258101852</v>
+        <v>44672</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11762,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11822,14 +11799,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6944-2024</t>
+          <t>A 6941-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45343.42164351852</v>
+        <v>45343.41258101852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11819,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11879,14 +11856,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 2935-2024</t>
+          <t>A 6944-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45315</v>
+        <v>45343.42164351852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11876,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11936,14 +11913,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 14849-2024</t>
+          <t>A 2935-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45398</v>
+        <v>45315</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11933,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11993,14 +11970,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 13432-2023</t>
+          <t>A 14849-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45005.61023148148</v>
+        <v>45398</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +11990,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12050,14 +12027,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 63139-2023</t>
+          <t>A 13432-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45273</v>
+        <v>45005.61023148148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12047,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12107,14 +12084,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 13429-2023</t>
+          <t>A 63139-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45005.60744212963</v>
+        <v>45273</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12104,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12164,14 +12141,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 5138-2022</t>
+          <t>A 13429-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44594</v>
+        <v>45005.60744212963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12161,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12221,14 +12198,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53455-2022</t>
+          <t>A 5138-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44874</v>
+        <v>44594</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12218,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12278,14 +12255,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 59702-2022</t>
+          <t>A 53455-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44908</v>
+        <v>44874</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12297,13 +12274,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12340,14 +12312,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 16969-2025</t>
+          <t>A 59702-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45755.4659837963</v>
+        <v>44908</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12359,8 +12331,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12397,14 +12374,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 43871-2022</t>
+          <t>A 16969-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44838</v>
+        <v>45755.4659837963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12417,7 +12394,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12454,14 +12431,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 43884-2022</t>
+          <t>A 43871-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
         <v>44838</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12474,7 +12451,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12511,14 +12488,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 45349-2023</t>
+          <t>A 43884-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45191</v>
+        <v>44838</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12531,7 +12508,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12568,14 +12545,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 36884-2023</t>
+          <t>A 45349-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45154.6050925926</v>
+        <v>45191</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12588,7 +12565,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12625,14 +12602,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 16787-2025</t>
+          <t>A 36884-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45754.60696759259</v>
+        <v>45154.6050925926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12645,7 +12622,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12682,14 +12659,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 50196-2022</t>
+          <t>A 16787-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44860</v>
+        <v>45754.60696759259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12739,14 +12716,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 30951-2023</t>
+          <t>A 50196-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45113</v>
+        <v>44860</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12759,7 +12736,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12796,14 +12773,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50330-2023</t>
+          <t>A 30951-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45216</v>
+        <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12816,7 +12793,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12853,14 +12830,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 50332-2023</t>
+          <t>A 50330-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45216.56113425926</v>
+        <v>45216</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12873,7 +12850,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12910,14 +12887,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 23005-2024</t>
+          <t>A 50332-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45450.32965277778</v>
+        <v>45216.56113425926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12930,7 +12907,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12967,14 +12944,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 28335-2024</t>
+          <t>A 23005-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45477</v>
+        <v>45450.32965277778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12987,7 +12964,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13024,14 +13001,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 34704-2024</t>
+          <t>A 28335-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45526</v>
+        <v>45477</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13044,7 +13021,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13081,14 +13058,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 16759-2025</t>
+          <t>A 34704-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45754.5747337963</v>
+        <v>45526</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13101,7 +13078,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13138,14 +13115,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 12833-2023</t>
+          <t>A 16759-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45001</v>
+        <v>45754.5747337963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13158,7 +13135,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13195,14 +13172,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 37082-2024</t>
+          <t>A 12833-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45539</v>
+        <v>45001</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13215,7 +13192,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13252,14 +13229,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 19633-2023</t>
+          <t>A 37082-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45051</v>
+        <v>45539</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13271,13 +13248,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13314,14 +13286,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 53956-2023</t>
+          <t>A 19633-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45231</v>
+        <v>45051</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13333,8 +13305,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13371,14 +13348,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 4245-2025</t>
+          <t>A 53956-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45685</v>
+        <v>45231</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13391,7 +13368,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13428,14 +13405,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 6589-2025</t>
+          <t>A 4245-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45700.30015046296</v>
+        <v>45685</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13448,7 +13425,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13485,14 +13462,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61011-2023</t>
+          <t>A 6589-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45261</v>
+        <v>45700.30015046296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13505,7 +13482,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13542,14 +13519,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 19380-2021</t>
+          <t>A 61011-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44309</v>
+        <v>45261</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13562,7 +13539,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13599,14 +13576,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 42692-2022</t>
+          <t>A 19380-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44832</v>
+        <v>44309</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13619,7 +13596,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13656,14 +13633,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 18246-2023</t>
+          <t>A 42692-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45041</v>
+        <v>44832</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13676,7 +13653,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.2</v>
+        <v>5.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13713,14 +13690,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 4501-2024</t>
+          <t>A 18246-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45327.61340277778</v>
+        <v>45041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13733,7 +13710,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13770,14 +13747,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 530-2025</t>
+          <t>A 4501-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45664.50134259259</v>
+        <v>45327.61340277778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13790,7 +13767,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13827,14 +13804,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 56231-2022</t>
+          <t>A 530-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44890</v>
+        <v>45664.50134259259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13847,7 +13824,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13884,14 +13861,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 9701-2023</t>
+          <t>A 56231-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44984</v>
+        <v>44890</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13904,7 +13881,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.4</v>
+        <v>7.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13941,14 +13918,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 7782-2022</t>
+          <t>A 9701-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44608</v>
+        <v>44984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13961,7 +13938,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13998,14 +13975,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 44739-2024</t>
+          <t>A 7782-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45574.59447916667</v>
+        <v>44608</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14018,7 +13995,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14055,14 +14032,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 12025-2025</t>
+          <t>A 44739-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45728.63755787037</v>
+        <v>45574.59447916667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14075,7 +14052,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14112,14 +14089,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 54798-2023</t>
+          <t>A 12025-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45236.49951388889</v>
+        <v>45728.63755787037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14109,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14169,85 +14146,85 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
+          <t>A 54798-2023</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>45236.49951388889</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" s="2" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
           <t>A 19196-2021</t>
         </is>
       </c>
-      <c r="B228" s="1" t="n">
+      <c r="B229" s="1" t="n">
         <v>44308</v>
       </c>
-      <c r="C228" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G228" t="n">
+      <c r="C229" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
         <v>9.5</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>0</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0</v>
-      </c>
-      <c r="L228" t="n">
-        <v>0</v>
-      </c>
-      <c r="M228" t="n">
-        <v>0</v>
-      </c>
-      <c r="N228" t="n">
-        <v>0</v>
-      </c>
-      <c r="O228" t="n">
-        <v>0</v>
-      </c>
-      <c r="P228" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q228" t="n">
-        <v>0</v>
-      </c>
-      <c r="R228" s="2" t="inlineStr"/>
-    </row>
-    <row r="229" ht="15" customHeight="1">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>A 43469-2024</t>
-        </is>
-      </c>
-      <c r="B229" s="1" t="n">
-        <v>45568.72523148148</v>
-      </c>
-      <c r="C229" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G229" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H229" t="n">
         <v>0</v>
       </c>
@@ -14279,68 +14256,6 @@
         <v>0</v>
       </c>
       <c r="R229" s="2" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>A 73544-2021</t>
-        </is>
-      </c>
-      <c r="B230" s="1" t="n">
-        <v>44551</v>
-      </c>
-      <c r="C230" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G230" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>0</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0</v>
-      </c>
-      <c r="L230" t="n">
-        <v>0</v>
-      </c>
-      <c r="M230" t="n">
-        <v>0</v>
-      </c>
-      <c r="N230" t="n">
-        <v>0</v>
-      </c>
-      <c r="O230" t="n">
-        <v>0</v>
-      </c>
-      <c r="P230" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q230" t="n">
-        <v>0</v>
-      </c>
-      <c r="R230" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 60427-2022</t>
+          <t>A 24278-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44911</v>
+        <v>45079</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,17 +588,17 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,186 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Björktrast
+Rödvingetrast
+Spillkråka
+Trana</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 2787-2024</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Brunlångöra
+Nordfladdermus
+Större brunfladdermus
+Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2787-2024 artfynd.xlsx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2787-2024 karta.png", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2787-2024 FSC-klagomål.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2787-2024 FSC-klagomål mail.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2787-2024 tillsynsbegäran.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2787-2024 tillsynsbegäran mail.docx", "A 2787-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 60427-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44911</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Kransrams
 Myskmadra
@@ -628,222 +808,42 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 24278-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45079</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Björktrast
-Rödvingetrast
-Spillkråka
-Trana</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 2787-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45314</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Brunlångöra
-Nordfladdermus
-Större brunfladdermus
-Vattenfladdermus</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2787-2024 artfynd.xlsx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2787-2024 karta.png", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2787-2024 FSC-klagomål.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2787-2024 FSC-klagomål mail.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2787-2024 tillsynsbegäran.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2787-2024 tillsynsbegäran mail.docx", "A 2787-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 27902-2023</t>
+          <t>A 19517-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45098</v>
+        <v>45050</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>10.3</v>
+        <v>6.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -874,237 +874,237 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Backsippa
+Dvärghäxört
+Liten stinksvamp</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 19517-2023 artfynd.xlsx", "A 19517-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 19517-2023 karta.png", "A 19517-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 19517-2023 FSC-klagomål.docx", "A 19517-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 19517-2023 FSC-klagomål mail.docx", "A 19517-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 19517-2023 tillsynsbegäran.docx", "A 19517-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 19517-2023 tillsynsbegäran mail.docx", "A 19517-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 7616-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Flenörtskapuschongfly
+Kösa
+Åkerkulla</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 27902-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45098</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Småvänderot
 Granbräken</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 7616-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45348</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Flenörtskapuschongfly
-Kösa
-Åkerkulla</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 19517-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45050</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Backsippa
-Dvärghäxört
-Liten stinksvamp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 19517-2023 artfynd.xlsx", "A 19517-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 19517-2023 karta.png", "A 19517-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 19517-2023 FSC-klagomål.docx", "A 19517-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 19517-2023 FSC-klagomål mail.docx", "A 19517-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 19517-2023 tillsynsbegäran.docx", "A 19517-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 19517-2023 tillsynsbegäran mail.docx", "A 19517-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2942-2024</t>
+          <t>A 20987-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45315</v>
+        <v>45439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1151,32 +1151,36 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma
-Revlummer</t>
+          <t>Spillkråka
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1194,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,14 +1273,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 20987-2024</t>
+          <t>A 2942-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45439</v>
+        <v>45315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1289,7 +1293,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>11.2</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1298,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1313,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1323,36 +1327,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
+          <t>Skogsbräsma
+Revlummer</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1614,14 +1614,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42053-2023</t>
+          <t>A 22569-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45174</v>
+        <v>45447.56391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1634,19 +1634,19 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1661,52 +1661,56 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Småvänderot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 61019-2024</t>
+          <t>A 3924-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45645</v>
+        <v>45322.57806712963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,13 +1722,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1751,381 +1750,386 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Vitnoppa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 61019-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45645</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Brokigt ängsfly</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 48926-2024</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45594</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>10.8</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 25480-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45802</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>0.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Hålnunneört</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 45550-2025</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>45922.63372685185</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>4.7</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 3924-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45322.57806712963</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Vitnoppa</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
@@ -2136,7 +2140,7 @@
         <v>46002</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2225,7 @@
         <v>45945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2310,7 @@
         <v>46064</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2384,14 +2388,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 22569-2024</t>
+          <t>A 42053-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45447.56391203704</v>
+        <v>45174</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2404,19 +2408,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2431,42 +2435,38 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Småvänderot</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
         <v/>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
         <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>44370.37863425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>44396.42534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44284.6778125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44461.42746527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44596</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3784,14 +3784,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3480-2022</t>
+          <t>A 6174-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44585.62603009259</v>
+        <v>45698</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3841,14 +3841,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10007-2022</t>
+          <t>A 15905-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44621</v>
+        <v>45405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3898,14 +3898,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35491-2021</t>
+          <t>A 4245-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44385</v>
+        <v>45685</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3955,14 +3955,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35801-2024</t>
+          <t>A 16787-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45532</v>
+        <v>45754.60696759259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4012,14 +4012,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16110-2024</t>
+          <t>A 54798-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45406</v>
+        <v>45236.49951388889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4069,14 +4069,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27233-2022</t>
+          <t>A 25934-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44741</v>
+        <v>44734</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4088,8 +4088,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>5.4</v>
+        <v>0.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4126,14 +4131,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 37675-2023</t>
+          <t>A 61377-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45159.5582175926</v>
+        <v>45646.39682870371</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4146,7 +4151,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4183,14 +4188,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30087-2023</t>
+          <t>A 2114-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45110</v>
+        <v>45672.6284375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4203,7 +4208,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4240,14 +4245,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16434-2025</t>
+          <t>A 53455-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45751.48209490741</v>
+        <v>44874</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4260,7 +4265,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4297,14 +4302,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16789-2025</t>
+          <t>A 28385-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45754.60923611111</v>
+        <v>45477</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4317,7 +4322,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.7</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4354,14 +4359,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43469-2024</t>
+          <t>A 59702-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45568.72523148148</v>
+        <v>44908</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4373,8 +4378,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4411,14 +4421,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 73544-2021</t>
+          <t>A 6760-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44551</v>
+        <v>45342.47940972223</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4430,13 +4440,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4473,14 +4478,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31092-2023</t>
+          <t>A 56596-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45113</v>
+        <v>44888</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4493,7 +4498,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7.8</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4530,14 +4535,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50250-2024</t>
+          <t>A 17723-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45600.57039351852</v>
+        <v>45037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4550,7 +4555,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4587,14 +4592,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9466-2025</t>
+          <t>A 43891-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45715.46888888889</v>
+        <v>44838</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4607,7 +4612,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4644,14 +4649,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12842-2023</t>
+          <t>A 56231-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45001</v>
+        <v>44890</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4669,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4701,14 +4706,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12028-2025</t>
+          <t>A 19196-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45728.64225694445</v>
+        <v>44308</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4726,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4758,14 +4763,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23116-2025</t>
+          <t>A 14849-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45791.37001157407</v>
+        <v>45398</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4778,7 +4783,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4815,14 +4820,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 27251-2024</t>
+          <t>A 15657-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45471</v>
+        <v>45748</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4835,7 +4840,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4872,14 +4877,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48921-2024</t>
+          <t>A 73544-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45594</v>
+        <v>44551</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,8 +4896,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4929,14 +4939,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56304-2025</t>
+          <t>A 43469-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45974.60929398148</v>
+        <v>45568.72523148148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4949,7 +4959,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4986,14 +4996,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 56307-2025</t>
+          <t>A 40083-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45974.61260416666</v>
+        <v>45894.46975694445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5006,7 +5016,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5043,14 +5053,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28385-2024</t>
+          <t>A 28332-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
         <v>45477</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5063,7 +5073,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.3</v>
+        <v>7.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5100,14 +5110,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47136-2022</t>
+          <t>A 28352-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44848</v>
+        <v>45477</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5120,7 +5130,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5157,14 +5167,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 48909-2024</t>
+          <t>A 40090-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45594</v>
+        <v>45894.47711805555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5177,7 +5187,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>28.4</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5214,14 +5224,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46777-2024</t>
+          <t>A 53956-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45583</v>
+        <v>45231</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5234,7 +5244,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5271,14 +5281,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13475-2024</t>
+          <t>A 9466-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45387.58354166667</v>
+        <v>45715.46888888889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5291,7 +5301,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5328,14 +5338,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40083-2025</t>
+          <t>A 27251-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45894.46975694445</v>
+        <v>45471</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5348,7 +5358,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5385,14 +5395,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40090-2025</t>
+          <t>A 23116-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45894.47711805555</v>
+        <v>45791.37001157407</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5442,14 +5452,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52281-2024</t>
+          <t>A 4120-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45608</v>
+        <v>45323.67927083333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5462,7 +5472,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12.3</v>
+        <v>5.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5499,14 +5509,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51131-2021</t>
+          <t>A 12028-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44461</v>
+        <v>45728.64225694445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5519,7 +5529,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5556,14 +5566,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41516-2025</t>
+          <t>A 54753-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45901.54479166667</v>
+        <v>44883</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5576,7 +5586,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5613,14 +5623,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60425-2022</t>
+          <t>A 50250-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44911</v>
+        <v>45600.57039351852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5643,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5670,14 +5680,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61087-2022</t>
+          <t>A 47136-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44915</v>
+        <v>44848</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5700,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5727,14 +5737,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25749-2025</t>
+          <t>A 41516-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45804.29387731481</v>
+        <v>45901.54479166667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5747,7 +5757,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5784,14 +5794,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12855-2023</t>
+          <t>A 43871-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45001</v>
+        <v>44838</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5841,14 +5851,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11379-2024</t>
+          <t>A 43884-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45372.43756944445</v>
+        <v>44838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5861,7 +5871,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5898,14 +5908,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 28189-2024</t>
+          <t>A 49745-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45477</v>
+        <v>45940.34168981481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5918,7 +5928,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5955,14 +5965,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26592-2025</t>
+          <t>A 49780-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45807.8859375</v>
+        <v>45940.38962962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5975,7 +5985,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6012,14 +6022,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61377-2024</t>
+          <t>A 51235-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45646.39682870371</v>
+        <v>45947.68568287037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6032,7 +6042,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6069,14 +6079,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27828-2025</t>
+          <t>A 14514-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45817</v>
+        <v>45012</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6089,7 +6099,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6126,14 +6136,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30730-2025</t>
+          <t>A 30951-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45831</v>
+        <v>45113</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6146,7 +6156,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6183,14 +6193,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45241-2025</t>
+          <t>A 48921-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45919.59726851852</v>
+        <v>45594</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6203,7 +6213,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>9.699999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6240,14 +6250,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45164-2025</t>
+          <t>A 52281-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45919.49057870371</v>
+        <v>45608</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6260,7 +6270,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>12.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6297,14 +6307,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 57982-2025</t>
+          <t>A 48909-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45982.41506944445</v>
+        <v>45594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6317,7 +6327,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>28.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6354,14 +6364,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17723-2023</t>
+          <t>A 13475-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45037</v>
+        <v>45387.58354166667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6374,7 +6384,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6411,14 +6421,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 531-2025</t>
+          <t>A 60425-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45664.50216435185</v>
+        <v>44911</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6431,7 +6441,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6468,14 +6478,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16665-2022</t>
+          <t>A 61087-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44672</v>
+        <v>44915</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6488,7 +6498,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6525,14 +6535,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44960-2023</t>
+          <t>A 53460-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45190</v>
+        <v>44879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6545,7 +6555,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6582,14 +6592,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4120-2024</t>
+          <t>A 51131-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45323.67927083333</v>
+        <v>44461</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6602,7 +6612,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6639,14 +6649,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 39603-2023</t>
+          <t>A 25749-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45167.46493055556</v>
+        <v>45804.29387731481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6659,7 +6669,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6696,14 +6706,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 54753-2022</t>
+          <t>A 30730-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44883</v>
+        <v>45831</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6716,7 +6726,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6753,14 +6763,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 8478-2025</t>
+          <t>A 31092-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45709.48738425926</v>
+        <v>45113</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6773,7 +6783,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6810,14 +6820,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5730-2022</t>
+          <t>A 55347-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44596</v>
+        <v>45971.35238425926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6840,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6867,14 +6877,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13437-2023</t>
+          <t>A 28189-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45005</v>
+        <v>45477</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6897,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6924,14 +6934,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14515-2023</t>
+          <t>A 45241-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45012</v>
+        <v>45919.59726851852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6954,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6981,14 +6991,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26757-2023</t>
+          <t>A 26592-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45093</v>
+        <v>45807.8859375</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7001,7 +7011,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7038,14 +7048,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 29285-2025</t>
+          <t>A 45164-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45824</v>
+        <v>45919.49057870371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7058,7 +7068,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7095,14 +7105,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 20381-2025</t>
+          <t>A 37082-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45775.43020833333</v>
+        <v>45539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7115,7 +7125,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7152,14 +7162,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43877-2022</t>
+          <t>A 27828-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44838</v>
+        <v>45817</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7172,7 +7182,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7209,14 +7219,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43897-2022</t>
+          <t>A 14554-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44838</v>
+        <v>45741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7229,7 +7239,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7266,14 +7276,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49745-2025</t>
+          <t>A 56304-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45940.34168981481</v>
+        <v>45974.60929398148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7286,7 +7296,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7323,14 +7333,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 49780-2025</t>
+          <t>A 56307-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45940.38962962963</v>
+        <v>45974.61260416666</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7343,7 +7353,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7380,14 +7390,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 12111-2025</t>
+          <t>A 44739-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45729.35930555555</v>
+        <v>45574.59447916667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7400,7 +7410,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7437,14 +7447,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34109-2025</t>
+          <t>A 57461-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45845.49778935185</v>
+        <v>44896</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7467,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7494,14 +7504,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28830-2025</t>
+          <t>A 7655-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45820</v>
+        <v>45706</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7514,7 +7524,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7551,14 +7561,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27219-2022</t>
+          <t>A 57982-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44741</v>
+        <v>45982.41506944445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7571,7 +7581,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7608,14 +7618,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 63268-2023</t>
+          <t>A 7306-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45273.75299768519</v>
+        <v>44970</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7628,7 +7638,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7665,14 +7675,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 51235-2025</t>
+          <t>A 8478-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45947.68568287037</v>
+        <v>45709.48738425926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7685,7 +7695,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7722,14 +7732,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26590-2025</t>
+          <t>A 29285-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45807</v>
+        <v>45824</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7742,7 +7752,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7779,14 +7789,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26591-2025</t>
+          <t>A 51301-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45807</v>
+        <v>45604.28789351852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7799,7 +7809,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7836,14 +7846,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 2114-2025</t>
+          <t>A 46777-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45672.6284375</v>
+        <v>45583</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7856,7 +7866,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7893,14 +7903,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 26251-2025</t>
+          <t>A 16663-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45805.57872685185</v>
+        <v>44672</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7913,7 +7923,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7950,14 +7960,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 21066-2023</t>
+          <t>A 40595-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45061</v>
+        <v>44420.47767361111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,13 +7979,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8012,14 +8017,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28352-2024</t>
+          <t>A 28830-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45477</v>
+        <v>45820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8032,7 +8037,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8069,14 +8074,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 15905-2024</t>
+          <t>A 10452-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45405</v>
+        <v>44981</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8089,7 +8094,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8126,14 +8131,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28332-2024</t>
+          <t>A 12111-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45477</v>
+        <v>45729.35930555555</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8146,7 +8151,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8183,14 +8188,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6760-2024</t>
+          <t>A 34109-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45342.47940972223</v>
+        <v>45845.49778935185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8203,7 +8208,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8240,14 +8245,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6174-2025</t>
+          <t>A 47222-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45698</v>
+        <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8260,7 +8265,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.6</v>
+        <v>12.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8297,14 +8302,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55347-2025</t>
+          <t>A 2950-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45971.35238425926</v>
+        <v>45315</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8317,7 +8322,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8354,14 +8359,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 4247-2025</t>
+          <t>A 26590-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45685</v>
+        <v>45807</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8374,7 +8379,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8411,14 +8416,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 3407-2024</t>
+          <t>A 13432-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45318</v>
+        <v>45005.61023148148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8431,7 +8436,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8468,14 +8473,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 2852-2026</t>
+          <t>A 26591-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46038.4815162037</v>
+        <v>45807</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8525,14 +8530,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26764-2023</t>
+          <t>A 19380-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45093</v>
+        <v>44309</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8545,7 +8550,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8589,7 +8594,7 @@
         <v>45231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8639,14 +8644,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 3182-2026</t>
+          <t>A 26251-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46041.45050925926</v>
+        <v>45805.57872685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8659,7 +8664,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8696,14 +8701,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 61169-2025</t>
+          <t>A 14515-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46000</v>
+        <v>45012</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8716,7 +8721,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8753,14 +8758,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 10452-2023</t>
+          <t>A 13429-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44981</v>
+        <v>45005.60744212963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8773,7 +8778,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8810,14 +8815,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 2950-2024</t>
+          <t>A 12855-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45315</v>
+        <v>45001</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8830,7 +8835,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8867,14 +8872,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61175-2025</t>
+          <t>A 45092-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46000</v>
+        <v>45575.5844212963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8887,7 +8892,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8924,14 +8929,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 20512-2023</t>
+          <t>A 61007-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45057</v>
+        <v>45645.44342592593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8943,8 +8948,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8981,14 +8991,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43996-2022</t>
+          <t>A 36119-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44838</v>
+        <v>45534</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9001,7 +9011,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9038,14 +9048,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47222-2022</t>
+          <t>A 2852-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44852</v>
+        <v>46038.4815162037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9058,7 +9068,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>12.3</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9095,14 +9105,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 4928-2022</t>
+          <t>A 3182-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44593.47482638889</v>
+        <v>46041.45050925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9115,7 +9125,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9152,14 +9162,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 14514-2023</t>
+          <t>A 61169-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45012</v>
+        <v>46000</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9172,7 +9182,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9209,14 +9219,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54711-2024</t>
+          <t>A 61175-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45618</v>
+        <v>46000</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9229,7 +9239,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9266,14 +9276,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62944-2025</t>
+          <t>A 20381-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46009</v>
+        <v>45775.43020833333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9286,7 +9296,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9330,7 +9340,7 @@
         <v>45887</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9380,14 +9390,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45092-2024</t>
+          <t>A 16969-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45575.5844212963</v>
+        <v>45755.4659837963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9437,14 +9447,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 57428-2023</t>
+          <t>A 62944-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45240</v>
+        <v>46009</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9457,7 +9467,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9494,14 +9504,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 19629-2025</t>
+          <t>A 43877-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45770.64084490741</v>
+        <v>44838</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9514,7 +9524,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9551,14 +9561,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 70984-2021</t>
+          <t>A 43897-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44538</v>
+        <v>44838</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9571,7 +9581,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9608,14 +9618,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 40595-2021</t>
+          <t>A 30645-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44420.47767361111</v>
+        <v>44763</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9628,7 +9638,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9665,14 +9675,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61007-2024</t>
+          <t>A 19629-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45645.44342592593</v>
+        <v>45770.64084490741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9684,13 +9694,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9727,14 +9732,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 50513-2025</t>
+          <t>A 65200-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45945</v>
+        <v>44515</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9747,7 +9752,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9784,14 +9789,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 30645-2022</t>
+          <t>A 6589-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44763</v>
+        <v>45700.30015046296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9804,7 +9809,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9841,14 +9846,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 1475-2022</t>
+          <t>A 16110-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44573.50236111111</v>
+        <v>45406</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9861,7 +9866,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9898,14 +9903,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 41623-2023</t>
+          <t>A 4928-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45175.68952546296</v>
+        <v>44593.47482638889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9918,7 +9923,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9955,14 +9960,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 37074-2024</t>
+          <t>A 2935-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45539</v>
+        <v>45315</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9975,7 +9980,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10012,14 +10017,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 51301-2024</t>
+          <t>A 50513-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45604.28789351852</v>
+        <v>45945</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10032,7 +10037,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10069,14 +10074,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3940-2024</t>
+          <t>A 26764-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45322</v>
+        <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10089,7 +10094,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10126,14 +10131,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56941-2025</t>
+          <t>A 30087-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45978</v>
+        <v>45110</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10146,7 +10151,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10183,14 +10188,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53460-2022</t>
+          <t>A 56941-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44879</v>
+        <v>45978</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10203,7 +10208,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10240,14 +10245,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 3-2026</t>
+          <t>A 16434-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46023.44236111111</v>
+        <v>45751.48209490741</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10260,7 +10265,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10297,14 +10302,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 8290-2026</t>
+          <t>A 19633-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46064</v>
+        <v>45051</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10316,8 +10321,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10354,14 +10364,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 11-2026</t>
+          <t>A 8290-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46023.58386574074</v>
+        <v>46064</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10374,7 +10384,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10418,7 +10428,7 @@
         <v>45231</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10468,14 +10478,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 8296-2026</t>
+          <t>A 3-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46064</v>
+        <v>46023.44236111111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10488,7 +10498,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10525,14 +10535,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 8329-2026</t>
+          <t>A 11-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46064</v>
+        <v>46023.58386574074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10545,7 +10555,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10582,14 +10592,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 51232-2025</t>
+          <t>A 531-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45947</v>
+        <v>45664.50216435185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10602,7 +10612,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10639,14 +10649,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 44728-2024</t>
+          <t>A 8329-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45574.57978009259</v>
+        <v>46064</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10669,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10696,14 +10706,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 26033-2022</t>
+          <t>A 8296-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44734</v>
+        <v>46064</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10715,13 +10725,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>9.300000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10758,14 +10763,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 15657-2025</t>
+          <t>A 58807-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45748</v>
+        <v>45987</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10778,7 +10783,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10815,14 +10820,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 58807-2025</t>
+          <t>A 8305-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45987</v>
+        <v>46064</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10835,7 +10840,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10872,14 +10877,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 8305-2026</t>
+          <t>A 51232-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46064</v>
+        <v>45947</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10892,7 +10897,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10936,7 +10941,7 @@
         <v>46049.54256944444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,14 +10991,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 7306-2023</t>
+          <t>A 6941-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44970</v>
+        <v>45343.41258101852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11006,7 +11011,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11043,14 +11048,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 18345-2022</t>
+          <t>A 6944-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44685</v>
+        <v>45343.42164351852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11062,13 +11067,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11105,14 +11105,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 36211-2024</t>
+          <t>A 7782-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45534</v>
+        <v>44608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11162,14 +11162,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 36119-2024</t>
+          <t>A 28335-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45534</v>
+        <v>45477</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11219,14 +11219,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 43891-2022</t>
+          <t>A 3407-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44838</v>
+        <v>45318</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11276,14 +11276,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 57461-2022</t>
+          <t>A 23005-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44896</v>
+        <v>45450.32965277778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11333,14 +11333,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 65200-2021</t>
+          <t>A 10007-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44515</v>
+        <v>44621</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11390,14 +11390,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 7655-2025</t>
+          <t>A 16789-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45706</v>
+        <v>45754.60923611111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11447,14 +11447,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 14554-2025</t>
+          <t>A 41623-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45741</v>
+        <v>45175.68952546296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11504,14 +11504,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 25934-2022</t>
+          <t>A 39603-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44734</v>
+        <v>45167.46493055556</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11523,13 +11523,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11566,14 +11561,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 18348-2022</t>
+          <t>A 54711-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44685.67729166667</v>
+        <v>45618</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11585,13 +11580,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11628,14 +11618,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6440-2024</t>
+          <t>A 3480-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45338.65138888889</v>
+        <v>44585.62603009259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11638,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11685,14 +11675,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 56596-2022</t>
+          <t>A 37074-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44888</v>
+        <v>45539</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11695,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11742,14 +11732,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 16663-2022</t>
+          <t>A 12833-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44672</v>
+        <v>45001</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11752,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11799,14 +11789,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6941-2024</t>
+          <t>A 5730-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45343.41258101852</v>
+        <v>44596</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11809,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11856,14 +11846,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 6944-2024</t>
+          <t>A 37675-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45343.42164351852</v>
+        <v>45159.5582175926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11866,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11913,14 +11903,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2935-2024</t>
+          <t>A 5138-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45315</v>
+        <v>44594</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11923,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11970,14 +11960,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 14849-2024</t>
+          <t>A 12025-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45398</v>
+        <v>45728.63755787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11980,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12027,14 +12017,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 13432-2023</t>
+          <t>A 44728-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45005.61023148148</v>
+        <v>45574.57978009259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12037,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12084,14 +12074,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 63139-2023</t>
+          <t>A 43996-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45273</v>
+        <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12094,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12141,14 +12131,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 13429-2023</t>
+          <t>A 18345-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45005.60744212963</v>
+        <v>44685</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12160,8 +12150,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12198,14 +12193,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 5138-2022</t>
+          <t>A 36884-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44594</v>
+        <v>45154.6050925926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12213,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12255,14 +12250,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53455-2022</t>
+          <t>A 18348-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44874</v>
+        <v>44685.67729166667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12274,8 +12269,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12312,14 +12312,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 59702-2022</t>
+          <t>A 16665-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44908</v>
+        <v>44672</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12331,13 +12331,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12374,14 +12369,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 16969-2025</t>
+          <t>A 16759-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45755.4659837963</v>
+        <v>45754.5747337963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12394,7 +12389,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12431,14 +12426,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 43871-2022</t>
+          <t>A 27219-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44838</v>
+        <v>44741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12451,7 +12446,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12488,14 +12483,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 43884-2022</t>
+          <t>A 35491-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44838</v>
+        <v>44385</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12508,7 +12503,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12545,14 +12540,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 45349-2023</t>
+          <t>A 1475-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45191</v>
+        <v>44573.50236111111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12565,7 +12560,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12602,14 +12597,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 36884-2023</t>
+          <t>A 63139-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45154.6050925926</v>
+        <v>45273</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12622,7 +12617,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12659,14 +12654,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 16787-2025</t>
+          <t>A 45349-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45754.60696759259</v>
+        <v>45191</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12679,7 +12674,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12716,14 +12711,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 50196-2022</t>
+          <t>A 44960-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44860</v>
+        <v>45190</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12736,7 +12731,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12773,14 +12768,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 30951-2023</t>
+          <t>A 36211-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45113</v>
+        <v>45534</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12793,7 +12788,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>7.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12830,14 +12825,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 50330-2023</t>
+          <t>A 42692-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45216</v>
+        <v>44832</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12850,7 +12845,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12887,14 +12882,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 50332-2023</t>
+          <t>A 61011-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45216.56113425926</v>
+        <v>45261</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12907,7 +12902,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12944,14 +12939,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 23005-2024</t>
+          <t>A 13437-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45450.32965277778</v>
+        <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12964,7 +12959,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13001,14 +12996,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 28335-2024</t>
+          <t>A 27233-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45477</v>
+        <v>44741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13021,7 +13016,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13058,14 +13053,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 34704-2024</t>
+          <t>A 50196-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45526</v>
+        <v>44860</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13078,7 +13073,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13115,14 +13110,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 16759-2025</t>
+          <t>A 70984-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45754.5747337963</v>
+        <v>44538</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13135,7 +13130,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13172,14 +13167,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 12833-2023</t>
+          <t>A 21066-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45001</v>
+        <v>45061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13191,8 +13186,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13229,14 +13229,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 37082-2024</t>
+          <t>A 57428-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45539</v>
+        <v>45240</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13286,14 +13286,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 19633-2023</t>
+          <t>A 4247-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45051</v>
+        <v>45685</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13305,13 +13305,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13348,14 +13343,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 53956-2023</t>
+          <t>A 12842-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45231</v>
+        <v>45001</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13368,7 +13363,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13405,14 +13400,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 4245-2025</t>
+          <t>A 26033-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45685</v>
+        <v>44734</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13424,8 +13419,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>0.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13462,14 +13462,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 6589-2025</t>
+          <t>A 3940-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45700.30015046296</v>
+        <v>45322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13519,14 +13519,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 61011-2023</t>
+          <t>A 34704-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45261</v>
+        <v>45526</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13576,14 +13576,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 19380-2021</t>
+          <t>A 6440-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44309</v>
+        <v>45338.65138888889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13633,14 +13633,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 42692-2022</t>
+          <t>A 20512-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44832</v>
+        <v>45057</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13690,14 +13690,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 18246-2023</t>
+          <t>A 9701-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45041</v>
+        <v>44984</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13747,14 +13747,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 4501-2024</t>
+          <t>A 35801-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45327.61340277778</v>
+        <v>45532</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13804,14 +13804,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 530-2025</t>
+          <t>A 63268-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45664.50134259259</v>
+        <v>45273.75299768519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13861,14 +13861,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 56231-2022</t>
+          <t>A 50330-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44890</v>
+        <v>45216</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>7.7</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13918,14 +13918,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 9701-2023</t>
+          <t>A 50332-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44984</v>
+        <v>45216.56113425926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13975,14 +13975,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 7782-2022</t>
+          <t>A 11379-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44608</v>
+        <v>45372.43756944445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14032,14 +14032,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 44739-2024</t>
+          <t>A 18246-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45574.59447916667</v>
+        <v>45041</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14089,14 +14089,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 12025-2025</t>
+          <t>A 530-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45728.63755787037</v>
+        <v>45664.50134259259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14146,14 +14146,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 54798-2023</t>
+          <t>A 4501-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45236.49951388889</v>
+        <v>45327.61340277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14203,14 +14203,14 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 19196-2021</t>
+          <t>A 26757-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44308</v>
+        <v>45093</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>9.5</v>
+        <v>0.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 24278-2023</t>
+          <t>A 60427-2022</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45079</v>
+        <v>44911</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +621,94 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Kransrams
+Myskmadra
+Vårärt
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 24278-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Björktrast
 Rödvingetrast
@@ -628,91 +716,91 @@
 Trana</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 24278-2023 artfynd.xlsx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 24278-2023 karta.png", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 24278-2023 FSC-klagomål.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 24278-2023 FSC-klagomål mail.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 24278-2023 tillsynsbegäran.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 24278-2023 tillsynsbegäran mail.docx", "A 24278-2023")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 24278-2023 prioriterade fågelarter.docx", "A 24278-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 2787-2024</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45314</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0.8</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>4</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -720,130 +808,42 @@
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2787-2024 artfynd.xlsx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2787-2024 karta.png", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2787-2024 FSC-klagomål.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2787-2024 FSC-klagomål mail.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2787-2024 tillsynsbegäran.docx", "A 2787-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2787-2024 tillsynsbegäran mail.docx", "A 2787-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 60427-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44911</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Kransrams
-Myskmadra
-Vårärt
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 60427-2022 artfynd.xlsx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 60427-2022 karta.png", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 60427-2022 FSC-klagomål.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 60427-2022 FSC-klagomål mail.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 60427-2022 tillsynsbegäran.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 60427-2022 tillsynsbegäran mail.docx", "A 60427-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 19517-2023</t>
+          <t>A 27902-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45050</v>
+        <v>45098</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>10.3</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -874,237 +874,237 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Småvänderot
+Granbräken</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 7616-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Flenörtskapuschongfly
+Kösa
+Åkerkulla</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 19517-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45050</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Backsippa
 Dvärghäxört
 Liten stinksvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 19517-2023 artfynd.xlsx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 19517-2023 karta.png", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 19517-2023 FSC-klagomål.docx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 19517-2023 FSC-klagomål mail.docx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 19517-2023 tillsynsbegäran.docx", "A 19517-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 19517-2023 tillsynsbegäran mail.docx", "A 19517-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 7616-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45348</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Flenörtskapuschongfly
-Kösa
-Åkerkulla</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 7616-2024 artfynd.xlsx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 7616-2024 karta.png", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 7616-2024 FSC-klagomål.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 7616-2024 FSC-klagomål mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 7616-2024 tillsynsbegäran.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 7616-2024 tillsynsbegäran mail.docx", "A 7616-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 27902-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45098</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Småvänderot
-Granbräken</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 27902-2023 artfynd.xlsx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 27902-2023 karta.png", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 27902-2023 FSC-klagomål.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 27902-2023 FSC-klagomål mail.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 27902-2023 tillsynsbegäran.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 27902-2023 tillsynsbegäran mail.docx", "A 27902-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 20987-2024</t>
+          <t>A 2942-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45439</v>
+        <v>45315</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>11.2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1151,36 +1151,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
+          <t>Skogsbräsma
+Revlummer</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1190,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,14 +1269,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2942-2024</t>
+          <t>A 20987-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45315</v>
+        <v>45439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1293,7 +1289,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1302,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1317,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1327,32 +1323,36 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma
-Revlummer</t>
+          <t>Spillkråka
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 2942-2024 artfynd.xlsx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 20987-2024 artfynd.xlsx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 2942-2024 karta.png", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 20987-2024 karta.png", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 2942-2024 FSC-klagomål.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 20987-2024 FSC-klagomål.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 2942-2024 FSC-klagomål mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 20987-2024 FSC-klagomål mail.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 2942-2024 tillsynsbegäran.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 20987-2024 tillsynsbegäran.docx", "A 20987-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 2942-2024 tillsynsbegäran mail.docx", "A 2942-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 20987-2024 tillsynsbegäran mail.docx", "A 20987-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 20987-2024 prioriterade fågelarter.docx", "A 20987-2024")</f>
         <v/>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1614,14 +1614,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 22569-2024</t>
+          <t>A 42053-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45447.56391203704</v>
+        <v>45174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1634,19 +1634,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1661,815 +1661,815 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 45550-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45922.63372685185</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 3924-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45322.57806712963</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Vitnoppa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 61690-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 50553-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45945</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Sexfläckig blombock</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 8315-2026</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Småjungfrukam</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8315-2026 artfynd.xlsx", "A 8315-2026")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8315-2026 karta.png", "A 8315-2026")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8315-2026 FSC-klagomål.docx", "A 8315-2026")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8315-2026 FSC-klagomål mail.docx", "A 8315-2026")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8315-2026 tillsynsbegäran.docx", "A 8315-2026")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8315-2026 tillsynsbegäran mail.docx", "A 8315-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 22569-2024</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45447.56391203704</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 22569-2024 artfynd.xlsx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 22569-2024 karta.png", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 22569-2024 FSC-klagomål.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 22569-2024 FSC-klagomål mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 22569-2024 tillsynsbegäran.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 22569-2024 tillsynsbegäran mail.docx", "A 22569-2024")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/fåglar/A 22569-2024 prioriterade fågelarter.docx", "A 22569-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 3924-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45322.57806712963</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 61019-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45645</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Vitnoppa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 3924-2024 artfynd.xlsx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 3924-2024 karta.png", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 3924-2024 FSC-klagomål.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 3924-2024 FSC-klagomål mail.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 3924-2024 tillsynsbegäran.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 3924-2024 tillsynsbegäran mail.docx", "A 3924-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 61019-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45645</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Brokigt ängsfly</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61019-2024 artfynd.xlsx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61019-2024 karta.png", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61019-2024 FSC-klagomål.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61019-2024 FSC-klagomål mail.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61019-2024 tillsynsbegäran.docx", "A 61019-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61019-2024 tillsynsbegäran mail.docx", "A 61019-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 48926-2024</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>45594</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C22" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>10.8</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 48926-2024 artfynd.xlsx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 48926-2024 karta.png", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 48926-2024 FSC-klagomål.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 48926-2024 FSC-klagomål mail.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 48926-2024 tillsynsbegäran.docx", "A 48926-2024")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 48926-2024 tillsynsbegäran mail.docx", "A 48926-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 25480-2025</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45802</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C23" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>0.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Hålnunneört</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 25480-2025 artfynd.xlsx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 25480-2025 karta.png", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 25480-2025 FSC-klagomål.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 25480-2025 FSC-klagomål mail.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 25480-2025 tillsynsbegäran.docx", "A 25480-2025")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 25480-2025 tillsynsbegäran mail.docx", "A 25480-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 45550-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45922.63372685185</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 45550-2025 artfynd.xlsx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 45550-2025 karta.png", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 45550-2025 FSC-klagomål.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 45550-2025 FSC-klagomål mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 45550-2025 tillsynsbegäran.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 45550-2025 tillsynsbegäran mail.docx", "A 45550-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 61690-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 61690-2025 artfynd.xlsx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 61690-2025 karta.png", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 61690-2025 FSC-klagomål.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 61690-2025 FSC-klagomål mail.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 61690-2025 tillsynsbegäran.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 61690-2025 tillsynsbegäran mail.docx", "A 61690-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 50553-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45945</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Sexfläckig blombock</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 50553-2025 artfynd.xlsx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 50553-2025 karta.png", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 50553-2025 FSC-klagomål.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 50553-2025 FSC-klagomål mail.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 50553-2025 tillsynsbegäran.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 50553-2025 tillsynsbegäran mail.docx", "A 50553-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 8315-2026</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Småjungfrukam</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 8315-2026 artfynd.xlsx", "A 8315-2026")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 8315-2026 karta.png", "A 8315-2026")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 8315-2026 FSC-klagomål.docx", "A 8315-2026")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 8315-2026 FSC-klagomål mail.docx", "A 8315-2026")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 8315-2026 tillsynsbegäran.docx", "A 8315-2026")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 8315-2026 tillsynsbegäran mail.docx", "A 8315-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 42053-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45174</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HÖÖR</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/artfynd/A 42053-2023 artfynd.xlsx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/kartor/A 42053-2023 karta.png", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomål/A 42053-2023 FSC-klagomål.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/klagomålsmail/A 42053-2023 FSC-klagomål mail.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsyn/A 42053-2023 tillsynsbegäran.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1267/tillsynsmail/A 42053-2023 tillsynsbegäran mail.docx", "A 42053-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>44370.37863425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>44396.42534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44284.6778125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44461.42746527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44596</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3784,14 +3784,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6174-2025</t>
+          <t>A 3480-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45698</v>
+        <v>44585.62603009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3841,14 +3841,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15905-2024</t>
+          <t>A 35491-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45405</v>
+        <v>44385</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3898,14 +3898,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 4245-2025</t>
+          <t>A 10007-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45685</v>
+        <v>44621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3955,14 +3955,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 16787-2025</t>
+          <t>A 35801-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45754.60696759259</v>
+        <v>45532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4012,14 +4012,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54798-2023</t>
+          <t>A 16110-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45236.49951388889</v>
+        <v>45406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4069,14 +4069,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25934-2022</t>
+          <t>A 27233-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44734</v>
+        <v>44741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4088,13 +4088,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>0.3</v>
+        <v>5.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4131,14 +4126,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61377-2024</t>
+          <t>A 30087-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45646.39682870371</v>
+        <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4151,7 +4146,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4188,14 +4183,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2114-2025</t>
+          <t>A 37675-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45672.6284375</v>
+        <v>45159.5582175926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4208,7 +4203,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4245,14 +4240,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 53455-2022</t>
+          <t>A 16434-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44874</v>
+        <v>45751.48209490741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4265,7 +4260,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4302,14 +4297,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28385-2024</t>
+          <t>A 16789-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45477</v>
+        <v>45754.60923611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4322,7 +4317,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4359,14 +4354,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59702-2022</t>
+          <t>A 31092-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44908</v>
+        <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,13 +4373,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4421,14 +4411,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6760-2024</t>
+          <t>A 12842-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45342.47940972223</v>
+        <v>45001</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4441,7 +4431,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4478,14 +4468,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56596-2022</t>
+          <t>A 46777-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44888</v>
+        <v>45583</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4498,7 +4488,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4535,14 +4525,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17723-2023</t>
+          <t>A 47136-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45037</v>
+        <v>44848</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4555,7 +4545,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4592,14 +4582,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 43891-2022</t>
+          <t>A 12855-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44838</v>
+        <v>45001</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4612,7 +4602,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4649,14 +4639,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56231-2022</t>
+          <t>A 11379-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44890</v>
+        <v>45372.43756944445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4669,7 +4659,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4706,14 +4696,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 19196-2021</t>
+          <t>A 61377-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44308</v>
+        <v>45646.39682870371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4726,7 +4716,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>9.5</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4763,14 +4753,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14849-2024</t>
+          <t>A 28385-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45398</v>
+        <v>45477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4773,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>0.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4820,14 +4810,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 15657-2025</t>
+          <t>A 17723-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45748</v>
+        <v>45037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4840,7 +4830,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4877,14 +4867,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 73544-2021</t>
+          <t>A 531-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44551</v>
+        <v>45664.50216435185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4896,13 +4886,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4939,14 +4924,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 43469-2024</t>
+          <t>A 16665-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45568.72523148148</v>
+        <v>44672</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4959,7 +4944,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4996,14 +4981,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 40083-2025</t>
+          <t>A 44960-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45894.46975694445</v>
+        <v>45190</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5016,7 +5001,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5053,14 +5038,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28332-2024</t>
+          <t>A 4120-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45477</v>
+        <v>45323.67927083333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5073,7 +5058,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5110,14 +5095,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28352-2024</t>
+          <t>A 39603-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45477</v>
+        <v>45167.46493055556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5130,7 +5115,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5167,14 +5152,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40090-2025</t>
+          <t>A 54753-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45894.47711805555</v>
+        <v>44883</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5187,7 +5172,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5224,14 +5209,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53956-2023</t>
+          <t>A 40083-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45231</v>
+        <v>45894.46975694445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5244,7 +5229,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5281,14 +5266,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9466-2025</t>
+          <t>A 5730-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45715.46888888889</v>
+        <v>44596</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5301,7 +5286,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5338,14 +5323,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27251-2024</t>
+          <t>A 40090-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45471</v>
+        <v>45894.47711805555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5358,7 +5343,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5395,14 +5380,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23116-2025</t>
+          <t>A 13437-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45791.37001157407</v>
+        <v>45005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5415,7 +5400,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5452,14 +5437,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 4120-2024</t>
+          <t>A 14515-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45323.67927083333</v>
+        <v>45012</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5472,7 +5457,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5509,14 +5494,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12028-2025</t>
+          <t>A 26757-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45728.64225694445</v>
+        <v>45093</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5529,7 +5514,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5566,14 +5551,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 54753-2022</t>
+          <t>A 41516-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44883</v>
+        <v>45901.54479166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5586,7 +5571,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5623,14 +5608,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50250-2024</t>
+          <t>A 20381-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45600.57039351852</v>
+        <v>45775.43020833333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5643,7 +5628,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5680,14 +5665,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 47136-2022</t>
+          <t>A 43877-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44848</v>
+        <v>44838</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5700,7 +5685,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5737,14 +5722,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41516-2025</t>
+          <t>A 43897-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45901.54479166667</v>
+        <v>44838</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5757,7 +5742,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5794,14 +5779,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 43871-2022</t>
+          <t>A 8478-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44838</v>
+        <v>45709.48738425926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5799,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5851,14 +5836,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 43884-2022</t>
+          <t>A 27219-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44838</v>
+        <v>44741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5856,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5908,14 +5893,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49745-2025</t>
+          <t>A 63268-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45940.34168981481</v>
+        <v>45273.75299768519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5913,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5965,14 +5950,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 49780-2025</t>
+          <t>A 29285-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45940.38962962963</v>
+        <v>45824</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5970,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6022,14 +6007,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 51235-2025</t>
+          <t>A 12111-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45947.68568287037</v>
+        <v>45729.35930555555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6027,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6079,14 +6064,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14514-2023</t>
+          <t>A 2114-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45012</v>
+        <v>45672.6284375</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6084,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6136,14 +6121,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30951-2023</t>
+          <t>A 34109-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45113</v>
+        <v>45845.49778935185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6156,7 +6141,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6193,14 +6178,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48921-2024</t>
+          <t>A 30730-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45594</v>
+        <v>45831</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6213,7 +6198,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6250,14 +6235,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 52281-2024</t>
+          <t>A 28830-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45608</v>
+        <v>45820</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6270,7 +6255,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12.3</v>
+        <v>3.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6307,14 +6292,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48909-2024</t>
+          <t>A 45241-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45594</v>
+        <v>45919.59726851852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6312,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>28.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6364,14 +6349,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 13475-2024</t>
+          <t>A 45164-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45387.58354166667</v>
+        <v>45919.49057870371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6384,7 +6369,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6421,14 +6406,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60425-2022</t>
+          <t>A 21066-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44911</v>
+        <v>45061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6440,8 +6425,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6478,14 +6468,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61087-2022</t>
+          <t>A 26590-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44915</v>
+        <v>45807</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6498,7 +6488,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6535,14 +6525,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 53460-2022</t>
+          <t>A 26591-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44879</v>
+        <v>45807</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6555,7 +6545,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6592,14 +6582,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 51131-2021</t>
+          <t>A 28352-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44461</v>
+        <v>45477</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6612,7 +6602,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6649,14 +6639,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25749-2025</t>
+          <t>A 15905-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45804.29387731481</v>
+        <v>45405</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6669,7 +6659,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6706,14 +6696,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30730-2025</t>
+          <t>A 28332-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45831</v>
+        <v>45477</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6726,7 +6716,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.4</v>
+        <v>7.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6763,14 +6753,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31092-2023</t>
+          <t>A 6760-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45113</v>
+        <v>45342.47940972223</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6783,7 +6773,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6820,14 +6810,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 55347-2025</t>
+          <t>A 26251-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45971.35238425926</v>
+        <v>45805.57872685185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6840,7 +6830,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6877,14 +6867,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28189-2024</t>
+          <t>A 6174-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45477</v>
+        <v>45698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6897,7 +6887,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6934,14 +6924,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45241-2025</t>
+          <t>A 4247-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45919.59726851852</v>
+        <v>45685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6954,7 +6944,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6991,14 +6981,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26592-2025</t>
+          <t>A 49745-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45807.8859375</v>
+        <v>45940.34168981481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7048,14 +7038,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45164-2025</t>
+          <t>A 49780-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45919.49057870371</v>
+        <v>45940.38962962963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7058,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7105,14 +7095,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37082-2024</t>
+          <t>A 3407-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45539</v>
+        <v>45318</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7125,7 +7115,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>6.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7162,14 +7152,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27828-2025</t>
+          <t>A 26764-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45817</v>
+        <v>45093</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7182,7 +7172,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7219,14 +7209,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 14554-2025</t>
+          <t>A 53848-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45741</v>
+        <v>45231</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7239,7 +7229,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7276,14 +7266,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56304-2025</t>
+          <t>A 51235-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45974.60929398148</v>
+        <v>45947.68568287037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7296,7 +7286,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7333,14 +7323,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56307-2025</t>
+          <t>A 10452-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45974.61260416666</v>
+        <v>44981</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7353,7 +7343,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7390,14 +7380,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44739-2024</t>
+          <t>A 2950-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45574.59447916667</v>
+        <v>45315</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7410,7 +7400,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7447,14 +7437,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57461-2022</t>
+          <t>A 20512-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44896</v>
+        <v>45057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7467,7 +7457,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7504,14 +7494,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7655-2025</t>
+          <t>A 43996-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45706</v>
+        <v>44838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7524,7 +7514,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7561,14 +7551,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 57982-2025</t>
+          <t>A 47222-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45982.41506944445</v>
+        <v>44852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7571,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>12.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7618,14 +7608,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 7306-2023</t>
+          <t>A 4928-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44970</v>
+        <v>44593.47482638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7638,7 +7628,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7675,14 +7665,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 8478-2025</t>
+          <t>A 14514-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45709.48738425926</v>
+        <v>45012</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7695,7 +7685,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7732,14 +7722,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 29285-2025</t>
+          <t>A 54711-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45824</v>
+        <v>45618</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7752,7 +7742,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7789,14 +7779,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 51301-2024</t>
+          <t>A 45092-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45604.28789351852</v>
+        <v>45575.5844212963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7809,7 +7799,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7846,14 +7836,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46777-2024</t>
+          <t>A 55347-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45583</v>
+        <v>45971.35238425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7866,7 +7856,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7903,14 +7893,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16663-2022</t>
+          <t>A 56304-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44672</v>
+        <v>45974.60929398148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7960,14 +7950,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 40595-2021</t>
+          <t>A 56307-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44420.47767361111</v>
+        <v>45974.61260416666</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7980,7 +7970,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8017,14 +8007,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28830-2025</t>
+          <t>A 57428-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45820</v>
+        <v>45240</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8037,7 +8027,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8074,14 +8064,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 10452-2023</t>
+          <t>A 70984-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44981</v>
+        <v>44538</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8094,7 +8084,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8131,14 +8121,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12111-2025</t>
+          <t>A 40595-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45729.35930555555</v>
+        <v>44420.47767361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8151,7 +8141,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8188,14 +8178,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 34109-2025</t>
+          <t>A 61007-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45845.49778935185</v>
+        <v>45645.44342592593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8207,8 +8197,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8245,14 +8240,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47222-2022</t>
+          <t>A 1475-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44852</v>
+        <v>44573.50236111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8265,7 +8260,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>12.3</v>
+        <v>4.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8302,14 +8297,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2950-2024</t>
+          <t>A 41623-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45315</v>
+        <v>45175.68952546296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8322,7 +8317,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8359,14 +8354,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26590-2025</t>
+          <t>A 57982-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45807</v>
+        <v>45982.41506944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8379,7 +8374,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8416,14 +8411,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13432-2023</t>
+          <t>A 37074-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45005.61023148148</v>
+        <v>45539</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8436,7 +8431,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8473,14 +8468,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 26591-2025</t>
+          <t>A 51301-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45807</v>
+        <v>45604.28789351852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8493,7 +8488,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8530,14 +8525,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19380-2021</t>
+          <t>A 3940-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44309</v>
+        <v>45322</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8550,7 +8545,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8587,14 +8582,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53848-2023</t>
+          <t>A 53460-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45231</v>
+        <v>44879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8607,7 +8602,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8644,14 +8639,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 26251-2025</t>
+          <t>A 53807-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45805.57872685185</v>
+        <v>45231</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8664,7 +8659,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8701,14 +8696,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14515-2023</t>
+          <t>A 44728-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45012</v>
+        <v>45574.57978009259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8721,7 +8716,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8758,14 +8753,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 13429-2023</t>
+          <t>A 26033-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45005.60744212963</v>
+        <v>44734</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8777,8 +8772,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8815,14 +8815,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12855-2023</t>
+          <t>A 15657-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45001</v>
+        <v>45748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8872,14 +8872,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45092-2024</t>
+          <t>A 2852-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45575.5844212963</v>
+        <v>46038.4815162037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8929,14 +8929,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61007-2024</t>
+          <t>A 3182-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45645.44342592593</v>
+        <v>46041.45050925926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8948,13 +8948,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8991,14 +8986,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 36119-2024</t>
+          <t>A 7306-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45534</v>
+        <v>44970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9006,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9048,14 +9043,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 2852-2026</t>
+          <t>A 61169-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46038.4815162037</v>
+        <v>46000</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9068,7 +9063,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9105,14 +9100,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 3182-2026</t>
+          <t>A 61175-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46041.45050925926</v>
+        <v>46000</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9125,7 +9120,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9162,14 +9157,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 61169-2025</t>
+          <t>A 18345-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46000</v>
+        <v>44685</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,6 +9174,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -9219,14 +9219,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 61175-2025</t>
+          <t>A 36211-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46000</v>
+        <v>45534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>7.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9276,14 +9276,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 20381-2025</t>
+          <t>A 36119-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45775.43020833333</v>
+        <v>45534</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9333,14 +9333,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 38813-2025</t>
+          <t>A 43891-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45887</v>
+        <v>44838</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9390,14 +9390,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16969-2025</t>
+          <t>A 57461-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45755.4659837963</v>
+        <v>44896</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9447,14 +9447,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 62944-2025</t>
+          <t>A 65200-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46009</v>
+        <v>44515</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9504,14 +9504,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 43877-2022</t>
+          <t>A 7655-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44838</v>
+        <v>45706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9561,14 +9561,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 43897-2022</t>
+          <t>A 14554-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44838</v>
+        <v>45741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9618,14 +9618,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 30645-2022</t>
+          <t>A 62944-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44763</v>
+        <v>46009</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9675,14 +9675,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 19629-2025</t>
+          <t>A 38813-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45770.64084490741</v>
+        <v>45887</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9732,14 +9732,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 65200-2021</t>
+          <t>A 25934-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44515</v>
+        <v>44734</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9751,8 +9751,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9789,14 +9794,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 6589-2025</t>
+          <t>A 18348-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45700.30015046296</v>
+        <v>44685.67729166667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9808,8 +9813,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9846,14 +9856,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16110-2024</t>
+          <t>A 6440-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45406</v>
+        <v>45338.65138888889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9903,14 +9913,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 4928-2022</t>
+          <t>A 19629-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44593.47482638889</v>
+        <v>45770.64084490741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9923,7 +9933,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9960,14 +9970,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 2935-2024</t>
+          <t>A 56596-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45315</v>
+        <v>44888</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9980,7 +9990,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10017,14 +10027,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50513-2025</t>
+          <t>A 16663-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45945</v>
+        <v>44672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10037,7 +10047,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10074,14 +10084,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 26764-2023</t>
+          <t>A 50513-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45093</v>
+        <v>45945</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10094,7 +10104,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10131,14 +10141,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 30087-2023</t>
+          <t>A 30645-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45110</v>
+        <v>44763</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10151,7 +10161,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10188,14 +10198,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56941-2025</t>
+          <t>A 6941-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45978</v>
+        <v>45343.41258101852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10208,7 +10218,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10245,14 +10255,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 16434-2025</t>
+          <t>A 6944-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45751.48209490741</v>
+        <v>45343.42164351852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10265,7 +10275,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10302,14 +10312,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 19633-2023</t>
+          <t>A 2935-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45051</v>
+        <v>45315</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10321,13 +10331,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10364,14 +10369,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 8290-2026</t>
+          <t>A 14849-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46064</v>
+        <v>45398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10384,7 +10389,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10421,14 +10426,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53807-2023</t>
+          <t>A 56941-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45231</v>
+        <v>45978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10441,7 +10446,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10478,14 +10483,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 3-2026</t>
+          <t>A 13432-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46023.44236111111</v>
+        <v>45005.61023148148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10498,7 +10503,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10535,14 +10540,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 11-2026</t>
+          <t>A 3-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46023.58386574074</v>
+        <v>46023.44236111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10555,7 +10560,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10592,14 +10597,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 531-2025</t>
+          <t>A 63139-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45664.50216435185</v>
+        <v>45273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10612,7 +10617,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10649,14 +10654,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 8329-2026</t>
+          <t>A 8290-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10669,7 +10674,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10706,14 +10711,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 8296-2026</t>
+          <t>A 11-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46064</v>
+        <v>46023.58386574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10726,7 +10731,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10763,14 +10768,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58807-2025</t>
+          <t>A 13429-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45987</v>
+        <v>45005.60744212963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10783,7 +10788,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10820,14 +10825,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8305-2026</t>
+          <t>A 8296-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10845,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10877,14 +10882,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 51232-2025</t>
+          <t>A 8329-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45947</v>
+        <v>46064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10902,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10934,14 +10939,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 5082-2026</t>
+          <t>A 5138-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46049.54256944444</v>
+        <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10954,7 +10959,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10991,14 +10996,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 6941-2024</t>
+          <t>A 51232-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45343.41258101852</v>
+        <v>45947</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11048,14 +11053,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 6944-2024</t>
+          <t>A 58807-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45343.42164351852</v>
+        <v>45987</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11068,7 +11073,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11105,14 +11110,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 7782-2022</t>
+          <t>A 8305-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44608</v>
+        <v>46064</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11125,7 +11130,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11162,14 +11167,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 28335-2024</t>
+          <t>A 5082-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45477</v>
+        <v>46049.54256944444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11182,7 +11187,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11219,14 +11224,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3407-2024</t>
+          <t>A 53455-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45318</v>
+        <v>44874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11239,7 +11244,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11276,14 +11281,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 23005-2024</t>
+          <t>A 59702-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45450.32965277778</v>
+        <v>44908</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11293,6 +11298,11 @@
       <c r="E178" t="inlineStr">
         <is>
           <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -11333,14 +11343,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 10007-2022</t>
+          <t>A 16969-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44621</v>
+        <v>45755.4659837963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11353,7 +11363,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11390,14 +11400,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 16789-2025</t>
+          <t>A 43871-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45754.60923611111</v>
+        <v>44838</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11410,7 +11420,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11447,14 +11457,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 41623-2023</t>
+          <t>A 43884-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45175.68952546296</v>
+        <v>44838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11467,7 +11477,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11504,14 +11514,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 39603-2023</t>
+          <t>A 45349-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45167.46493055556</v>
+        <v>45191</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11524,7 +11534,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11561,14 +11571,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 54711-2024</t>
+          <t>A 36884-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45618</v>
+        <v>45154.6050925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11581,7 +11591,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11618,14 +11628,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3480-2022</t>
+          <t>A 16787-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44585.62603009259</v>
+        <v>45754.60696759259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11638,7 +11648,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11675,14 +11685,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 37074-2024</t>
+          <t>A 50196-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45539</v>
+        <v>44860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11695,7 +11705,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11732,14 +11742,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 12833-2023</t>
+          <t>A 30951-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45001</v>
+        <v>45113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11752,7 +11762,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11789,14 +11799,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 5730-2022</t>
+          <t>A 50330-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44596</v>
+        <v>45216</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11809,7 +11819,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11846,14 +11856,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 37675-2023</t>
+          <t>A 50332-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45159.5582175926</v>
+        <v>45216.56113425926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11866,7 +11876,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11903,14 +11913,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 5138-2022</t>
+          <t>A 23005-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44594</v>
+        <v>45450.32965277778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11923,7 +11933,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11960,14 +11970,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 12025-2025</t>
+          <t>A 28335-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45728.63755787037</v>
+        <v>45477</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11980,7 +11990,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12017,14 +12027,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 44728-2024</t>
+          <t>A 34704-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45574.57978009259</v>
+        <v>45526</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12037,7 +12047,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12074,14 +12084,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 43996-2022</t>
+          <t>A 16759-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44838</v>
+        <v>45754.5747337963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12094,7 +12104,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12131,14 +12141,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 18345-2022</t>
+          <t>A 12833-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44685</v>
+        <v>45001</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12150,13 +12160,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12193,14 +12198,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 36884-2023</t>
+          <t>A 37082-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45154.6050925926</v>
+        <v>45539</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12213,7 +12218,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12250,14 +12255,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 18348-2022</t>
+          <t>A 19633-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44685.67729166667</v>
+        <v>45051</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12280,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12312,14 +12317,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 16665-2022</t>
+          <t>A 53956-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44672</v>
+        <v>45231</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12337,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12369,14 +12374,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 16759-2025</t>
+          <t>A 4245-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45754.5747337963</v>
+        <v>45685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12394,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12426,14 +12431,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 27219-2022</t>
+          <t>A 6589-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44741</v>
+        <v>45700.30015046296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12451,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12483,14 +12488,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 35491-2021</t>
+          <t>A 61011-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44385</v>
+        <v>45261</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12508,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12540,14 +12545,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 1475-2022</t>
+          <t>A 19380-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44573.50236111111</v>
+        <v>44309</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12565,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12597,14 +12602,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 63139-2023</t>
+          <t>A 42692-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45273</v>
+        <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12622,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12654,14 +12659,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 45349-2023</t>
+          <t>A 18246-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45191</v>
+        <v>45041</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12679,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12711,14 +12716,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 44960-2023</t>
+          <t>A 4501-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45190</v>
+        <v>45327.61340277778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12736,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12768,14 +12773,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 36211-2024</t>
+          <t>A 530-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45534</v>
+        <v>45664.50134259259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12793,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12825,14 +12830,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 42692-2022</t>
+          <t>A 56231-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44832</v>
+        <v>44890</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12850,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.8</v>
+        <v>7.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12882,14 +12887,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61011-2023</t>
+          <t>A 9701-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45261</v>
+        <v>44984</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12907,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12939,14 +12944,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13437-2023</t>
+          <t>A 7782-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45005</v>
+        <v>44608</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12964,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12996,14 +13001,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 27233-2022</t>
+          <t>A 44739-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44741</v>
+        <v>45574.59447916667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13021,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13053,14 +13058,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 50196-2022</t>
+          <t>A 12025-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44860</v>
+        <v>45728.63755787037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13078,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13110,14 +13115,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 70984-2021</t>
+          <t>A 54798-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44538</v>
+        <v>45236.49951388889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13135,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13167,14 +13172,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 21066-2023</t>
+          <t>A 19196-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45061</v>
+        <v>44308</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13186,13 +13191,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>9.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13229,14 +13229,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 57428-2023</t>
+          <t>A 43469-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45240</v>
+        <v>45568.72523148148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13286,14 +13286,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 4247-2025</t>
+          <t>A 73544-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45685</v>
+        <v>44551</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13305,8 +13305,13 @@
           <t>HÖÖR</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13343,14 +13348,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 12842-2023</t>
+          <t>A 50250-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45001</v>
+        <v>45600.57039351852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13363,7 +13368,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13400,14 +13405,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 26033-2022</t>
+          <t>A 9466-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44734</v>
+        <v>45715.46888888889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13419,13 +13424,8 @@
           <t>HÖÖR</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>9.300000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13462,14 +13462,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 3940-2024</t>
+          <t>A 12028-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45322</v>
+        <v>45728.64225694445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13519,14 +13519,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 34704-2024</t>
+          <t>A 23116-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45526</v>
+        <v>45791.37001157407</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13576,14 +13576,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 6440-2024</t>
+          <t>A 27251-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45338.65138888889</v>
+        <v>45471</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13633,14 +13633,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 20512-2023</t>
+          <t>A 48921-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45057</v>
+        <v>45594</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.7</v>
+        <v>6.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13690,14 +13690,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 9701-2023</t>
+          <t>A 48909-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44984</v>
+        <v>45594</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.4</v>
+        <v>28.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13747,14 +13747,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 35801-2024</t>
+          <t>A 13475-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45532</v>
+        <v>45387.58354166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13804,14 +13804,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 63268-2023</t>
+          <t>A 52281-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45273.75299768519</v>
+        <v>45608</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>12.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13861,14 +13861,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 50330-2023</t>
+          <t>A 51131-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45216</v>
+        <v>44461</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13918,14 +13918,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 50332-2023</t>
+          <t>A 60425-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45216.56113425926</v>
+        <v>44911</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13975,14 +13975,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 11379-2024</t>
+          <t>A 61087-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45372.43756944445</v>
+        <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14032,14 +14032,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 18246-2023</t>
+          <t>A 25749-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45041</v>
+        <v>45804.29387731481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14089,14 +14089,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 530-2025</t>
+          <t>A 28189-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45664.50134259259</v>
+        <v>45477</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14146,14 +14146,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 4501-2024</t>
+          <t>A 26592-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45327.61340277778</v>
+        <v>45807.8859375</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14203,14 +14203,14 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 26757-2023</t>
+          <t>A 27828-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45093</v>
+        <v>45817</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -575,7 +575,7 @@
         <v>44911</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45098</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45348</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45050</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45315</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45922.63372685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45322.57806712963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>46002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45945</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>46064</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>45447.56391203704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>45594</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>45802</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44882.93611111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>44370.37863425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>44396.42534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>44264</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44713</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44342.59005787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44612.72564814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44883.57881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44538</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44273</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44284.6778125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44461.42746527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44442.36733796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44596</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44585.62603009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44385</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>45532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>45406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>45159.5582175926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>45751.48209490741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>45754.60923611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>45001</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>45583</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44848</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45001</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>45372.43756944445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>45646.39682870371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>45477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>45664.50216435185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44672</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>45190</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>45323.67927083333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45167.46493055556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44883</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45894.46975694445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44596</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45894.47711805555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>45005</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>45012</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45093</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>45901.54479166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>45775.43020833333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44838</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44838</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>45709.48738425926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45273.75299768519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>45824</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>45729.35930555555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>45672.6284375</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>45845.49778935185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>45831</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>45820</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>45919.59726851852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>45919.49057870371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>45061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>45807</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>45807</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>45477</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>45405</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>45477</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>45342.47940972223</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45805.57872685185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>45698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>45685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45940.34168981481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>45940.38962962963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45318</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45093</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>45231</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45947.68568287037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>44981</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>45315</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>45057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>44838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>44852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>44593.47482638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>45012</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>45618</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>45575.5844212963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>45971.35238425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>45974.60929398148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>45974.61260416666</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45240</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44538</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44420.47767361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>45645.44342592593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44573.50236111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>45175.68952546296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45982.41506944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45539</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>45604.28789351852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45322</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>45231</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45574.57978009259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>44734</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>45748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>46038.4815162037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>46041.45050925926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>46000</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>46000</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44685</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>45534</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>45534</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>44838</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44896</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44515</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>45706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>45741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>46009</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>45887</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>44734</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>44685.67729166667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>45338.65138888889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>45770.64084490741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44888</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>45945</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>44763</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45343.41258101852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45343.42164351852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45315</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45398</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45005.61023148148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>46023.44236111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>46064</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>46023.58386574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45005.60744212963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>46064</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>46064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>45947</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>45987</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>46064</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>46049.54256944444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44908</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45755.4659837963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44838</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45191</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45154.6050925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>45754.60696759259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>44860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45216</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45216.56113425926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45450.32965277778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45477</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45526</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45754.5747337963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>45001</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>45539</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45051</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45231</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>45685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>45700.30015046296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45261</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44309</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45041</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45327.61340277778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>45664.50134259259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44890</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44984</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44608</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45574.59447916667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45728.63755787037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45236.49951388889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44308</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>45568.72523148148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44551</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45600.57039351852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45715.46888888889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45728.64225694445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>45791.37001157407</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>45471</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45594</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>45594</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45387.58354166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>45608</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44461</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44911</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>45804.29387731481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>45477</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>45807.8859375</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>45817</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
